--- a/Screenshots/_DCChartFromWebUrl.xlsx
+++ b/Screenshots/_DCChartFromWebUrl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="28380" windowHeight="12915"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="28380" windowHeight="12915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Investing Chart" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="2131">
   <si>
     <t>Sector</t>
   </si>
@@ -5954,9 +5954,6 @@
   </si>
   <si>
     <t>Xilinx Inc (XLNX)</t>
-  </si>
-  <si>
-    <t>Capitalización (B)</t>
   </si>
   <si>
     <t>Algonquin Power &amp; Utilities Corp (AQN)</t>
@@ -7653,7 +7650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AR185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8239,7 +8236,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E6" s="1">
         <v>4.07</v>
@@ -8359,7 +8356,7 @@
         <v>427.65</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.2">
@@ -8632,7 +8629,7 @@
         <v>133</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E9" s="1">
         <v>4.53</v>
@@ -8752,7 +8749,7 @@
         <v>45.94</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.2">
@@ -9549,7 +9546,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E16" s="1">
         <v>4.0599999999999996</v>
@@ -9669,7 +9666,7 @@
         <v>48.82</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="17" spans="2:44" x14ac:dyDescent="0.2">
@@ -10859,7 +10856,7 @@
         <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -10979,7 +10976,7 @@
         <v>90.55</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="27" spans="2:44" x14ac:dyDescent="0.2">
@@ -10990,7 +10987,7 @@
         <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E27" s="1">
         <v>5.88</v>
@@ -11110,7 +11107,7 @@
         <v>43.82</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="28" spans="2:44" x14ac:dyDescent="0.2">
@@ -11121,7 +11118,7 @@
         <v>106</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E28" s="1">
         <v>6.46</v>
@@ -11241,7 +11238,7 @@
         <v>1.4</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="29" spans="2:44" x14ac:dyDescent="0.2">
@@ -11776,7 +11773,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E33" s="1">
         <v>6.93</v>
@@ -11896,7 +11893,7 @@
         <v>166.16</v>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="34" spans="2:44" x14ac:dyDescent="0.2">
@@ -12038,7 +12035,7 @@
         <v>58</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E35" s="1">
         <v>5.93</v>
@@ -12158,7 +12155,7 @@
         <v>427.65</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="36" spans="2:44" x14ac:dyDescent="0.2">
@@ -12562,7 +12559,7 @@
         <v>51</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E39" s="1">
         <v>4.05</v>
@@ -12682,7 +12679,7 @@
         <v>63.54</v>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="40" spans="2:44" x14ac:dyDescent="0.2">
@@ -12693,7 +12690,7 @@
         <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E40" s="1">
         <v>4.3499999999999996</v>
@@ -12813,7 +12810,7 @@
         <v>427.65</v>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="41" spans="2:44" x14ac:dyDescent="0.2">
@@ -12824,7 +12821,7 @@
         <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E41" s="1">
         <v>5.82</v>
@@ -12944,7 +12941,7 @@
         <v>427.65</v>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="42" spans="2:44" x14ac:dyDescent="0.2">
@@ -13086,7 +13083,7 @@
         <v>157</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E43" s="1">
         <v>7.46</v>
@@ -13206,7 +13203,7 @@
         <v>52.82</v>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="44" spans="2:44" x14ac:dyDescent="0.2">
@@ -14003,7 +14000,7 @@
         <v>23</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E50" s="1">
         <v>4.33</v>
@@ -14123,7 +14120,7 @@
         <v>166.16</v>
       </c>
       <c r="AR50" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="51" spans="2:44" x14ac:dyDescent="0.2">
@@ -14134,7 +14131,7 @@
         <v>31</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E51" s="1">
         <v>4.9800000000000004</v>
@@ -14254,7 +14251,7 @@
         <v>44.87</v>
       </c>
       <c r="AR51" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="52" spans="2:44" x14ac:dyDescent="0.2">
@@ -14527,7 +14524,7 @@
         <v>58</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E54" s="1">
         <v>4.4000000000000004</v>
@@ -14658,7 +14655,7 @@
         <v>77</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E55" s="1">
         <v>4.71</v>
@@ -14778,7 +14775,7 @@
         <v>93.12</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="56" spans="2:44" x14ac:dyDescent="0.2">
@@ -15313,7 +15310,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E60" s="1">
         <v>5.14</v>
@@ -15433,7 +15430,7 @@
         <v>21.67</v>
       </c>
       <c r="AR60" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="61" spans="2:44" x14ac:dyDescent="0.2">
@@ -15837,7 +15834,7 @@
         <v>68</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E64" s="1">
         <v>9</v>
@@ -15957,7 +15954,7 @@
         <v>911.31</v>
       </c>
       <c r="AR64" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="65" spans="2:44" x14ac:dyDescent="0.2">
@@ -15968,7 +15965,7 @@
         <v>68</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E65" s="1">
         <v>6.08</v>
@@ -16088,7 +16085,7 @@
         <v>911.31</v>
       </c>
       <c r="AR65" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="66" spans="2:44" x14ac:dyDescent="0.2">
@@ -16099,7 +16096,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E66" s="1">
         <v>8.43</v>
@@ -16219,7 +16216,7 @@
         <v>63.16</v>
       </c>
       <c r="AR66" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="67" spans="2:44" x14ac:dyDescent="0.2">
@@ -16227,10 +16224,10 @@
         <v>36</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>1746</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>1747</v>
       </c>
       <c r="E67" s="1">
         <v>4.3600000000000003</v>
@@ -16350,7 +16347,7 @@
         <v>33.32</v>
       </c>
       <c r="AR67" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="68" spans="2:44" x14ac:dyDescent="0.2">
@@ -16489,10 +16486,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>1749</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>1750</v>
       </c>
       <c r="E69" s="1">
         <v>4.5999999999999996</v>
@@ -16612,7 +16609,7 @@
         <v>109.03</v>
       </c>
       <c r="AR69" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="70" spans="2:44" x14ac:dyDescent="0.2">
@@ -16623,7 +16620,7 @@
         <v>74</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E70" s="1">
         <v>5.48</v>
@@ -16743,7 +16740,7 @@
         <v>49.32</v>
       </c>
       <c r="AR70" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="71" spans="2:44" x14ac:dyDescent="0.2">
@@ -16754,7 +16751,7 @@
         <v>40</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E71" s="1">
         <v>6.66</v>
@@ -16874,7 +16871,7 @@
         <v>22.07</v>
       </c>
       <c r="AR71" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="72" spans="2:44" x14ac:dyDescent="0.2">
@@ -16885,7 +16882,7 @@
         <v>58</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E72" s="1">
         <v>5.14</v>
@@ -17005,7 +17002,7 @@
         <v>8</v>
       </c>
       <c r="AR72" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="73" spans="2:44" x14ac:dyDescent="0.2">
@@ -17016,7 +17013,7 @@
         <v>25</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E73" s="1">
         <v>8.1199999999999992</v>
@@ -17136,7 +17133,7 @@
         <v>83.08</v>
       </c>
       <c r="AR73" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="74" spans="2:44" x14ac:dyDescent="0.2">
@@ -17147,7 +17144,7 @@
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E74" s="1">
         <v>4.53</v>
@@ -17267,7 +17264,7 @@
         <v>8</v>
       </c>
       <c r="AR74" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="75" spans="2:44" x14ac:dyDescent="0.2">
@@ -17802,7 +17799,7 @@
         <v>23</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E79" s="1">
         <v>4.6100000000000003</v>
@@ -17922,7 +17919,7 @@
         <v>166.16</v>
       </c>
       <c r="AR79" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="80" spans="2:44" x14ac:dyDescent="0.2">
@@ -18323,7 +18320,7 @@
         <v>39</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>96</v>
@@ -18457,7 +18454,7 @@
         <v>23</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E84" s="1">
         <v>4.25</v>
@@ -18981,7 +18978,7 @@
         <v>63</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E88" s="1">
         <v>12.15</v>
@@ -19101,7 +19098,7 @@
         <v>143.79</v>
       </c>
       <c r="AR88" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="89" spans="2:44" x14ac:dyDescent="0.2">
@@ -19505,7 +19502,7 @@
         <v>23</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E92" s="1">
         <v>4.74</v>
@@ -19625,7 +19622,7 @@
         <v>44.5</v>
       </c>
       <c r="AR92" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="93" spans="2:44" x14ac:dyDescent="0.2">
@@ -19633,10 +19630,10 @@
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>1770</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>1771</v>
       </c>
       <c r="E93" s="1">
         <v>5.65</v>
@@ -19756,7 +19753,7 @@
         <v>8</v>
       </c>
       <c r="AR93" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="94" spans="2:44" x14ac:dyDescent="0.2">
@@ -19895,7 +19892,7 @@
         <v>22</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>105</v>
@@ -20029,7 +20026,7 @@
         <v>106</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E96" s="1">
         <v>4.88</v>
@@ -20149,7 +20146,7 @@
         <v>67.27</v>
       </c>
       <c r="AR96" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="97" spans="2:44" x14ac:dyDescent="0.2">
@@ -20160,7 +20157,7 @@
         <v>58</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="E97" s="1">
         <v>4.18</v>
@@ -20280,7 +20277,7 @@
         <v>427.65</v>
       </c>
       <c r="AR97" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="98" spans="2:44" x14ac:dyDescent="0.2">
@@ -20291,7 +20288,7 @@
         <v>63</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E98" s="1">
         <v>7.68</v>
@@ -20411,7 +20408,7 @@
         <v>151.24</v>
       </c>
       <c r="AR98" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="99" spans="2:44" x14ac:dyDescent="0.2">
@@ -20422,7 +20419,7 @@
         <v>106</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E99" s="1">
         <v>7.07</v>
@@ -20542,7 +20539,7 @@
         <v>64.28</v>
       </c>
       <c r="AR99" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="100" spans="2:44" x14ac:dyDescent="0.2">
@@ -20815,7 +20812,7 @@
         <v>51</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E102" s="1">
         <v>5.84</v>
@@ -20935,7 +20932,7 @@
         <v>63.54</v>
       </c>
       <c r="AR102" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="103" spans="2:44" x14ac:dyDescent="0.2">
@@ -21863,7 +21860,7 @@
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E110" s="1">
         <v>4.83</v>
@@ -21983,7 +21980,7 @@
         <v>64.28</v>
       </c>
       <c r="AR110" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="111" spans="2:44" x14ac:dyDescent="0.2">
@@ -22256,7 +22253,7 @@
         <v>157</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E113" s="1">
         <v>5.2</v>
@@ -22376,7 +22373,7 @@
         <v>49.05</v>
       </c>
       <c r="AR113" s="1" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="114" spans="2:44" x14ac:dyDescent="0.2">
@@ -22518,7 +22515,7 @@
         <v>63</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E115" s="1">
         <v>6.23</v>
@@ -22638,7 +22635,7 @@
         <v>143.79</v>
       </c>
       <c r="AR115" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="116" spans="2:44" x14ac:dyDescent="0.2">
@@ -23042,7 +23039,7 @@
         <v>31</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E119" s="1">
         <v>4.74</v>
@@ -23162,7 +23159,7 @@
         <v>60.59</v>
       </c>
       <c r="AR119" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="120" spans="2:44" x14ac:dyDescent="0.2">
@@ -23959,7 +23956,7 @@
         <v>23</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E126" s="1">
         <v>5.17</v>
@@ -24079,7 +24076,7 @@
         <v>166.16</v>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="127" spans="2:44" x14ac:dyDescent="0.2">
@@ -24087,10 +24084,10 @@
         <v>39</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E127" s="1">
         <v>6</v>
@@ -24210,7 +24207,7 @@
         <v>100.89</v>
       </c>
       <c r="AR127" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="128" spans="2:44" x14ac:dyDescent="0.2">
@@ -24221,7 +24218,7 @@
         <v>70</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E128" s="1">
         <v>8.19</v>
@@ -24341,7 +24338,7 @@
         <v>456.16</v>
       </c>
       <c r="AR128" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="129" spans="2:44" x14ac:dyDescent="0.2">
@@ -24483,7 +24480,7 @@
         <v>70</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E130" s="1">
         <v>5.0999999999999996</v>
@@ -24603,7 +24600,7 @@
         <v>456.16</v>
       </c>
       <c r="AR130" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="131" spans="2:44" x14ac:dyDescent="0.2">
@@ -24745,7 +24742,7 @@
         <v>58</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E132" s="1">
         <v>6.17</v>
@@ -24865,7 +24862,7 @@
         <v>58.19</v>
       </c>
       <c r="AR132" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="133" spans="2:44" x14ac:dyDescent="0.2">
@@ -24876,7 +24873,7 @@
         <v>63</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E133" s="1">
         <v>5.16</v>
@@ -24996,7 +24993,7 @@
         <v>151.24</v>
       </c>
       <c r="AR133" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="134" spans="2:44" x14ac:dyDescent="0.2">
@@ -25528,10 +25525,10 @@
         <v>12</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>1805</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>1806</v>
       </c>
       <c r="E138" s="1">
         <v>4.03</v>
@@ -25651,7 +25648,7 @@
         <v>24.86</v>
       </c>
       <c r="AR138" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="139" spans="2:44" x14ac:dyDescent="0.2">
@@ -26448,7 +26445,7 @@
         <v>23</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E145" s="1">
         <v>4.3899999999999997</v>
@@ -26568,7 +26565,7 @@
         <v>166.16</v>
       </c>
       <c r="AR145" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="146" spans="2:44" x14ac:dyDescent="0.2">
@@ -26969,10 +26966,10 @@
         <v>22</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>1810</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>1811</v>
       </c>
       <c r="E149" s="1">
         <v>4.2</v>
@@ -27092,7 +27089,7 @@
         <v>138.24</v>
       </c>
       <c r="AR149" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="150" spans="2:44" x14ac:dyDescent="0.2">
@@ -27365,7 +27362,7 @@
         <v>74</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E152" s="1">
         <v>7.02</v>
@@ -27485,7 +27482,7 @@
         <v>64.58</v>
       </c>
       <c r="AR152" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="153" spans="2:44" x14ac:dyDescent="0.2">
@@ -28937,7 +28934,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E164" s="1">
         <v>4.3899999999999997</v>
@@ -29057,7 +29054,7 @@
         <v>74.72</v>
       </c>
       <c r="AR164" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="165" spans="2:44" x14ac:dyDescent="0.2">
@@ -29199,7 +29196,7 @@
         <v>23</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E166" s="1">
         <v>8.32</v>
@@ -29319,7 +29316,7 @@
         <v>166.16</v>
       </c>
       <c r="AR166" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="167" spans="2:44" x14ac:dyDescent="0.2">
@@ -29461,7 +29458,7 @@
         <v>25</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E168" s="1">
         <v>4.66</v>
@@ -29581,7 +29578,7 @@
         <v>85.71</v>
       </c>
       <c r="AR168" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="169" spans="2:44" x14ac:dyDescent="0.2">
@@ -29854,7 +29851,7 @@
         <v>58</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E171" s="1">
         <v>6.36</v>
@@ -29974,7 +29971,7 @@
         <v>427.65</v>
       </c>
       <c r="AR171" s="1" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="172" spans="2:44" x14ac:dyDescent="0.2">
@@ -29985,7 +29982,7 @@
         <v>63</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E172" s="1">
         <v>4.45</v>
@@ -30105,7 +30102,7 @@
         <v>151.24</v>
       </c>
       <c r="AR172" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="173" spans="2:44" x14ac:dyDescent="0.2">
@@ -31164,7 +31161,7 @@
         <v>133</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E181" s="1">
         <v>4.59</v>
@@ -31284,7 +31281,7 @@
         <v>45.94</v>
       </c>
       <c r="AR181" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="182" spans="2:44" x14ac:dyDescent="0.2">
@@ -31844,7 +31841,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1701</v>
+        <v>2129</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>354</v>
@@ -31875,7 +31872,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -31889,7 +31886,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -31903,7 +31900,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -31917,7 +31914,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -31931,7 +31928,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -31945,7 +31942,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -31959,7 +31956,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -31973,7 +31970,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -31987,7 +31984,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -32001,7 +31998,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -32015,7 +32012,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -32029,7 +32026,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -32043,7 +32040,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -32057,7 +32054,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -32071,7 +32068,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -32085,7 +32082,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -32099,7 +32096,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -32113,7 +32110,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -32127,7 +32124,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -32141,7 +32138,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -32155,7 +32152,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -32169,7 +32166,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -32183,7 +32180,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -32197,7 +32194,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -32211,7 +32208,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -32225,7 +32222,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -32239,7 +32236,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -32253,7 +32250,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -32267,7 +32264,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -32281,7 +32278,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -32295,7 +32292,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -32309,7 +32306,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -32323,7 +32320,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -32337,7 +32334,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -32351,7 +32348,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -32365,7 +32362,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -32379,7 +32376,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -32393,7 +32390,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -32407,7 +32404,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
@@ -32421,7 +32418,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
@@ -32435,7 +32432,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -32449,7 +32446,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -32463,7 +32460,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -32477,7 +32474,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -32491,7 +32488,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
@@ -32505,7 +32502,7 @@
         <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -32519,7 +32516,7 @@
         <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -32533,7 +32530,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
@@ -32547,7 +32544,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
@@ -32561,7 +32558,7 @@
         <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -32575,7 +32572,7 @@
         <v>8</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -32589,7 +32586,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
@@ -32603,7 +32600,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
@@ -32617,7 +32614,7 @@
         <v>8</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
@@ -32631,7 +32628,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
@@ -32645,7 +32642,7 @@
         <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
@@ -32659,7 +32656,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
@@ -32673,7 +32670,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
@@ -32687,7 +32684,7 @@
         <v>8</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
@@ -32701,7 +32698,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -32715,7 +32712,7 @@
         <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
@@ -32743,7 +32740,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
@@ -32771,7 +32768,7 @@
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
@@ -32785,7 +32782,7 @@
         <v>8</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -32799,7 +32796,7 @@
         <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
@@ -32813,7 +32810,7 @@
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
@@ -32855,7 +32852,7 @@
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
@@ -32869,7 +32866,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -32883,7 +32880,7 @@
         <v>8</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
@@ -32897,7 +32894,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -32911,7 +32908,7 @@
         <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
@@ -32939,7 +32936,7 @@
         <v>8</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
@@ -32953,7 +32950,7 @@
         <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
@@ -32981,7 +32978,7 @@
         <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
@@ -32995,7 +32992,7 @@
         <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
@@ -33009,7 +33006,7 @@
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -33023,7 +33020,7 @@
         <v>8</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
@@ -33037,7 +33034,7 @@
         <v>8</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
@@ -33051,7 +33048,7 @@
         <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
@@ -33065,7 +33062,7 @@
         <v>8</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
@@ -33079,7 +33076,7 @@
         <v>8</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
@@ -33093,7 +33090,7 @@
         <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -33107,7 +33104,7 @@
         <v>8</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
@@ -33121,7 +33118,7 @@
         <v>8</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
@@ -33135,7 +33132,7 @@
         <v>8</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
@@ -33160,7 +33157,7 @@
         <v>8</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
@@ -33174,7 +33171,7 @@
         <v>8</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
@@ -33188,7 +33185,7 @@
         <v>8</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
@@ -33216,7 +33213,7 @@
         <v>8</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
@@ -33230,7 +33227,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -33244,7 +33241,7 @@
         <v>8</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
@@ -33258,7 +33255,7 @@
         <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
@@ -33286,7 +33283,7 @@
         <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
@@ -33300,7 +33297,7 @@
         <v>8</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
@@ -33314,7 +33311,7 @@
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
@@ -33328,7 +33325,7 @@
         <v>8</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -33342,7 +33339,7 @@
         <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -33356,7 +33353,7 @@
         <v>8</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
@@ -33370,7 +33367,7 @@
         <v>8</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
@@ -33384,7 +33381,7 @@
         <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
@@ -33398,7 +33395,7 @@
         <v>8</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
@@ -33412,7 +33409,7 @@
         <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
@@ -33426,7 +33423,7 @@
         <v>8</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
@@ -33440,7 +33437,7 @@
         <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
@@ -33454,7 +33451,7 @@
         <v>8</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
@@ -33468,7 +33465,7 @@
         <v>8</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
@@ -33482,7 +33479,7 @@
         <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
@@ -33510,7 +33507,7 @@
         <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
@@ -33524,7 +33521,7 @@
         <v>8</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
@@ -33538,7 +33535,7 @@
         <v>8</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
@@ -33552,7 +33549,7 @@
         <v>8</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
@@ -33566,7 +33563,7 @@
         <v>8</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
@@ -33580,7 +33577,7 @@
         <v>8</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
@@ -33594,7 +33591,7 @@
         <v>8</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
@@ -33608,7 +33605,7 @@
         <v>8</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
@@ -33622,7 +33619,7 @@
         <v>8</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
@@ -33636,7 +33633,7 @@
         <v>8</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
@@ -33650,7 +33647,7 @@
         <v>8</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
@@ -33664,7 +33661,7 @@
         <v>8</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
@@ -33678,7 +33675,7 @@
         <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
@@ -33692,7 +33689,7 @@
         <v>8</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
@@ -33706,7 +33703,7 @@
         <v>8</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
@@ -33720,7 +33717,7 @@
         <v>8</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
@@ -33734,7 +33731,7 @@
         <v>8</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
@@ -33748,7 +33745,7 @@
         <v>8</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
@@ -33762,7 +33759,7 @@
         <v>8</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
@@ -33818,7 +33815,7 @@
         <v>8</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
@@ -33832,7 +33829,7 @@
         <v>8</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
@@ -33846,7 +33843,7 @@
         <v>8</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
@@ -33860,7 +33857,7 @@
         <v>8</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
@@ -33874,7 +33871,7 @@
         <v>8</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
@@ -33902,7 +33899,7 @@
         <v>8</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
@@ -33916,7 +33913,7 @@
         <v>8</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
@@ -33944,7 +33941,7 @@
         <v>8</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
@@ -33958,7 +33955,7 @@
         <v>8</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
@@ -33972,7 +33969,7 @@
         <v>8</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
@@ -33986,7 +33983,7 @@
         <v>8</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
@@ -34000,7 +33997,7 @@
         <v>8</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
@@ -34028,7 +34025,7 @@
         <v>8</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
@@ -34042,7 +34039,7 @@
         <v>8</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -34056,7 +34053,7 @@
         <v>8</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
@@ -34070,7 +34067,7 @@
         <v>8</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
@@ -34084,7 +34081,7 @@
         <v>8</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
@@ -34098,21 +34095,21 @@
         <v>8</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>1726</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>1727</v>
-      </c>
       <c r="D164" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
@@ -34126,7 +34123,7 @@
         <v>8</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
@@ -34140,7 +34137,7 @@
         <v>8</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
@@ -34154,7 +34151,7 @@
         <v>8</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
@@ -34182,21 +34179,21 @@
         <v>8</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>1730</v>
-      </c>
       <c r="D170" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
@@ -34210,7 +34207,7 @@
         <v>8</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
@@ -34224,7 +34221,7 @@
         <v>8</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
@@ -34252,7 +34249,7 @@
         <v>8</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
@@ -34266,7 +34263,7 @@
         <v>8</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
@@ -34291,7 +34288,7 @@
         <v>728</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>8</v>
@@ -34308,7 +34305,7 @@
         <v>8</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
@@ -34322,7 +34319,7 @@
         <v>8</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
@@ -34336,7 +34333,7 @@
         <v>8</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
@@ -34364,7 +34361,7 @@
         <v>8</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
@@ -34378,7 +34375,7 @@
         <v>8</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
@@ -34392,7 +34389,7 @@
         <v>8</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
@@ -34406,7 +34403,7 @@
         <v>8</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
@@ -34420,7 +34417,7 @@
         <v>8</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
@@ -34434,7 +34431,7 @@
         <v>8</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
@@ -34462,7 +34459,7 @@
         <v>8</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
@@ -34476,7 +34473,7 @@
         <v>8</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
@@ -34490,7 +34487,7 @@
         <v>8</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
@@ -34504,7 +34501,7 @@
         <v>8</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
@@ -34518,7 +34515,7 @@
         <v>8</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
@@ -34532,7 +34529,7 @@
         <v>8</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
@@ -34546,7 +34543,7 @@
         <v>8</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
@@ -34560,7 +34557,7 @@
         <v>8</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
@@ -34574,7 +34571,7 @@
         <v>8</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
@@ -34588,7 +34585,7 @@
         <v>8</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
@@ -34602,7 +34599,7 @@
         <v>8</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
@@ -34616,7 +34613,7 @@
         <v>8</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
@@ -34630,7 +34627,7 @@
         <v>8</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
@@ -34644,7 +34641,7 @@
         <v>8</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
@@ -34658,7 +34655,7 @@
         <v>8</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
@@ -34686,7 +34683,7 @@
         <v>8</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
@@ -34714,7 +34711,7 @@
         <v>8</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
@@ -34728,7 +34725,7 @@
         <v>8</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
@@ -34742,7 +34739,7 @@
         <v>8</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
@@ -34770,7 +34767,7 @@
         <v>8</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.2">
@@ -34798,7 +34795,7 @@
         <v>8</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.2">
@@ -34812,7 +34809,7 @@
         <v>8</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.2">
@@ -34826,7 +34823,7 @@
         <v>8</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
@@ -34840,7 +34837,7 @@
         <v>8</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
@@ -34854,7 +34851,7 @@
         <v>8</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
@@ -34882,7 +34879,7 @@
         <v>8</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.2">
@@ -34896,7 +34893,7 @@
         <v>8</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
@@ -34910,7 +34907,7 @@
         <v>8</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.2">
@@ -34924,7 +34921,7 @@
         <v>8</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
@@ -34938,7 +34935,7 @@
         <v>8</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.2">
@@ -34952,7 +34949,7 @@
         <v>8</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.2">
@@ -34966,7 +34963,7 @@
         <v>8</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
@@ -34980,7 +34977,7 @@
         <v>8</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
@@ -34994,7 +34991,7 @@
         <v>8</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.2">
@@ -35005,7 +35002,7 @@
         <v>551</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>8</v>
@@ -35022,7 +35019,7 @@
         <v>8</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.2">
@@ -35036,7 +35033,7 @@
         <v>8</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.2">
@@ -35050,7 +35047,7 @@
         <v>8</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.2">
@@ -35061,7 +35058,7 @@
         <v>554</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>8</v>
@@ -35078,7 +35075,7 @@
         <v>8</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.2">
@@ -35092,7 +35089,7 @@
         <v>8</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.2">
@@ -35106,7 +35103,7 @@
         <v>8</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.2">
@@ -35120,7 +35117,7 @@
         <v>8</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.2">
@@ -35134,7 +35131,7 @@
         <v>8</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.2">
@@ -35162,7 +35159,7 @@
         <v>8</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.2">
@@ -35176,7 +35173,7 @@
         <v>8</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.2">
@@ -35190,7 +35187,7 @@
         <v>8</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.2">
@@ -35218,7 +35215,7 @@
         <v>8</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.2">
@@ -35232,7 +35229,7 @@
         <v>8</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.2">
@@ -35260,7 +35257,7 @@
         <v>8</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
@@ -35274,7 +35271,7 @@
         <v>8</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.2">
@@ -35288,7 +35285,7 @@
         <v>8</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.2">
@@ -35316,7 +35313,7 @@
         <v>8</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.2">
@@ -35330,7 +35327,7 @@
         <v>8</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.2">
@@ -35344,7 +35341,7 @@
         <v>8</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.2">
@@ -35358,7 +35355,7 @@
         <v>8</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.2">
@@ -35386,7 +35383,7 @@
         <v>8</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.2">
@@ -35400,7 +35397,7 @@
         <v>8</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.2">
@@ -35414,7 +35411,7 @@
         <v>8</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.2">
@@ -35428,7 +35425,7 @@
         <v>8</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.2">
@@ -35442,7 +35439,7 @@
         <v>8</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.2">
@@ -35456,7 +35453,7 @@
         <v>8</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.2">
@@ -35470,7 +35467,7 @@
         <v>8</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.2">
@@ -35484,7 +35481,7 @@
         <v>8</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.2">
@@ -35512,7 +35509,7 @@
         <v>8</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.2">
@@ -35526,7 +35523,7 @@
         <v>8</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.2">
@@ -35540,7 +35537,7 @@
         <v>8</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.2">
@@ -35554,7 +35551,7 @@
         <v>8</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.2">
@@ -35568,7 +35565,7 @@
         <v>8</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.2">
@@ -35582,7 +35579,7 @@
         <v>8</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.2">
@@ -35596,7 +35593,7 @@
         <v>8</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.2">
@@ -35610,7 +35607,7 @@
         <v>8</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.2">
@@ -35624,7 +35621,7 @@
         <v>8</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.2">
@@ -35638,21 +35635,21 @@
         <v>8</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>1763</v>
-      </c>
       <c r="D274" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.2">
@@ -35666,7 +35663,7 @@
         <v>8</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.2">
@@ -35680,7 +35677,7 @@
         <v>8</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.2">
@@ -35694,7 +35691,7 @@
         <v>8</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.2">
@@ -35708,7 +35705,7 @@
         <v>8</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.2">
@@ -35722,7 +35719,7 @@
         <v>8</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.2">
@@ -35736,7 +35733,7 @@
         <v>8</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.2">
@@ -35750,7 +35747,7 @@
         <v>8</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.2">
@@ -35764,7 +35761,7 @@
         <v>8</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.2">
@@ -35803,7 +35800,7 @@
         <v>8</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.2">
@@ -35831,7 +35828,7 @@
         <v>8</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.2">
@@ -35859,7 +35856,7 @@
         <v>8</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.2">
@@ -35873,7 +35870,7 @@
         <v>8</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.2">
@@ -35887,7 +35884,7 @@
         <v>8</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.2">
@@ -35901,7 +35898,7 @@
         <v>8</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.2">
@@ -35915,7 +35912,7 @@
         <v>8</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.2">
@@ -35929,7 +35926,7 @@
         <v>8</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.2">
@@ -35943,7 +35940,7 @@
         <v>8</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.2">
@@ -35957,7 +35954,7 @@
         <v>8</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.2">
@@ -35971,7 +35968,7 @@
         <v>8</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.2">
@@ -35985,7 +35982,7 @@
         <v>8</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.2">
@@ -35999,7 +35996,7 @@
         <v>8</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.2">
@@ -36013,7 +36010,7 @@
         <v>8</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.2">
@@ -36041,7 +36038,7 @@
         <v>8</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.2">
@@ -36055,7 +36052,7 @@
         <v>8</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.2">
@@ -36069,7 +36066,7 @@
         <v>8</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.2">
@@ -36083,7 +36080,7 @@
         <v>8</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.2">
@@ -36094,7 +36091,7 @@
         <v>932</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>8</v>
@@ -36111,7 +36108,7 @@
         <v>8</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.2">
@@ -36125,7 +36122,7 @@
         <v>8</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.2">
@@ -36139,7 +36136,7 @@
         <v>8</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.2">
@@ -36153,7 +36150,7 @@
         <v>8</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.2">
@@ -36181,7 +36178,7 @@
         <v>8</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.2">
@@ -36195,7 +36192,7 @@
         <v>8</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.2">
@@ -36223,7 +36220,7 @@
         <v>8</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.2">
@@ -36237,7 +36234,7 @@
         <v>8</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.2">
@@ -36251,7 +36248,7 @@
         <v>8</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.2">
@@ -36265,7 +36262,7 @@
         <v>8</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.2">
@@ -36279,7 +36276,7 @@
         <v>8</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.2">
@@ -36293,7 +36290,7 @@
         <v>8</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.2">
@@ -36307,7 +36304,7 @@
         <v>8</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.2">
@@ -36321,7 +36318,7 @@
         <v>8</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.2">
@@ -36335,7 +36332,7 @@
         <v>8</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.2">
@@ -36363,7 +36360,7 @@
         <v>8</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.2">
@@ -36377,7 +36374,7 @@
         <v>8</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.2">
@@ -36391,7 +36388,7 @@
         <v>8</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.2">
@@ -36405,7 +36402,7 @@
         <v>8</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.2">
@@ -36419,7 +36416,7 @@
         <v>8</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.2">
@@ -36433,7 +36430,7 @@
         <v>8</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.2">
@@ -36447,7 +36444,7 @@
         <v>8</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.2">
@@ -36461,7 +36458,7 @@
         <v>8</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.2">
@@ -36475,7 +36472,7 @@
         <v>8</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.2">
@@ -36489,7 +36486,7 @@
         <v>8</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.2">
@@ -36503,7 +36500,7 @@
         <v>8</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.2">
@@ -36531,7 +36528,7 @@
         <v>8</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.2">
@@ -36545,7 +36542,7 @@
         <v>8</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.2">
@@ -36559,7 +36556,7 @@
         <v>8</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.2">
@@ -36573,7 +36570,7 @@
         <v>8</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.2">
@@ -36587,7 +36584,7 @@
         <v>8</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.2">
@@ -36601,7 +36598,7 @@
         <v>8</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.2">
@@ -36612,7 +36609,7 @@
         <v>651</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>8</v>
@@ -36629,7 +36626,7 @@
         <v>8</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.2">
@@ -36643,7 +36640,7 @@
         <v>8</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.2">
@@ -36657,7 +36654,7 @@
         <v>8</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.2">
@@ -36671,7 +36668,7 @@
         <v>8</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.2">
@@ -36685,7 +36682,7 @@
         <v>8</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.2">
@@ -36699,7 +36696,7 @@
         <v>8</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.2">
@@ -36713,7 +36710,7 @@
         <v>8</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.2">
@@ -36727,7 +36724,7 @@
         <v>8</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.2">
@@ -36755,7 +36752,7 @@
         <v>8</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.2">
@@ -36769,7 +36766,7 @@
         <v>8</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.2">
@@ -36783,7 +36780,7 @@
         <v>8</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.2">
@@ -36797,7 +36794,7 @@
         <v>8</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.2">
@@ -36825,7 +36822,7 @@
         <v>8</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.2">
@@ -36839,7 +36836,7 @@
         <v>8</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.2">
@@ -36853,7 +36850,7 @@
         <v>8</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.2">
@@ -36867,7 +36864,7 @@
         <v>8</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.2">
@@ -36881,7 +36878,7 @@
         <v>8</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.2">
@@ -36895,7 +36892,7 @@
         <v>8</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.2">
@@ -36909,7 +36906,7 @@
         <v>8</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.2">
@@ -36923,7 +36920,7 @@
         <v>8</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.2">
@@ -36934,7 +36931,7 @@
         <v>788</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>8</v>
@@ -36951,7 +36948,7 @@
         <v>8</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.2">
@@ -36965,7 +36962,7 @@
         <v>8</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.2">
@@ -36979,7 +36976,7 @@
         <v>8</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.2">
@@ -36993,7 +36990,7 @@
         <v>8</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.2">
@@ -37021,7 +37018,7 @@
         <v>8</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.2">
@@ -37035,7 +37032,7 @@
         <v>8</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.2">
@@ -37049,7 +37046,7 @@
         <v>8</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.2">
@@ -37063,7 +37060,7 @@
         <v>8</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.2">
@@ -37077,7 +37074,7 @@
         <v>8</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="377" spans="2:5" x14ac:dyDescent="0.2">
@@ -37091,7 +37088,7 @@
         <v>8</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.2">
@@ -37105,7 +37102,7 @@
         <v>8</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.2">
@@ -37119,7 +37116,7 @@
         <v>8</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="380" spans="2:5" x14ac:dyDescent="0.2">
@@ -37133,7 +37130,7 @@
         <v>8</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.2">
@@ -37147,7 +37144,7 @@
         <v>8</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.2">
@@ -37161,7 +37158,7 @@
         <v>8</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.2">
@@ -37175,7 +37172,7 @@
         <v>8</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="384" spans="2:5" x14ac:dyDescent="0.2">
@@ -37189,7 +37186,7 @@
         <v>8</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.2">
@@ -37203,7 +37200,7 @@
         <v>8</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.2">
@@ -37231,7 +37228,7 @@
         <v>8</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.2">
@@ -37245,21 +37242,21 @@
         <v>8</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B389" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>1789</v>
       </c>
-      <c r="C389" s="1" t="s">
-        <v>1790</v>
-      </c>
       <c r="D389" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.2">
@@ -37273,7 +37270,7 @@
         <v>8</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.2">
@@ -37287,7 +37284,7 @@
         <v>8</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.2">
@@ -37301,7 +37298,7 @@
         <v>8</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.2">
@@ -37315,7 +37312,7 @@
         <v>8</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.2">
@@ -37343,7 +37340,7 @@
         <v>8</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.2">
@@ -37357,7 +37354,7 @@
         <v>8</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.2">
@@ -37371,7 +37368,7 @@
         <v>8</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.2">
@@ -37399,7 +37396,7 @@
         <v>8</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.2">
@@ -37413,7 +37410,7 @@
         <v>8</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.2">
@@ -37427,7 +37424,7 @@
         <v>8</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="402" spans="2:5" x14ac:dyDescent="0.2">
@@ -37455,7 +37452,7 @@
         <v>8</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.2">
@@ -37469,7 +37466,7 @@
         <v>8</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.2">
@@ -37497,7 +37494,7 @@
         <v>8</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="407" spans="2:5" x14ac:dyDescent="0.2">
@@ -37511,7 +37508,7 @@
         <v>8</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.2">
@@ -37539,7 +37536,7 @@
         <v>8</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.2">
@@ -37553,7 +37550,7 @@
         <v>8</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.2">
@@ -37567,7 +37564,7 @@
         <v>8</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.2">
@@ -37581,7 +37578,7 @@
         <v>8</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="413" spans="2:5" x14ac:dyDescent="0.2">
@@ -37609,7 +37606,7 @@
         <v>8</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.2">
@@ -37623,7 +37620,7 @@
         <v>8</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="416" spans="2:5" x14ac:dyDescent="0.2">
@@ -37637,7 +37634,7 @@
         <v>8</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.2">
@@ -37665,7 +37662,7 @@
         <v>8</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.2">
@@ -37679,7 +37676,7 @@
         <v>8</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.2">
@@ -37690,7 +37687,7 @@
         <v>1455</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>8</v>
@@ -37707,7 +37704,7 @@
         <v>8</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.2">
@@ -37721,7 +37718,7 @@
         <v>8</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="423" spans="2:5" x14ac:dyDescent="0.2">
@@ -37735,7 +37732,7 @@
         <v>8</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.2">
@@ -37763,7 +37760,7 @@
         <v>8</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="426" spans="2:5" x14ac:dyDescent="0.2">
@@ -37791,7 +37788,7 @@
         <v>8</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.2">
@@ -37805,7 +37802,7 @@
         <v>8</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.2">
@@ -37819,7 +37816,7 @@
         <v>8</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="430" spans="2:5" x14ac:dyDescent="0.2">
@@ -37833,7 +37830,7 @@
         <v>8</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="431" spans="2:5" x14ac:dyDescent="0.2">
@@ -37847,7 +37844,7 @@
         <v>8</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="432" spans="2:5" x14ac:dyDescent="0.2">
@@ -37861,7 +37858,7 @@
         <v>8</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.2">
@@ -37889,7 +37886,7 @@
         <v>8</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="435" spans="2:5" x14ac:dyDescent="0.2">
@@ -37903,7 +37900,7 @@
         <v>8</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.2">
@@ -37917,7 +37914,7 @@
         <v>8</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.2">
@@ -37931,7 +37928,7 @@
         <v>8</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.2">
@@ -37959,7 +37956,7 @@
         <v>8</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.2">
@@ -37973,7 +37970,7 @@
         <v>8</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.2">
@@ -37987,7 +37984,7 @@
         <v>8</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.2">
@@ -38001,7 +37998,7 @@
         <v>8</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.2">
@@ -38015,7 +38012,7 @@
         <v>8</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="444" spans="2:5" x14ac:dyDescent="0.2">
@@ -38029,7 +38026,7 @@
         <v>8</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.2">
@@ -38043,7 +38040,7 @@
         <v>8</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="446" spans="2:5" x14ac:dyDescent="0.2">
@@ -38057,7 +38054,7 @@
         <v>8</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.2">
@@ -38071,7 +38068,7 @@
         <v>8</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.2">
@@ -38085,7 +38082,7 @@
         <v>8</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="449" spans="2:5" x14ac:dyDescent="0.2">
@@ -38099,7 +38096,7 @@
         <v>8</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.2">
@@ -38113,7 +38110,7 @@
         <v>8</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.2">
@@ -38127,7 +38124,7 @@
         <v>8</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.2">
@@ -38141,7 +38138,7 @@
         <v>8</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.2">
@@ -38155,7 +38152,7 @@
         <v>8</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.2">
@@ -38169,7 +38166,7 @@
         <v>8</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.2">
@@ -38197,7 +38194,7 @@
         <v>8</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.2">
@@ -38211,7 +38208,7 @@
         <v>8</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.2">
@@ -38225,7 +38222,7 @@
         <v>8</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.2">
@@ -38239,7 +38236,7 @@
         <v>8</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.2">
@@ -38253,7 +38250,7 @@
         <v>8</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.2">
@@ -38267,7 +38264,7 @@
         <v>8</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="462" spans="2:5" x14ac:dyDescent="0.2">
@@ -38281,7 +38278,7 @@
         <v>8</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.2">
@@ -38295,7 +38292,7 @@
         <v>8</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.2">
@@ -38309,7 +38306,7 @@
         <v>8</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.2">
@@ -38323,7 +38320,7 @@
         <v>8</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.2">
@@ -38337,7 +38334,7 @@
         <v>8</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.2">
@@ -38351,7 +38348,7 @@
         <v>8</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.2">
@@ -38365,7 +38362,7 @@
         <v>8</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.2">
@@ -38379,7 +38376,7 @@
         <v>8</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.2">
@@ -38407,7 +38404,7 @@
         <v>8</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.2">
@@ -38421,7 +38418,7 @@
         <v>8</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.2">
@@ -38449,7 +38446,7 @@
         <v>8</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.2">
@@ -38463,7 +38460,7 @@
         <v>8</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.2">
@@ -38477,7 +38474,7 @@
         <v>8</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.2">
@@ -38491,7 +38488,7 @@
         <v>8</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.2">
@@ -38519,7 +38516,7 @@
         <v>8</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.2">
@@ -38533,7 +38530,7 @@
         <v>8</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.2">
@@ -38547,7 +38544,7 @@
         <v>8</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="482" spans="2:5" x14ac:dyDescent="0.2">
@@ -38561,7 +38558,7 @@
         <v>8</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.2">
@@ -38575,21 +38572,21 @@
         <v>8</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="484" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B484" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C484" s="1" t="s">
         <v>2087</v>
       </c>
-      <c r="C484" s="1" t="s">
+      <c r="D484" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E484" s="1" t="s">
         <v>2088</v>
-      </c>
-      <c r="D484" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E484" s="1" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="485" spans="2:5" x14ac:dyDescent="0.2">
@@ -38603,7 +38600,7 @@
         <v>8</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="486" spans="2:5" x14ac:dyDescent="0.2">
@@ -38617,7 +38614,7 @@
         <v>8</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="487" spans="2:5" x14ac:dyDescent="0.2">
@@ -38631,7 +38628,7 @@
         <v>8</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="488" spans="2:5" x14ac:dyDescent="0.2">
@@ -38645,7 +38642,7 @@
         <v>8</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.2">
@@ -38659,7 +38656,7 @@
         <v>8</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.2">
@@ -38673,7 +38670,7 @@
         <v>8</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.2">
@@ -38687,7 +38684,7 @@
         <v>8</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.2">
@@ -38701,7 +38698,7 @@
         <v>8</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.2">
@@ -38715,7 +38712,7 @@
         <v>8</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="494" spans="2:5" x14ac:dyDescent="0.2">
@@ -38729,7 +38726,7 @@
         <v>8</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.2">
@@ -38743,7 +38740,7 @@
         <v>8</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.2">
@@ -38757,7 +38754,7 @@
         <v>8</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.2">
@@ -38771,7 +38768,7 @@
         <v>8</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="498" spans="2:5" x14ac:dyDescent="0.2">
@@ -38799,7 +38796,7 @@
         <v>8</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.2">
@@ -38813,7 +38810,7 @@
         <v>8</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="501" spans="2:5" x14ac:dyDescent="0.2">
@@ -38827,7 +38824,7 @@
         <v>8</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.2">
@@ -38841,7 +38838,7 @@
         <v>8</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="503" spans="2:5" x14ac:dyDescent="0.2">
@@ -38855,7 +38852,7 @@
         <v>8</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="504" spans="2:5" x14ac:dyDescent="0.2">
@@ -38869,7 +38866,7 @@
         <v>8</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="505" spans="2:5" x14ac:dyDescent="0.2">
@@ -38883,7 +38880,7 @@
         <v>8</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="506" spans="2:5" x14ac:dyDescent="0.2">
@@ -38897,7 +38894,7 @@
         <v>8</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="507" spans="2:5" x14ac:dyDescent="0.2">
@@ -38911,7 +38908,7 @@
         <v>8</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="508" spans="2:5" x14ac:dyDescent="0.2">
@@ -38939,7 +38936,7 @@
         <v>8</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="510" spans="2:5" x14ac:dyDescent="0.2">
@@ -38953,7 +38950,7 @@
         <v>8</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="511" spans="2:5" x14ac:dyDescent="0.2">
@@ -38967,7 +38964,7 @@
         <v>8</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="512" spans="2:5" x14ac:dyDescent="0.2">
@@ -38981,7 +38978,7 @@
         <v>8</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="513" spans="2:5" x14ac:dyDescent="0.2">
@@ -38995,7 +38992,7 @@
         <v>8</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="514" spans="2:5" x14ac:dyDescent="0.2">
@@ -39009,7 +39006,7 @@
         <v>8</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="515" spans="2:5" x14ac:dyDescent="0.2">
@@ -39023,7 +39020,7 @@
         <v>8</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="516" spans="2:5" x14ac:dyDescent="0.2">
@@ -39037,7 +39034,7 @@
         <v>8</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="517" spans="2:5" x14ac:dyDescent="0.2">
@@ -39051,7 +39048,7 @@
         <v>8</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="518" spans="2:5" x14ac:dyDescent="0.2">
@@ -39065,7 +39062,7 @@
         <v>8</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="519" spans="2:5" x14ac:dyDescent="0.2">
@@ -39107,7 +39104,7 @@
         <v>8</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="522" spans="2:5" x14ac:dyDescent="0.2">
@@ -39121,7 +39118,7 @@
         <v>8</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="523" spans="2:5" x14ac:dyDescent="0.2">
@@ -39149,7 +39146,7 @@
         <v>8</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="525" spans="2:5" x14ac:dyDescent="0.2">
@@ -39163,7 +39160,7 @@
         <v>8</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="526" spans="2:5" x14ac:dyDescent="0.2">
@@ -39177,7 +39174,7 @@
         <v>8</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="527" spans="2:5" x14ac:dyDescent="0.2">
@@ -39191,7 +39188,7 @@
         <v>8</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="528" spans="2:5" x14ac:dyDescent="0.2">
@@ -39205,7 +39202,7 @@
         <v>8</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="529" spans="2:5" x14ac:dyDescent="0.2">
@@ -39233,7 +39230,7 @@
         <v>8</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="531" spans="2:5" x14ac:dyDescent="0.2">
@@ -39247,7 +39244,7 @@
         <v>8</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="532" spans="2:5" x14ac:dyDescent="0.2">
@@ -39261,7 +39258,7 @@
         <v>8</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="533" spans="2:5" x14ac:dyDescent="0.2">
@@ -39275,7 +39272,7 @@
         <v>8</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="534" spans="2:5" x14ac:dyDescent="0.2">
@@ -39289,7 +39286,7 @@
         <v>8</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="535" spans="2:5" x14ac:dyDescent="0.2">
@@ -39303,7 +39300,7 @@
         <v>8</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="536" spans="2:5" x14ac:dyDescent="0.2">
@@ -39331,7 +39328,7 @@
         <v>8</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="538" spans="2:5" x14ac:dyDescent="0.2">
@@ -39345,7 +39342,7 @@
         <v>8</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="539" spans="2:5" x14ac:dyDescent="0.2">
@@ -39359,7 +39356,7 @@
         <v>8</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="540" spans="2:5" x14ac:dyDescent="0.2">
@@ -39373,7 +39370,7 @@
         <v>8</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="541" spans="2:5" x14ac:dyDescent="0.2">
@@ -39387,7 +39384,7 @@
         <v>8</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="542" spans="2:5" x14ac:dyDescent="0.2">
@@ -39401,7 +39398,7 @@
         <v>8</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="543" spans="2:5" x14ac:dyDescent="0.2">
@@ -39415,7 +39412,7 @@
         <v>8</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="544" spans="2:5" x14ac:dyDescent="0.2">
@@ -39429,7 +39426,7 @@
         <v>8</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="545" spans="2:5" x14ac:dyDescent="0.2">
@@ -39443,7 +39440,7 @@
         <v>8</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="546" spans="2:5" x14ac:dyDescent="0.2">
@@ -39457,7 +39454,7 @@
         <v>8</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="547" spans="2:5" x14ac:dyDescent="0.2">
@@ -39471,7 +39468,7 @@
         <v>8</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="548" spans="2:5" x14ac:dyDescent="0.2">
@@ -39485,7 +39482,7 @@
         <v>8</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="549" spans="2:5" x14ac:dyDescent="0.2">
@@ -39499,7 +39496,7 @@
         <v>8</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="550" spans="2:5" x14ac:dyDescent="0.2">
@@ -39513,7 +39510,7 @@
         <v>8</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="551" spans="2:5" x14ac:dyDescent="0.2">
@@ -39527,7 +39524,7 @@
         <v>8</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="552" spans="2:5" x14ac:dyDescent="0.2">
@@ -39541,7 +39538,7 @@
         <v>8</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="553" spans="2:5" x14ac:dyDescent="0.2">
@@ -39555,7 +39552,7 @@
         <v>8</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="554" spans="2:5" x14ac:dyDescent="0.2">
@@ -39583,7 +39580,7 @@
         <v>8</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="556" spans="2:5" x14ac:dyDescent="0.2">
@@ -39597,7 +39594,7 @@
         <v>8</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="557" spans="2:5" x14ac:dyDescent="0.2">
@@ -39611,7 +39608,7 @@
         <v>8</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="558" spans="2:5" x14ac:dyDescent="0.2">
@@ -39625,7 +39622,7 @@
         <v>8</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="559" spans="2:5" x14ac:dyDescent="0.2">
@@ -39681,7 +39678,7 @@
         <v>8</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="563" spans="2:5" x14ac:dyDescent="0.2">
@@ -39695,7 +39692,7 @@
         <v>8</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="564" spans="2:5" x14ac:dyDescent="0.2">
@@ -39709,7 +39706,7 @@
         <v>8</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="565" spans="2:5" x14ac:dyDescent="0.2">
@@ -39723,7 +39720,7 @@
         <v>8</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="566" spans="2:5" x14ac:dyDescent="0.2">
@@ -39737,7 +39734,7 @@
         <v>8</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="567" spans="2:5" x14ac:dyDescent="0.2">
@@ -39765,7 +39762,7 @@
         <v>8</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="569" spans="2:5" x14ac:dyDescent="0.2">
@@ -39779,7 +39776,7 @@
         <v>8</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="570" spans="2:5" x14ac:dyDescent="0.2">
@@ -39793,7 +39790,7 @@
         <v>8</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="571" spans="2:5" x14ac:dyDescent="0.2">
@@ -39807,7 +39804,7 @@
         <v>8</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="572" spans="2:5" x14ac:dyDescent="0.2">
@@ -39821,7 +39818,7 @@
         <v>8</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="573" spans="2:5" x14ac:dyDescent="0.2">
@@ -39835,7 +39832,7 @@
         <v>8</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="574" spans="2:5" x14ac:dyDescent="0.2">
@@ -39849,7 +39846,7 @@
         <v>8</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="575" spans="2:5" x14ac:dyDescent="0.2">
@@ -39863,7 +39860,7 @@
         <v>8</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="576" spans="2:5" x14ac:dyDescent="0.2">
@@ -39877,7 +39874,7 @@
         <v>8</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="577" spans="2:5" x14ac:dyDescent="0.2">
@@ -39891,7 +39888,7 @@
         <v>8</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="578" spans="2:5" x14ac:dyDescent="0.2">
@@ -39919,7 +39916,7 @@
         <v>8</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="580" spans="2:5" x14ac:dyDescent="0.2">
@@ -39961,7 +39958,7 @@
         <v>8</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="583" spans="2:5" x14ac:dyDescent="0.2">
@@ -39975,7 +39972,7 @@
         <v>8</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="584" spans="2:5" x14ac:dyDescent="0.2">
@@ -40003,7 +40000,7 @@
         <v>8</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="586" spans="2:5" x14ac:dyDescent="0.2">
@@ -40017,7 +40014,7 @@
         <v>8</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="587" spans="2:5" x14ac:dyDescent="0.2">
@@ -40031,7 +40028,7 @@
         <v>8</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="588" spans="2:5" x14ac:dyDescent="0.2">
@@ -40045,7 +40042,7 @@
         <v>8</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="589" spans="2:5" x14ac:dyDescent="0.2">
@@ -40059,7 +40056,7 @@
         <v>8</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="590" spans="2:5" x14ac:dyDescent="0.2">
@@ -40073,7 +40070,7 @@
         <v>8</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="591" spans="2:5" x14ac:dyDescent="0.2">
@@ -40087,7 +40084,7 @@
         <v>8</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="592" spans="2:5" x14ac:dyDescent="0.2">
@@ -40101,7 +40098,7 @@
         <v>8</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="593" spans="2:5" x14ac:dyDescent="0.2">
@@ -40129,7 +40126,7 @@
         <v>8</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="595" spans="2:5" x14ac:dyDescent="0.2">
@@ -40143,7 +40140,7 @@
         <v>8</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="596" spans="2:5" x14ac:dyDescent="0.2">
@@ -40157,7 +40154,7 @@
         <v>8</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="597" spans="2:5" x14ac:dyDescent="0.2">
@@ -40171,7 +40168,7 @@
         <v>8</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="598" spans="2:5" x14ac:dyDescent="0.2">
@@ -40185,7 +40182,7 @@
         <v>8</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="599" spans="2:5" x14ac:dyDescent="0.2">
@@ -40213,7 +40210,7 @@
         <v>8</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="601" spans="2:5" x14ac:dyDescent="0.2">
@@ -40227,7 +40224,7 @@
         <v>8</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="602" spans="2:5" x14ac:dyDescent="0.2">
@@ -40241,7 +40238,7 @@
         <v>8</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="603" spans="2:5" x14ac:dyDescent="0.2">
@@ -40255,7 +40252,7 @@
         <v>8</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="604" spans="2:5" x14ac:dyDescent="0.2">
@@ -40283,7 +40280,7 @@
         <v>8</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="606" spans="2:5" x14ac:dyDescent="0.2">
@@ -40297,7 +40294,7 @@
         <v>8</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="607" spans="2:5" x14ac:dyDescent="0.2">
@@ -40325,7 +40322,7 @@
         <v>8</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="609" spans="2:5" x14ac:dyDescent="0.2">
@@ -40339,7 +40336,7 @@
         <v>8</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="610" spans="2:5" x14ac:dyDescent="0.2">
@@ -40353,7 +40350,7 @@
         <v>8</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="611" spans="2:5" x14ac:dyDescent="0.2">
@@ -40367,7 +40364,7 @@
         <v>8</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="612" spans="2:5" x14ac:dyDescent="0.2">
@@ -40395,7 +40392,7 @@
         <v>8</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="614" spans="2:5" x14ac:dyDescent="0.2">
@@ -40409,7 +40406,7 @@
         <v>8</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="615" spans="2:5" x14ac:dyDescent="0.2">
@@ -40423,7 +40420,7 @@
         <v>8</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="616" spans="2:5" x14ac:dyDescent="0.2">
@@ -40465,21 +40462,21 @@
         <v>8</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="619" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B619" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C619" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="C619" s="1" t="s">
-        <v>1826</v>
-      </c>
       <c r="D619" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="620" spans="2:5" x14ac:dyDescent="0.2">
@@ -40493,7 +40490,7 @@
         <v>8</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="621" spans="2:5" x14ac:dyDescent="0.2">
@@ -40507,7 +40504,7 @@
         <v>8</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="622" spans="2:5" x14ac:dyDescent="0.2">
@@ -40521,7 +40518,7 @@
         <v>8</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="623" spans="2:5" x14ac:dyDescent="0.2">
@@ -40535,7 +40532,7 @@
         <v>8</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="624" spans="2:5" x14ac:dyDescent="0.2">
@@ -40549,7 +40546,7 @@
         <v>8</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="625" spans="2:5" x14ac:dyDescent="0.2">
@@ -40577,7 +40574,7 @@
         <v>8</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="627" spans="2:5" x14ac:dyDescent="0.2">
@@ -40605,7 +40602,7 @@
         <v>8</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="629" spans="2:5" x14ac:dyDescent="0.2">
@@ -40619,7 +40616,7 @@
         <v>8</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="630" spans="2:5" x14ac:dyDescent="0.2">
@@ -40633,7 +40630,7 @@
         <v>8</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="631" spans="2:5" x14ac:dyDescent="0.2">
@@ -40647,7 +40644,7 @@
         <v>8</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="632" spans="2:5" x14ac:dyDescent="0.2">
@@ -40661,21 +40658,21 @@
         <v>8</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="633" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B633" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C633" s="1" t="s">
         <v>1827</v>
       </c>
-      <c r="C633" s="1" t="s">
-        <v>1828</v>
-      </c>
       <c r="D633" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="634" spans="2:5" x14ac:dyDescent="0.2">
@@ -40689,7 +40686,7 @@
         <v>8</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="635" spans="2:5" x14ac:dyDescent="0.2">
@@ -40703,7 +40700,7 @@
         <v>8</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="636" spans="2:5" x14ac:dyDescent="0.2">
@@ -40717,7 +40714,7 @@
         <v>8</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="637" spans="2:5" x14ac:dyDescent="0.2">
@@ -40731,7 +40728,7 @@
         <v>8</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="638" spans="2:5" x14ac:dyDescent="0.2">
@@ -40745,7 +40742,7 @@
         <v>8</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="639" spans="2:5" x14ac:dyDescent="0.2">
@@ -40759,7 +40756,7 @@
         <v>8</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="640" spans="2:5" x14ac:dyDescent="0.2">
@@ -40773,7 +40770,7 @@
         <v>8</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="641" spans="2:5" x14ac:dyDescent="0.2">
@@ -40787,7 +40784,7 @@
         <v>8</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="642" spans="2:5" x14ac:dyDescent="0.2">
@@ -40801,7 +40798,7 @@
         <v>8</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="643" spans="2:5" x14ac:dyDescent="0.2">
@@ -40815,7 +40812,7 @@
         <v>8</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="644" spans="2:5" x14ac:dyDescent="0.2">
@@ -40843,7 +40840,7 @@
         <v>8</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="646" spans="2:5" x14ac:dyDescent="0.2">
@@ -40871,7 +40868,7 @@
         <v>8</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="648" spans="2:5" x14ac:dyDescent="0.2">
@@ -40885,7 +40882,7 @@
         <v>8</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="649" spans="2:5" x14ac:dyDescent="0.2">
@@ -40899,7 +40896,7 @@
         <v>8</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="650" spans="2:5" x14ac:dyDescent="0.2">
@@ -40913,7 +40910,7 @@
         <v>8</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="651" spans="2:5" x14ac:dyDescent="0.2">
@@ -40927,7 +40924,7 @@
         <v>8</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="652" spans="2:5" x14ac:dyDescent="0.2">
@@ -40941,7 +40938,7 @@
         <v>8</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="653" spans="2:5" x14ac:dyDescent="0.2">
@@ -40955,7 +40952,7 @@
         <v>8</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="654" spans="2:5" x14ac:dyDescent="0.2">
@@ -40969,7 +40966,7 @@
         <v>8</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="655" spans="2:5" x14ac:dyDescent="0.2">
@@ -40983,7 +40980,7 @@
         <v>8</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="656" spans="2:5" x14ac:dyDescent="0.2">
@@ -40997,7 +40994,7 @@
         <v>8</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="657" spans="2:5" x14ac:dyDescent="0.2">
@@ -41011,7 +41008,7 @@
         <v>8</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="658" spans="2:5" x14ac:dyDescent="0.2">
@@ -41025,7 +41022,7 @@
         <v>8</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
   </sheetData>
@@ -41058,10 +41055,10 @@
         <v>354</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2130</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2131</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -41077,7 +41074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -41097,7 +41094,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1701</v>
+        <v>2129</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>354</v>

--- a/Screenshots/_DCChartFromWebUrl.xlsx
+++ b/Screenshots/_DCChartFromWebUrl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="28380" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="28380" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Investing Chart" sheetId="2" r:id="rId1"/>
@@ -12025,7 +12025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -12622,138 +12622,138 @@
         <v>2624</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2651</v>
+        <v>2629</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2655</v>
+        <v>2630</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2656</v>
+        <v>2631</v>
       </c>
       <c r="F6" s="1">
-        <v>5.43</v>
+        <v>4.95</v>
       </c>
       <c r="G6" s="1">
-        <v>278.76</v>
+        <v>138.38</v>
       </c>
       <c r="H6" s="1">
-        <v>20.149999999999999</v>
+        <v>42.11</v>
       </c>
       <c r="I6" s="1">
-        <v>1.54</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J6" s="4">
-        <v>1.91</v>
+        <v>83.57</v>
       </c>
       <c r="K6" s="1">
-        <v>19.48</v>
+        <v>19.29</v>
       </c>
       <c r="L6" s="4">
-        <v>55.41</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1.52</v>
+        <v>53.58</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="N6" s="4">
-        <v>3.4</v>
+        <v>7.88</v>
       </c>
       <c r="O6" s="1">
-        <v>25.22</v>
+        <v>-5.56</v>
       </c>
       <c r="P6" s="4">
-        <v>19.190000000000001</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>-0.41620000000000001</v>
+        <v>29.2</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>-0.3</v>
       </c>
       <c r="R6" s="8">
-        <v>-0.1245</v>
+        <v>-1.52E-2</v>
       </c>
       <c r="S6" s="7">
-        <v>-0.31509999999999999</v>
+        <v>-0.56020000000000003</v>
       </c>
       <c r="T6" s="8">
-        <v>-1.2662</v>
+        <v>-5.7000000000000002E-3</v>
       </c>
       <c r="U6" s="7">
-        <v>8.8800000000000004E-2</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="V6" s="8">
-        <v>5.1200000000000002E-2</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="W6" s="7">
-        <v>-2.4400000000000002E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="X6" s="8">
-        <v>6.7299999999999999E-2</v>
+        <v>-1.7500000000000002E-2</v>
       </c>
       <c r="Y6" s="7">
-        <v>6.1100000000000002E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="Z6" s="8">
-        <v>5.6099999999999997E-2</v>
+        <v>0.1933</v>
       </c>
       <c r="AA6" s="7">
-        <v>6.4699999999999994E-2</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="AB6" s="8">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>5</v>
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1.04</v>
       </c>
       <c r="AD6" s="4">
-        <v>1</v>
+        <v>2.06</v>
       </c>
       <c r="AE6" s="1">
-        <v>0.8</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AF6" s="4">
-        <v>1.02</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>0.82350000000000001</v>
+        <v>2.73</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AH6" s="8">
-        <v>1.4545999999999999</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>0.88560000000000005</v>
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AJ6" s="8">
-        <v>1.6044</v>
+        <v>1.0044999999999999</v>
       </c>
       <c r="AK6" s="7">
-        <v>5.4399999999999997E-2</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="AL6" s="8">
-        <v>4.24E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="AM6" s="7">
-        <v>5.3400000000000003E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="AN6" s="8">
-        <v>5.4899999999999997E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="AO6" s="7">
-        <v>2.0400000000000001E-2</v>
+        <v>0.21129999999999999</v>
       </c>
       <c r="AP6" s="8">
-        <v>0.153</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="AQ6" s="7">
-        <v>0.80779999999999996</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="AR6" s="4">
-        <v>121.99</v>
+        <v>56.23</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>2657</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="7" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>2661</v>
+        <v>2641</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2627</v>
@@ -12762,76 +12762,76 @@
         <v>2639</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2662</v>
+        <v>2642</v>
       </c>
       <c r="F7" s="1">
-        <v>5.23</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>60.24</v>
+        <v>98.04</v>
       </c>
       <c r="H7" s="1">
-        <v>41.17</v>
+        <v>12.34</v>
       </c>
       <c r="I7" s="1">
-        <v>0.49</v>
+        <v>0.96</v>
       </c>
       <c r="J7" s="4">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="K7" s="1">
-        <v>16.41</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="L7" s="4">
-        <v>3.62</v>
+        <v>3.99</v>
       </c>
       <c r="M7" s="1">
-        <v>0.91</v>
+        <v>1.39</v>
       </c>
       <c r="N7" s="4">
-        <v>0.79</v>
+        <v>1.08</v>
       </c>
       <c r="O7" s="1">
-        <v>28.11</v>
+        <v>161.46</v>
       </c>
       <c r="P7" s="4">
-        <v>28.06</v>
+        <v>119.95</v>
       </c>
       <c r="Q7" s="7">
-        <v>-0.2727</v>
+        <v>0.17180000000000001</v>
       </c>
       <c r="R7" s="8">
-        <v>0.28199999999999997</v>
+        <v>0.1014</v>
       </c>
       <c r="S7" s="7">
-        <v>-0.74729999999999996</v>
+        <v>0.17349999999999999</v>
       </c>
       <c r="T7" s="8">
-        <v>0.1202</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="U7" s="7">
-        <v>-0.1123</v>
+        <v>5.79E-2</v>
       </c>
       <c r="V7" s="8">
-        <v>0.1668</v>
+        <v>7.7100000000000002E-2</v>
       </c>
       <c r="W7" s="7">
-        <v>0.30320000000000003</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="X7" s="8">
-        <v>-0.13639999999999999</v>
+        <v>-4.7899999999999998E-2</v>
       </c>
       <c r="Y7" s="7">
-        <v>1.2500000000000001E-2</v>
+        <v>-3.2000000000000002E-3</v>
       </c>
       <c r="Z7" s="8">
-        <v>-4.0099999999999997E-2</v>
+        <v>0.1037</v>
       </c>
       <c r="AA7" s="7">
-        <v>-3.04E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="AB7" s="8">
-        <v>-7.3000000000000001E-3</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>5</v>
@@ -12846,43 +12846,43 @@
         <v>5</v>
       </c>
       <c r="AG7" s="7">
-        <v>0.2621</v>
+        <v>0.50939999999999996</v>
       </c>
       <c r="AH7" s="8">
-        <v>0.1211</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="AI7" s="7">
-        <v>0.2621</v>
+        <v>0.54869999999999997</v>
       </c>
       <c r="AJ7" s="8">
-        <v>0.1211</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>5</v>
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>0.04</v>
       </c>
       <c r="AL7" s="8">
-        <v>4.9500000000000002E-2</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="AM7" s="7">
-        <v>5.1900000000000002E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="AN7" s="8">
-        <v>4.8500000000000001E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="AO7" s="7">
-        <v>6.8000000000000005E-2</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="AP7" s="8">
-        <v>0.1517</v>
+        <v>0.16489999999999999</v>
       </c>
       <c r="AQ7" s="7">
-        <v>2.1997</v>
+        <v>0.4924</v>
       </c>
       <c r="AR7" s="4">
-        <v>50.34</v>
+        <v>48.09</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>2663</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="8" spans="2:45" x14ac:dyDescent="0.2">
@@ -12890,267 +12890,267 @@
         <v>2624</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2629</v>
+        <v>2644</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2630</v>
+        <v>2645</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2631</v>
+        <v>2646</v>
       </c>
       <c r="F8" s="1">
-        <v>4.95</v>
+        <v>7.36</v>
       </c>
       <c r="G8" s="1">
-        <v>138.38</v>
-      </c>
-      <c r="H8" s="1">
-        <v>42.11</v>
+        <v>84.06</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="I8" s="1">
-        <v>4.2300000000000004</v>
+        <v>3.36</v>
       </c>
       <c r="J8" s="4">
-        <v>83.57</v>
+        <v>5.34</v>
       </c>
       <c r="K8" s="1">
-        <v>19.29</v>
+        <v>55.44</v>
       </c>
       <c r="L8" s="4">
-        <v>53.58</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>5</v>
+        <v>161.66999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>13.49</v>
       </c>
       <c r="N8" s="4">
-        <v>7.88</v>
+        <v>23.35</v>
       </c>
       <c r="O8" s="1">
-        <v>-5.56</v>
+        <v>3.35</v>
       </c>
       <c r="P8" s="4">
-        <v>29.2</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>-0.3</v>
+        <v>0.96</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>-2.4535999999999998</v>
       </c>
       <c r="R8" s="8">
-        <v>-1.52E-2</v>
+        <v>0.67520000000000002</v>
       </c>
       <c r="S8" s="7">
-        <v>-0.56020000000000003</v>
+        <v>-1.1990000000000001</v>
       </c>
       <c r="T8" s="8">
-        <v>-5.7000000000000002E-3</v>
-      </c>
-      <c r="U8" s="7">
-        <v>7.6200000000000004E-2</v>
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="V8" s="8">
-        <v>9.9599999999999994E-2</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="W8" s="7">
-        <v>2.9499999999999998E-2</v>
+        <v>-1.7500000000000002E-2</v>
       </c>
       <c r="X8" s="8">
-        <v>-1.7500000000000002E-2</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>2.1100000000000001E-2</v>
+        <v>0.63390000000000002</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>-0.01</v>
       </c>
       <c r="Z8" s="8">
-        <v>0.1933</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="AA8" s="7">
-        <v>0.11749999999999999</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="AB8" s="8">
-        <v>9.6600000000000005E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="AC8" s="1">
-        <v>1.04</v>
+        <v>0.31</v>
       </c>
       <c r="AD8" s="4">
-        <v>2.06</v>
+        <v>0.6</v>
       </c>
       <c r="AE8" s="1">
-        <v>1.1499999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="AF8" s="4">
-        <v>2.73</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>5</v>
+        <v>1.05</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>4.3461999999999996</v>
       </c>
       <c r="AH8" s="8">
-        <v>0.92589999999999995</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>5</v>
+        <v>2.8898000000000001</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>4.5068999999999999</v>
       </c>
       <c r="AJ8" s="8">
-        <v>1.0044999999999999</v>
+        <v>3.0825</v>
       </c>
       <c r="AK8" s="7">
-        <v>5.0200000000000002E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="AL8" s="8">
-        <v>2.69E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="AM8" s="7">
-        <v>3.2199999999999999E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="AN8" s="8">
-        <v>2.4299999999999999E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="AO8" s="7">
-        <v>0.21129999999999999</v>
+        <v>0.1202</v>
       </c>
       <c r="AP8" s="8">
-        <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="AQ8" s="7">
-        <v>2.9870000000000001</v>
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AR8" s="4">
-        <v>56.23</v>
+        <v>82.11</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>2632</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="9" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>2641</v>
+        <v>2624</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2627</v>
+        <v>2636</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2639</v>
+        <v>2648</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2642</v>
+        <v>2649</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>4.53</v>
       </c>
       <c r="G9" s="1">
-        <v>98.04</v>
-      </c>
-      <c r="H9" s="1">
-        <v>12.34</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.96</v>
+        <v>11.87</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="J9" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4.5199999999999996</v>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="L9" s="4">
-        <v>3.99</v>
+        <v>27.73</v>
       </c>
       <c r="M9" s="1">
-        <v>1.39</v>
+        <v>3.05</v>
       </c>
       <c r="N9" s="4">
-        <v>1.08</v>
+        <v>10.45</v>
       </c>
       <c r="O9" s="1">
-        <v>161.46</v>
+        <v>3.35</v>
       </c>
       <c r="P9" s="4">
-        <v>119.95</v>
+        <v>11.96</v>
       </c>
       <c r="Q9" s="7">
-        <v>0.17180000000000001</v>
+        <v>-0.46629999999999999</v>
       </c>
       <c r="R9" s="8">
-        <v>0.1014</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0.17349999999999999</v>
+        <v>-0.70040000000000002</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="T9" s="8">
-        <v>7.4399999999999994E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="U9" s="7">
-        <v>5.79E-2</v>
+        <v>-8.0500000000000002E-2</v>
       </c>
       <c r="V9" s="8">
-        <v>7.7100000000000002E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="W9" s="7">
-        <v>1.5100000000000001E-2</v>
+        <v>0.38819999999999999</v>
       </c>
       <c r="X9" s="8">
-        <v>-4.7899999999999998E-2</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>-3.2000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="Z9" s="8">
-        <v>0.1037</v>
+        <v>-9.7000000000000003E-3</v>
       </c>
       <c r="AA9" s="7">
-        <v>8.6E-3</v>
+        <v>-1.04E-2</v>
       </c>
       <c r="AB9" s="8">
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>5</v>
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>1.52</v>
       </c>
       <c r="AG9" s="7">
-        <v>0.50939999999999996</v>
+        <v>1.0056</v>
       </c>
       <c r="AH9" s="8">
-        <v>0.51870000000000005</v>
+        <v>6.7576999999999998</v>
       </c>
       <c r="AI9" s="7">
-        <v>0.54869999999999997</v>
+        <v>1.0642</v>
       </c>
       <c r="AJ9" s="8">
-        <v>0.53220000000000001</v>
-      </c>
-      <c r="AK9" s="9">
-        <v>0.04</v>
+        <v>7.1737000000000002</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="AL9" s="8">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="AM9" s="7">
-        <v>4.7E-2</v>
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AN9" s="8">
-        <v>4.7600000000000003E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AO9" s="7">
-        <v>7.2300000000000003E-2</v>
+        <v>0.38140000000000002</v>
       </c>
       <c r="AP9" s="8">
-        <v>0.16489999999999999</v>
-      </c>
-      <c r="AQ9" s="7">
-        <v>0.4924</v>
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AR9" s="4">
-        <v>48.09</v>
+        <v>45.94</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>2643</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="10" spans="2:45" x14ac:dyDescent="0.2">
@@ -13161,264 +13161,264 @@
         <v>2644</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2645</v>
+        <v>2653</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2646</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1">
-        <v>7.36</v>
+        <v>3.18</v>
       </c>
       <c r="G10" s="1">
-        <v>84.06</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>5</v>
+        <v>24.64</v>
+      </c>
+      <c r="H10" s="1">
+        <v>17.72</v>
       </c>
       <c r="I10" s="1">
-        <v>3.36</v>
+        <v>0.39</v>
       </c>
       <c r="J10" s="4">
-        <v>5.34</v>
-      </c>
-      <c r="K10" s="1">
-        <v>55.44</v>
+        <v>2.06</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="L10" s="4">
-        <v>161.66999999999999</v>
+        <v>34.44</v>
       </c>
       <c r="M10" s="1">
-        <v>13.49</v>
+        <v>1.3</v>
       </c>
       <c r="N10" s="4">
-        <v>23.35</v>
+        <v>3.44</v>
       </c>
       <c r="O10" s="1">
-        <v>3.35</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0.96</v>
+        <v>34.53</v>
+      </c>
+      <c r="P10" s="10">
+        <v>75268.960000000006</v>
       </c>
       <c r="Q10" s="7">
-        <v>-2.4535999999999998</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="R10" s="8">
-        <v>0.67520000000000002</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="S10" s="7">
-        <v>-1.1990000000000001</v>
+        <v>-0.19400000000000001</v>
       </c>
       <c r="T10" s="8">
-        <v>0.29020000000000001</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>5</v>
+        <v>3.1031</v>
+      </c>
+      <c r="U10" s="7">
+        <v>-6.0400000000000002E-2</v>
       </c>
       <c r="V10" s="8">
-        <v>6.4699999999999994E-2</v>
+        <v>0.17269999999999999</v>
       </c>
       <c r="W10" s="7">
-        <v>-1.7500000000000002E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="X10" s="8">
-        <v>0.63390000000000002</v>
-      </c>
-      <c r="Y10" s="9">
-        <v>-0.01</v>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="Z10" s="8">
-        <v>9.5200000000000007E-2</v>
+        <v>0.1255</v>
       </c>
       <c r="AA10" s="7">
-        <v>4.7999999999999996E-3</v>
+        <v>-4.4499999999999998E-2</v>
       </c>
       <c r="AB10" s="8">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0.31</v>
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AD10" s="4">
-        <v>0.6</v>
+        <v>0.87</v>
       </c>
       <c r="AE10" s="1">
-        <v>0.59</v>
+        <v>7.34</v>
       </c>
       <c r="AF10" s="4">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="AG10" s="7">
-        <v>4.3461999999999996</v>
+        <v>0.39939999999999998</v>
       </c>
       <c r="AH10" s="8">
-        <v>2.8898000000000001</v>
+        <v>0.63019999999999998</v>
       </c>
       <c r="AI10" s="7">
-        <v>4.5068999999999999</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="AJ10" s="8">
-        <v>3.0825</v>
+        <v>0.72529999999999994</v>
       </c>
       <c r="AK10" s="7">
-        <v>7.4399999999999994E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="AL10" s="8">
-        <v>3.8800000000000001E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="AM10" s="7">
-        <v>4.3900000000000002E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="AN10" s="8">
-        <v>4.3200000000000002E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="AO10" s="7">
-        <v>0.1202</v>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="AP10" s="8">
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>5</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>0.41539999999999999</v>
       </c>
       <c r="AR10" s="4">
-        <v>82.11</v>
+        <v>31.26</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>2647</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="11" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2636</v>
+        <v>2629</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2648</v>
+        <v>2630</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2649</v>
+        <v>2894</v>
       </c>
       <c r="F11" s="1">
-        <v>4.53</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>11.87</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>5</v>
+        <v>98.73</v>
+      </c>
+      <c r="H11" s="1">
+        <v>93.16</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5.18</v>
       </c>
       <c r="J11" s="4">
-        <v>1.1399999999999999</v>
+        <v>6.99</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L11" s="4">
-        <v>27.73</v>
+        <v>65.12</v>
       </c>
       <c r="M11" s="1">
-        <v>3.05</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="N11" s="4">
-        <v>10.45</v>
+        <v>9.89</v>
       </c>
       <c r="O11" s="1">
-        <v>3.35</v>
+        <v>7.69</v>
       </c>
       <c r="P11" s="4">
-        <v>11.96</v>
+        <v>6.25</v>
       </c>
       <c r="Q11" s="7">
-        <v>-0.46629999999999999</v>
+        <v>-0.70789999999999997</v>
       </c>
       <c r="R11" s="8">
-        <v>-0.70040000000000002</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>5</v>
+        <v>-0.2054</v>
+      </c>
+      <c r="S11" s="7">
+        <v>-0.3926</v>
       </c>
       <c r="T11" s="8">
-        <v>-2.3E-2</v>
+        <v>-0.2324</v>
       </c>
       <c r="U11" s="7">
-        <v>-8.0500000000000002E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="V11" s="8">
-        <v>6.54E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="W11" s="7">
-        <v>0.38819999999999999</v>
+        <v>3.85E-2</v>
       </c>
       <c r="X11" s="8">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>5</v>
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0.1038</v>
       </c>
       <c r="Z11" s="8">
-        <v>-9.7000000000000003E-3</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="AA11" s="7">
-        <v>-1.04E-2</v>
+        <v>-1.6899999999999998E-2</v>
       </c>
       <c r="AB11" s="8">
-        <v>6.1100000000000002E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="AD11" s="4">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="AE11" s="1">
-        <v>1.19</v>
+        <v>0.86</v>
       </c>
       <c r="AF11" s="4">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="AG11" s="7">
-        <v>1.0056</v>
+        <v>1.2354000000000001</v>
       </c>
       <c r="AH11" s="8">
-        <v>6.7576999999999998</v>
+        <v>1.8992</v>
       </c>
       <c r="AI11" s="7">
-        <v>1.0642</v>
+        <v>1.3885000000000001</v>
       </c>
       <c r="AJ11" s="8">
-        <v>7.1737000000000002</v>
-      </c>
-      <c r="AK11" s="7">
-        <v>4.5100000000000001E-2</v>
+        <v>2.1236999999999999</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AL11" s="8">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>5</v>
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="AN11" s="8">
-        <v>2.5999999999999999E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="AO11" s="7">
-        <v>0.38140000000000002</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="AP11" s="8">
-        <v>0.15570000000000001</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>5</v>
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="AQ11" s="9">
+        <v>0</v>
       </c>
       <c r="AR11" s="4">
-        <v>45.94</v>
+        <v>274.24</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>2650</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.2">
@@ -13426,401 +13426,401 @@
         <v>2624</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2644</v>
+        <v>2651</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>2656</v>
       </c>
       <c r="F12" s="1">
-        <v>3.18</v>
+        <v>5.43</v>
       </c>
       <c r="G12" s="1">
-        <v>24.64</v>
+        <v>278.76</v>
       </c>
       <c r="H12" s="1">
-        <v>17.72</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>0.39</v>
+        <v>1.54</v>
       </c>
       <c r="J12" s="4">
-        <v>2.06</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>5</v>
+        <v>1.91</v>
+      </c>
+      <c r="K12" s="1">
+        <v>19.48</v>
       </c>
       <c r="L12" s="4">
-        <v>34.44</v>
+        <v>55.41</v>
       </c>
       <c r="M12" s="1">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="N12" s="4">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="O12" s="1">
-        <v>34.53</v>
-      </c>
-      <c r="P12" s="10">
-        <v>75268.960000000006</v>
+        <v>25.22</v>
+      </c>
+      <c r="P12" s="4">
+        <v>19.190000000000001</v>
       </c>
       <c r="Q12" s="7">
-        <v>0.93669999999999998</v>
+        <v>-0.41620000000000001</v>
       </c>
       <c r="R12" s="8">
-        <v>0.90669999999999995</v>
+        <v>-0.1245</v>
       </c>
       <c r="S12" s="7">
-        <v>-0.19400000000000001</v>
+        <v>-0.31509999999999999</v>
       </c>
       <c r="T12" s="8">
-        <v>3.1031</v>
+        <v>-1.2662</v>
       </c>
       <c r="U12" s="7">
-        <v>-6.0400000000000002E-2</v>
+        <v>8.8800000000000004E-2</v>
       </c>
       <c r="V12" s="8">
-        <v>0.17269999999999999</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="W12" s="7">
-        <v>2.4E-2</v>
+        <v>-2.4400000000000002E-2</v>
       </c>
       <c r="X12" s="8">
-        <v>0.17199999999999999</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="Y12" s="7">
-        <v>4.8999999999999998E-3</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="Z12" s="8">
-        <v>0.1255</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="AA12" s="7">
-        <v>-4.4499999999999998E-2</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="AB12" s="8">
-        <v>6.9699999999999998E-2</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AD12" s="4">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="1">
-        <v>7.34</v>
+        <v>0.8</v>
       </c>
       <c r="AF12" s="4">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="AG12" s="7">
-        <v>0.39939999999999998</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="AH12" s="8">
-        <v>0.63019999999999998</v>
+        <v>1.4545999999999999</v>
       </c>
       <c r="AI12" s="7">
-        <v>0.46200000000000002</v>
+        <v>0.88560000000000005</v>
       </c>
       <c r="AJ12" s="8">
-        <v>0.72529999999999994</v>
+        <v>1.6044</v>
       </c>
       <c r="AK12" s="7">
-        <v>3.2199999999999999E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="AL12" s="8">
-        <v>2.1700000000000001E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="AM12" s="7">
-        <v>3.0200000000000001E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="AN12" s="8">
-        <v>9.4999999999999998E-3</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="AO12" s="7">
-        <v>5.2699999999999997E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="AP12" s="8">
-        <v>4.4999999999999998E-2</v>
+        <v>0.153</v>
       </c>
       <c r="AQ12" s="7">
-        <v>0.41539999999999999</v>
+        <v>0.80779999999999996</v>
       </c>
       <c r="AR12" s="4">
-        <v>31.26</v>
+        <v>121.99</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>2654</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="13" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>2626</v>
+        <v>2640</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2629</v>
+        <v>2634</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2630</v>
+        <v>2635</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2894</v>
+        <v>2658</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="G13" s="1">
-        <v>98.73</v>
+        <v>6.21</v>
       </c>
       <c r="H13" s="1">
-        <v>93.16</v>
+        <v>10.97</v>
       </c>
       <c r="I13" s="1">
-        <v>5.18</v>
+        <v>1.32</v>
       </c>
       <c r="J13" s="4">
-        <v>6.99</v>
+        <v>2.38</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L13" s="4">
-        <v>65.12</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="M13" s="1">
-        <v>9.6199999999999992</v>
+        <v>1.57</v>
       </c>
       <c r="N13" s="4">
-        <v>9.89</v>
+        <v>1.72</v>
       </c>
       <c r="O13" s="1">
-        <v>7.69</v>
+        <v>34.56</v>
       </c>
       <c r="P13" s="4">
-        <v>6.25</v>
+        <v>26.89</v>
       </c>
       <c r="Q13" s="7">
-        <v>-0.70789999999999997</v>
+        <v>0.39660000000000001</v>
       </c>
       <c r="R13" s="8">
-        <v>-0.2054</v>
+        <v>-0.19159999999999999</v>
       </c>
       <c r="S13" s="7">
-        <v>-0.3926</v>
+        <v>1.5174000000000001</v>
       </c>
       <c r="T13" s="8">
-        <v>-0.2324</v>
+        <v>0.31040000000000001</v>
       </c>
       <c r="U13" s="7">
-        <v>1.0200000000000001E-2</v>
+        <v>-4.6199999999999998E-2</v>
       </c>
       <c r="V13" s="8">
-        <v>7.3300000000000004E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="W13" s="7">
-        <v>3.85E-2</v>
+        <v>-1.26E-2</v>
       </c>
       <c r="X13" s="8">
-        <v>6.9400000000000003E-2</v>
+        <v>-3.5400000000000001E-2</v>
       </c>
       <c r="Y13" s="7">
-        <v>0.1038</v>
+        <v>-7.1499999999999994E-2</v>
       </c>
       <c r="Z13" s="8">
-        <v>6.5100000000000005E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AA13" s="7">
-        <v>-1.6899999999999998E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="AB13" s="8">
-        <v>1.34E-2</v>
+        <v>0.12280000000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>0.68</v>
+        <v>1.49</v>
       </c>
       <c r="AD13" s="4">
-        <v>0.98</v>
+        <v>0.69</v>
       </c>
       <c r="AE13" s="1">
-        <v>0.86</v>
+        <v>1.53</v>
       </c>
       <c r="AF13" s="4">
-        <v>1.33</v>
+        <v>0.84</v>
       </c>
       <c r="AG13" s="7">
-        <v>1.2354000000000001</v>
+        <v>2.3772000000000002</v>
       </c>
       <c r="AH13" s="8">
-        <v>1.8992</v>
+        <v>1.3018000000000001</v>
       </c>
       <c r="AI13" s="7">
-        <v>1.3885000000000001</v>
+        <v>2.4190999999999998</v>
       </c>
       <c r="AJ13" s="8">
-        <v>2.1236999999999999</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>5</v>
+        <v>1.4292</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="AL13" s="8">
-        <v>4.4699999999999997E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="AM13" s="7">
-        <v>3.7699999999999997E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="AN13" s="8">
-        <v>3.9399999999999998E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="AO13" s="7">
-        <v>2.3400000000000001E-2</v>
+        <v>0.1502</v>
       </c>
       <c r="AP13" s="8">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="AQ13" s="9">
-        <v>0</v>
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>0.3221</v>
       </c>
       <c r="AR13" s="4">
-        <v>274.24</v>
+        <v>427.65</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>2895</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="14" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>2640</v>
+        <v>2661</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2634</v>
+        <v>2627</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="F14" s="1">
-        <v>3.23</v>
+        <v>5.23</v>
       </c>
       <c r="G14" s="1">
-        <v>6.21</v>
+        <v>60.24</v>
       </c>
       <c r="H14" s="1">
-        <v>10.97</v>
+        <v>41.17</v>
       </c>
       <c r="I14" s="1">
-        <v>1.32</v>
+        <v>0.49</v>
       </c>
       <c r="J14" s="4">
-        <v>2.38</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>5</v>
+        <v>0.47</v>
+      </c>
+      <c r="K14" s="1">
+        <v>16.41</v>
       </c>
       <c r="L14" s="4">
-        <v>34.340000000000003</v>
+        <v>3.62</v>
       </c>
       <c r="M14" s="1">
-        <v>1.57</v>
+        <v>0.91</v>
       </c>
       <c r="N14" s="4">
-        <v>1.72</v>
+        <v>0.79</v>
       </c>
       <c r="O14" s="1">
-        <v>34.56</v>
+        <v>28.11</v>
       </c>
       <c r="P14" s="4">
-        <v>26.89</v>
+        <v>28.06</v>
       </c>
       <c r="Q14" s="7">
-        <v>0.39660000000000001</v>
+        <v>-0.2727</v>
       </c>
       <c r="R14" s="8">
-        <v>-0.19159999999999999</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="S14" s="7">
-        <v>1.5174000000000001</v>
+        <v>-0.74729999999999996</v>
       </c>
       <c r="T14" s="8">
-        <v>0.31040000000000001</v>
+        <v>0.1202</v>
       </c>
       <c r="U14" s="7">
-        <v>-4.6199999999999998E-2</v>
+        <v>-0.1123</v>
       </c>
       <c r="V14" s="8">
-        <v>5.3800000000000001E-2</v>
+        <v>0.1668</v>
       </c>
       <c r="W14" s="7">
-        <v>-1.26E-2</v>
+        <v>0.30320000000000003</v>
       </c>
       <c r="X14" s="8">
-        <v>-3.5400000000000001E-2</v>
+        <v>-0.13639999999999999</v>
       </c>
       <c r="Y14" s="7">
-        <v>-7.1499999999999994E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="Z14" s="8">
-        <v>5.7000000000000002E-2</v>
+        <v>-4.0099999999999997E-2</v>
       </c>
       <c r="AA14" s="7">
-        <v>2.3199999999999998E-2</v>
+        <v>-3.04E-2</v>
       </c>
       <c r="AB14" s="8">
-        <v>0.12280000000000001</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>1.49</v>
-      </c>
-      <c r="AD14" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>1.53</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>0.84</v>
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AG14" s="7">
-        <v>2.3772000000000002</v>
+        <v>0.2621</v>
       </c>
       <c r="AH14" s="8">
-        <v>1.3018000000000001</v>
+        <v>0.1211</v>
       </c>
       <c r="AI14" s="7">
-        <v>2.4190999999999998</v>
+        <v>0.2621</v>
       </c>
       <c r="AJ14" s="8">
-        <v>1.4292</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>3.2199999999999999E-2</v>
+        <v>0.1211</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AL14" s="8">
-        <v>3.9800000000000002E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="AM14" s="7">
-        <v>2.7400000000000001E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="AN14" s="8">
-        <v>4.2900000000000001E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="AO14" s="7">
-        <v>0.1502</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AP14" s="8">
-        <v>5.0299999999999997E-2</v>
+        <v>0.1517</v>
       </c>
       <c r="AQ14" s="7">
-        <v>0.3221</v>
+        <v>2.1997</v>
       </c>
       <c r="AR14" s="4">
-        <v>427.65</v>
+        <v>50.34</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>2659</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="15" spans="2:45" x14ac:dyDescent="0.2">
@@ -14093,538 +14093,538 @@
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2651</v>
+        <v>2629</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2655</v>
+        <v>3379</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>2673</v>
       </c>
       <c r="F17" s="1">
-        <v>5.19</v>
+        <v>4.25</v>
       </c>
       <c r="G17" s="1">
-        <v>58.68</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="H17" s="1">
-        <v>19.02</v>
+        <v>109.88</v>
       </c>
       <c r="I17" s="1">
-        <v>2.38</v>
+        <v>1.35</v>
       </c>
       <c r="J17" s="4">
-        <v>2.27</v>
+        <v>1.4</v>
       </c>
       <c r="K17" s="1">
-        <v>107.39</v>
+        <v>21.07</v>
       </c>
       <c r="L17" s="4">
-        <v>147.04</v>
+        <v>23.93</v>
       </c>
       <c r="M17" s="1">
-        <v>3.36</v>
+        <v>1.37</v>
       </c>
       <c r="N17" s="4">
-        <v>4.21</v>
+        <v>3.03</v>
       </c>
       <c r="O17" s="1">
-        <v>23.16</v>
+        <v>48.01</v>
       </c>
       <c r="P17" s="4">
-        <v>16.79</v>
+        <v>28.98</v>
       </c>
       <c r="Q17" s="7">
+        <v>-0.53010000000000002</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0.29480000000000001</v>
+      </c>
+      <c r="S17" s="7">
+        <v>-0.8448</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0.28110000000000002</v>
+      </c>
+      <c r="U17" s="7">
+        <v>-0.1384</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0.2114</v>
+      </c>
+      <c r="X17" s="8">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="AB17" s="8">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="R17" s="8">
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="S17" s="7">
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="T17" s="8">
-        <v>0.25940000000000002</v>
-      </c>
-      <c r="U17" s="7">
-        <v>4.02E-2</v>
-      </c>
-      <c r="V17" s="8">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="W17" s="7">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="X17" s="8">
-        <v>1.26E-2</v>
-      </c>
-      <c r="Y17" s="7">
+      <c r="AC17" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>0.82010000000000005</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>0.71919999999999995</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>0.9677</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AL17" s="8">
         <v>2.46E-2</v>
       </c>
-      <c r="Z17" s="8">
-        <v>2.64E-2</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="AB17" s="8">
-        <v>2.98E-2</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AD17" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="AG17" s="7">
-        <v>1.0725</v>
-      </c>
-      <c r="AH17" s="8">
-        <v>1.7338</v>
-      </c>
-      <c r="AI17" s="7">
-        <v>1.2985</v>
-      </c>
-      <c r="AJ17" s="8">
-        <v>2.0278999999999998</v>
-      </c>
-      <c r="AK17" s="7">
-        <v>5.04E-2</v>
-      </c>
-      <c r="AL17" s="8">
-        <v>4.2700000000000002E-2</v>
-      </c>
       <c r="AM17" s="7">
-        <v>4.8599999999999997E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="AN17" s="8">
-        <v>4.5600000000000002E-2</v>
+        <v>2.12E-2</v>
       </c>
       <c r="AO17" s="7">
-        <v>5.1200000000000002E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="AP17" s="8">
-        <v>5.5800000000000002E-2</v>
+        <v>9.35E-2</v>
       </c>
       <c r="AQ17" s="7">
-        <v>0.99829999999999997</v>
+        <v>4.0919999999999996</v>
       </c>
       <c r="AR17" s="4">
-        <v>85.71</v>
+        <v>38.85</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="18" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>2661</v>
+        <v>2640</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2644</v>
+        <v>2651</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3378</v>
+        <v>2655</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2818</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1">
-        <v>5.66</v>
+        <v>5.19</v>
       </c>
       <c r="G18" s="1">
-        <v>2.73</v>
+        <v>58.68</v>
       </c>
       <c r="H18" s="1">
-        <v>15.7</v>
+        <v>19.02</v>
       </c>
       <c r="I18" s="1">
-        <v>1.43</v>
+        <v>2.38</v>
       </c>
       <c r="J18" s="4">
-        <v>2.46</v>
+        <v>2.27</v>
       </c>
       <c r="K18" s="1">
-        <v>47.92</v>
+        <v>107.39</v>
       </c>
       <c r="L18" s="4">
-        <v>52.54</v>
+        <v>147.04</v>
       </c>
       <c r="M18" s="1">
-        <v>1.71</v>
+        <v>3.36</v>
       </c>
       <c r="N18" s="4">
-        <v>2.96</v>
+        <v>4.21</v>
       </c>
       <c r="O18" s="1">
-        <v>35.74</v>
+        <v>23.16</v>
       </c>
       <c r="P18" s="4">
-        <v>38.1</v>
+        <v>16.79</v>
       </c>
       <c r="Q18" s="7">
-        <v>-0.5242</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="R18" s="8">
-        <v>-0.37180000000000002</v>
+        <v>0.13389999999999999</v>
       </c>
       <c r="S18" s="7">
-        <v>2.6499999999999999E-2</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="T18" s="8">
-        <v>-2.2252000000000001</v>
+        <v>0.25940000000000002</v>
       </c>
       <c r="U18" s="7">
-        <v>-6.6199999999999995E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="V18" s="8">
-        <v>0.1011</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="W18" s="7">
-        <v>-1.9099999999999999E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="X18" s="8">
-        <v>1.3299999999999999E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="Y18" s="7">
-        <v>-2.0000000000000001E-4</v>
-      </c>
-      <c r="Z18" s="11">
-        <v>0.09</v>
+        <v>2.46E-2</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>2.64E-2</v>
       </c>
       <c r="AA18" s="7">
-        <v>-3.0000000000000001E-3</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="AB18" s="8">
-        <v>3.85E-2</v>
+        <v>2.98E-2</v>
       </c>
       <c r="AC18" s="1">
-        <v>1.61</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AD18" s="4">
-        <v>0.82</v>
+        <v>0.43</v>
       </c>
       <c r="AE18" s="1">
-        <v>2.54</v>
+        <v>0.6</v>
       </c>
       <c r="AF18" s="4">
-        <v>3.59</v>
+        <v>0.49</v>
       </c>
       <c r="AG18" s="7">
-        <v>2.01E-2</v>
+        <v>1.0725</v>
       </c>
       <c r="AH18" s="8">
-        <v>0.47110000000000002</v>
+        <v>1.7338</v>
       </c>
       <c r="AI18" s="7">
-        <v>6.08E-2</v>
+        <v>1.2985</v>
       </c>
       <c r="AJ18" s="8">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>5</v>
+        <v>2.0278999999999998</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>5.04E-2</v>
       </c>
       <c r="AL18" s="8">
-        <v>2.8500000000000001E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="AM18" s="7">
-        <v>3.3000000000000002E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="AN18" s="8">
-        <v>2.63E-2</v>
-      </c>
-      <c r="AO18" s="9">
-        <v>0</v>
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="AP18" s="8">
-        <v>9.9199999999999997E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="AQ18" s="7">
-        <v>0.88149999999999995</v>
-      </c>
-      <c r="AR18" s="4" t="s">
-        <v>5</v>
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>85.71</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>2819</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="19" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>2641</v>
+        <v>2626</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2629</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3379</v>
+        <v>2638</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2673</v>
+        <v>2676</v>
       </c>
       <c r="F19" s="1">
-        <v>4.25</v>
+        <v>3.55</v>
       </c>
       <c r="G19" s="1">
-        <v>70.180000000000007</v>
+        <v>5.21</v>
       </c>
       <c r="H19" s="1">
-        <v>109.88</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="I19" s="1">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="J19" s="4">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="K19" s="1">
-        <v>21.07</v>
+        <v>48.43</v>
       </c>
       <c r="L19" s="4">
-        <v>23.93</v>
+        <v>48.81</v>
       </c>
       <c r="M19" s="1">
-        <v>1.37</v>
+        <v>1.79</v>
       </c>
       <c r="N19" s="4">
-        <v>3.03</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="O19" s="1">
-        <v>48.01</v>
+        <v>23.72</v>
       </c>
       <c r="P19" s="4">
-        <v>28.98</v>
+        <v>5.42</v>
       </c>
       <c r="Q19" s="7">
-        <v>-0.53010000000000002</v>
+        <v>-5.7999999999999996E-3</v>
       </c>
       <c r="R19" s="8">
-        <v>0.29480000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="S19" s="7">
-        <v>-0.8448</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="T19" s="8">
-        <v>0.28110000000000002</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="U19" s="7">
-        <v>-0.1384</v>
+        <v>0.22789999999999999</v>
       </c>
       <c r="V19" s="8">
-        <v>0.23769999999999999</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="W19" s="7">
-        <v>0.2114</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="X19" s="8">
-        <v>3.6700000000000003E-2</v>
+        <v>0.14149999999999999</v>
       </c>
       <c r="Y19" s="7">
-        <v>0.29020000000000001</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="Z19" s="8">
-        <v>9.3600000000000003E-2</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="AA19" s="7">
-        <v>-2.8999999999999998E-3</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="AB19" s="8">
-        <v>6.1100000000000002E-2</v>
+        <v>0.13339999999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AD19" s="4">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="1">
-        <v>1.29</v>
+        <v>4.38</v>
       </c>
       <c r="AF19" s="4">
-        <v>1.62</v>
-      </c>
-      <c r="AG19" s="7">
-        <v>0.82010000000000005</v>
+        <v>2.98</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>0</v>
       </c>
       <c r="AH19" s="8">
-        <v>0.71919999999999995</v>
-      </c>
-      <c r="AI19" s="7">
-        <v>0.9677</v>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>0</v>
       </c>
       <c r="AJ19" s="8">
-        <v>0.86939999999999995</v>
-      </c>
-      <c r="AK19" s="7">
-        <v>4.2500000000000003E-2</v>
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AL19" s="8">
-        <v>2.46E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="AM19" s="7">
-        <v>2.6499999999999999E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="AN19" s="8">
-        <v>2.12E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="AO19" s="7">
-        <v>4.41E-2</v>
+        <v>0.1167</v>
       </c>
       <c r="AP19" s="8">
-        <v>9.35E-2</v>
+        <v>0.2893</v>
       </c>
       <c r="AQ19" s="7">
-        <v>4.0919999999999996</v>
+        <v>0.34379999999999999</v>
       </c>
       <c r="AR19" s="4">
-        <v>38.85</v>
+        <v>46.57</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>2674</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="20" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>2626</v>
+        <v>2661</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>2644</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>2638</v>
+        <v>3378</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2676</v>
+        <v>2818</v>
       </c>
       <c r="F20" s="1">
-        <v>3.55</v>
+        <v>5.66</v>
       </c>
       <c r="G20" s="1">
-        <v>5.21</v>
+        <v>2.73</v>
       </c>
       <c r="H20" s="1">
-        <v>9.7200000000000006</v>
+        <v>15.7</v>
       </c>
       <c r="I20" s="1">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="J20" s="4">
-        <v>1.98</v>
+        <v>2.46</v>
       </c>
       <c r="K20" s="1">
-        <v>48.43</v>
+        <v>47.92</v>
       </c>
       <c r="L20" s="4">
-        <v>48.81</v>
+        <v>52.54</v>
       </c>
       <c r="M20" s="1">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="N20" s="4">
-        <v>2.2799999999999998</v>
+        <v>2.96</v>
       </c>
       <c r="O20" s="1">
-        <v>23.72</v>
+        <v>35.74</v>
       </c>
       <c r="P20" s="4">
-        <v>5.42</v>
+        <v>38.1</v>
       </c>
       <c r="Q20" s="7">
-        <v>-5.7999999999999996E-3</v>
+        <v>-0.5242</v>
       </c>
       <c r="R20" s="8">
-        <v>1.2E-2</v>
+        <v>-0.37180000000000002</v>
       </c>
       <c r="S20" s="7">
-        <v>3.5000000000000003E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="T20" s="8">
-        <v>0.33429999999999999</v>
+        <v>-2.2252000000000001</v>
       </c>
       <c r="U20" s="7">
-        <v>0.22789999999999999</v>
+        <v>-6.6199999999999995E-2</v>
       </c>
       <c r="V20" s="8">
-        <v>0.35520000000000002</v>
+        <v>0.1011</v>
       </c>
       <c r="W20" s="7">
-        <v>5.6300000000000003E-2</v>
+        <v>-1.9099999999999999E-2</v>
       </c>
       <c r="X20" s="8">
-        <v>0.14149999999999999</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="Y20" s="7">
-        <v>8.6400000000000005E-2</v>
-      </c>
-      <c r="Z20" s="8">
-        <v>0.16750000000000001</v>
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>0.09</v>
       </c>
       <c r="AA20" s="7">
-        <v>0.16700000000000001</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="AB20" s="8">
-        <v>0.13339999999999999</v>
+        <v>3.85E-2</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.38</v>
+        <v>1.61</v>
       </c>
       <c r="AD20" s="4">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AE20" s="1">
-        <v>4.38</v>
+        <v>2.54</v>
       </c>
       <c r="AF20" s="4">
-        <v>2.98</v>
-      </c>
-      <c r="AG20" s="9">
-        <v>0</v>
+        <v>3.59</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>2.01E-2</v>
       </c>
       <c r="AH20" s="8">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="AI20" s="9">
-        <v>0</v>
+        <v>0.47110000000000002</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>6.08E-2</v>
       </c>
       <c r="AJ20" s="8">
-        <v>0.29470000000000002</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AL20" s="8">
-        <v>4.7E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="AM20" s="7">
-        <v>4.4200000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AN20" s="8">
         <v>2.63E-2</v>
       </c>
-      <c r="AO20" s="7">
-        <v>0.1167</v>
+      <c r="AO20" s="9">
+        <v>0</v>
       </c>
       <c r="AP20" s="8">
-        <v>0.2893</v>
+        <v>9.9199999999999997E-2</v>
       </c>
       <c r="AQ20" s="7">
-        <v>0.34379999999999999</v>
-      </c>
-      <c r="AR20" s="4">
-        <v>46.57</v>
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="AR20" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>2677</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="21" spans="2:45" x14ac:dyDescent="0.2">
@@ -15031,136 +15031,136 @@
     </row>
     <row r="24" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>2633</v>
+        <v>2640</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2672</v>
+        <v>2680</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2707</v>
+        <v>2681</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2708</v>
+        <v>2689</v>
       </c>
       <c r="F24" s="1">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="G24" s="1">
-        <v>2.5299999999999998</v>
+        <v>46.02</v>
       </c>
       <c r="H24" s="1">
-        <v>13.36</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="I24" s="1">
-        <v>0.9</v>
+        <v>1.99</v>
       </c>
       <c r="J24" s="4">
-        <v>0.88</v>
+        <v>27.23</v>
       </c>
       <c r="K24" s="1">
-        <v>21.55</v>
+        <v>9.85</v>
       </c>
       <c r="L24" s="4">
-        <v>13.9</v>
+        <v>67.53</v>
       </c>
       <c r="M24" s="1">
-        <v>3.66</v>
+        <v>1.18</v>
       </c>
       <c r="N24" s="4">
-        <v>3.78</v>
+        <v>1.64</v>
       </c>
       <c r="O24" s="1">
-        <v>6.03</v>
+        <v>28.84</v>
       </c>
       <c r="P24" s="4">
-        <v>4.42</v>
+        <v>14.71</v>
       </c>
       <c r="Q24" s="7">
-        <v>0.18770000000000001</v>
+        <v>1.9712000000000001</v>
       </c>
       <c r="R24" s="8">
-        <v>0.44969999999999999</v>
+        <v>-1.3519000000000001</v>
       </c>
       <c r="S24" s="7">
-        <v>5.5999999999999999E-3</v>
+        <v>0.85529999999999995</v>
       </c>
       <c r="T24" s="8">
-        <v>0.54559999999999997</v>
+        <v>-3.0632999999999999</v>
       </c>
       <c r="U24" s="7">
-        <v>0.17419999999999999</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="V24" s="8">
-        <v>0.28770000000000001</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="W24" s="7">
-        <v>9.7100000000000006E-2</v>
+        <v>-6.5500000000000003E-2</v>
       </c>
       <c r="X24" s="8">
-        <v>0.1331</v>
+        <v>-0.25590000000000002</v>
       </c>
       <c r="Y24" s="7">
-        <v>8.2799999999999999E-2</v>
+        <v>-3.2399999999999998E-2</v>
       </c>
       <c r="Z24" s="8">
-        <v>0.19320000000000001</v>
+        <v>-0.26690000000000003</v>
       </c>
       <c r="AA24" s="7">
-        <v>0.1195</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="AB24" s="8">
-        <v>8.2299999999999998E-2</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="AC24" s="1">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="AD24" s="4">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AE24" s="1">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="AF24" s="4">
-        <v>0.88</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AG24" s="7">
-        <v>1.8136000000000001</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="AH24" s="8">
-        <v>1.3605</v>
+        <v>0.55579999999999996</v>
       </c>
       <c r="AI24" s="7">
-        <v>2.7711999999999999</v>
+        <v>0.74060000000000004</v>
       </c>
       <c r="AJ24" s="8">
-        <v>1.6736</v>
+        <v>0.61439999999999995</v>
       </c>
       <c r="AK24" s="7">
-        <v>2.81E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="AL24" s="8">
-        <v>2.0500000000000001E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="AM24" s="7">
-        <v>2.53E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AN24" s="8">
-        <v>2.4199999999999999E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="AO24" s="7">
-        <v>0.2339</v>
+        <v>0.13350000000000001</v>
       </c>
       <c r="AP24" s="8">
-        <v>0.22389999999999999</v>
+        <v>7.0300000000000001E-2</v>
       </c>
       <c r="AQ24" s="7">
-        <v>0.18759999999999999</v>
+        <v>0.35410000000000003</v>
       </c>
       <c r="AR24" s="4">
-        <v>24.33</v>
+        <v>63.54</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>2709</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="25" spans="2:45" x14ac:dyDescent="0.2">
@@ -15168,133 +15168,133 @@
         <v>2640</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2680</v>
+        <v>2634</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>2681</v>
+        <v>2635</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="F25" s="1">
-        <v>3.85</v>
+        <v>4.18</v>
       </c>
       <c r="G25" s="1">
-        <v>46.02</v>
+        <v>11.45</v>
       </c>
       <c r="H25" s="1">
-        <v>8.5500000000000007</v>
+        <v>11.57</v>
       </c>
       <c r="I25" s="1">
-        <v>1.99</v>
+        <v>2.85</v>
       </c>
       <c r="J25" s="4">
-        <v>27.23</v>
-      </c>
-      <c r="K25" s="1">
-        <v>9.85</v>
+        <v>2.38</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="L25" s="4">
-        <v>67.53</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="M25" s="1">
-        <v>1.18</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N25" s="4">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="O25" s="1">
-        <v>28.84</v>
+        <v>24.47</v>
       </c>
       <c r="P25" s="4">
-        <v>14.71</v>
+        <v>26.89</v>
       </c>
       <c r="Q25" s="7">
-        <v>1.9712000000000001</v>
+        <v>0.4415</v>
       </c>
       <c r="R25" s="8">
-        <v>-1.3519000000000001</v>
+        <v>-0.19159999999999999</v>
       </c>
       <c r="S25" s="7">
-        <v>0.85529999999999995</v>
+        <v>1.3835</v>
       </c>
       <c r="T25" s="8">
-        <v>-3.0632999999999999</v>
+        <v>0.31040000000000001</v>
       </c>
       <c r="U25" s="7">
-        <v>3.3999999999999998E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="V25" s="8">
-        <v>3.8300000000000001E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="W25" s="7">
-        <v>-6.5500000000000003E-2</v>
+        <v>-0.1061</v>
       </c>
       <c r="X25" s="8">
-        <v>-0.25590000000000002</v>
+        <v>-3.5400000000000001E-2</v>
       </c>
       <c r="Y25" s="7">
-        <v>-3.2399999999999998E-2</v>
+        <v>-0.11849999999999999</v>
       </c>
       <c r="Z25" s="8">
-        <v>-0.26690000000000003</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AA25" s="7">
-        <v>5.4300000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AB25" s="8">
-        <v>8.9200000000000002E-2</v>
+        <v>0.12280000000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>0.44</v>
+        <v>2.44</v>
       </c>
       <c r="AD25" s="4">
-        <v>0.85</v>
+        <v>0.69</v>
       </c>
       <c r="AE25" s="1">
-        <v>0.59</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AF25" s="4">
-        <v>1.1299999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AG25" s="7">
-        <v>0.61799999999999999</v>
+        <v>1.3375999999999999</v>
       </c>
       <c r="AH25" s="8">
-        <v>0.55579999999999996</v>
+        <v>1.3018000000000001</v>
       </c>
       <c r="AI25" s="7">
-        <v>0.74060000000000004</v>
+        <v>1.3593</v>
       </c>
       <c r="AJ25" s="8">
-        <v>0.61439999999999995</v>
+        <v>1.4292</v>
       </c>
       <c r="AK25" s="7">
-        <v>4.3900000000000002E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="AL25" s="8">
-        <v>3.4200000000000001E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="AM25" s="7">
-        <v>2.8000000000000001E-2</v>
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="AN25" s="8">
-        <v>3.7699999999999997E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="AO25" s="7">
-        <v>0.13350000000000001</v>
+        <v>0.10059999999999999</v>
       </c>
       <c r="AP25" s="8">
-        <v>7.0300000000000001E-2</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="AQ25" s="7">
-        <v>0.35410000000000003</v>
+        <v>0.52780000000000005</v>
       </c>
       <c r="AR25" s="4">
-        <v>63.54</v>
+        <v>427.65</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.2">
@@ -15302,669 +15302,669 @@
         <v>2640</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2634</v>
+        <v>2627</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>2635</v>
+        <v>2671</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="F26" s="1">
-        <v>4.18</v>
+        <v>3.37</v>
       </c>
       <c r="G26" s="1">
-        <v>11.45</v>
+        <v>2.87</v>
       </c>
       <c r="H26" s="1">
-        <v>11.57</v>
+        <v>10.8</v>
       </c>
       <c r="I26" s="1">
-        <v>2.85</v>
+        <v>3.36</v>
       </c>
       <c r="J26" s="4">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L26" s="4">
+        <v>3.32</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="O26" s="1">
+        <v>33.76</v>
+      </c>
+      <c r="P26" s="4">
         <v>34.340000000000003</v>
       </c>
-      <c r="M26" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N26" s="4">
-        <v>1.72</v>
-      </c>
-      <c r="O26" s="1">
-        <v>24.47</v>
-      </c>
-      <c r="P26" s="4">
-        <v>26.89</v>
-      </c>
       <c r="Q26" s="7">
-        <v>0.4415</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="R26" s="8">
-        <v>-0.19159999999999999</v>
+        <v>-0.3705</v>
       </c>
       <c r="S26" s="7">
-        <v>1.3835</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="T26" s="8">
-        <v>0.31040000000000001</v>
+        <v>-0.20979999999999999</v>
       </c>
       <c r="U26" s="7">
-        <v>1.6000000000000001E-3</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="V26" s="8">
-        <v>5.3800000000000001E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="W26" s="7">
-        <v>-0.1061</v>
+        <v>0.11990000000000001</v>
       </c>
       <c r="X26" s="8">
-        <v>-3.5400000000000001E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="Y26" s="7">
-        <v>-0.11849999999999999</v>
+        <v>0.1578</v>
       </c>
       <c r="Z26" s="8">
-        <v>5.7000000000000002E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="AA26" s="7">
-        <v>5.2999999999999999E-2</v>
+        <v>0.1096</v>
       </c>
       <c r="AB26" s="8">
-        <v>0.12280000000000001</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>2.44</v>
-      </c>
-      <c r="AD26" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="AF26" s="4">
-        <v>0.84</v>
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF26" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AG26" s="7">
-        <v>1.3375999999999999</v>
+        <v>0.81889999999999996</v>
       </c>
       <c r="AH26" s="8">
-        <v>1.3018000000000001</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="AI26" s="7">
-        <v>1.3593</v>
+        <v>0.8367</v>
       </c>
       <c r="AJ26" s="8">
-        <v>1.4292</v>
+        <v>3.3755000000000002</v>
       </c>
       <c r="AK26" s="7">
-        <v>4.1599999999999998E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="AL26" s="8">
-        <v>3.9800000000000002E-2</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="AM26" s="7">
-        <v>3.6900000000000002E-2</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="AN26" s="8">
-        <v>4.2900000000000001E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="AO26" s="7">
-        <v>0.10059999999999999</v>
+        <v>-1.7899999999999999E-2</v>
       </c>
       <c r="AP26" s="8">
-        <v>5.0299999999999997E-2</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="AQ26" s="7">
-        <v>0.52780000000000005</v>
+        <v>0.3543</v>
       </c>
       <c r="AR26" s="4">
-        <v>427.65</v>
+        <v>56.85</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>2640</v>
+        <v>2624</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2671</v>
+        <v>2630</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="F27" s="1">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="G27" s="1">
-        <v>2.87</v>
-      </c>
-      <c r="H27" s="1">
-        <v>10.8</v>
+        <v>17.260000000000002</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="I27" s="1">
-        <v>3.36</v>
+        <v>0.12</v>
       </c>
       <c r="J27" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>5</v>
+        <v>83.57</v>
+      </c>
+      <c r="K27" s="1">
+        <v>9.57</v>
       </c>
       <c r="L27" s="4">
-        <v>3.32</v>
+        <v>53.58</v>
       </c>
       <c r="M27" s="1">
-        <v>1.1200000000000001</v>
+        <v>17.43</v>
       </c>
       <c r="N27" s="4">
-        <v>1.48</v>
+        <v>7.88</v>
       </c>
       <c r="O27" s="1">
-        <v>33.76</v>
+        <v>3.42</v>
       </c>
       <c r="P27" s="4">
-        <v>34.340000000000003</v>
+        <v>29.2</v>
       </c>
       <c r="Q27" s="7">
-        <v>6.7299999999999999E-2</v>
+        <v>-0.19819999999999999</v>
       </c>
       <c r="R27" s="8">
-        <v>-0.3705</v>
+        <v>-1.52E-2</v>
       </c>
       <c r="S27" s="7">
-        <v>8.9700000000000002E-2</v>
+        <v>-64.221199999999996</v>
       </c>
       <c r="T27" s="8">
-        <v>-0.20979999999999999</v>
+        <v>-5.7000000000000002E-3</v>
       </c>
       <c r="U27" s="7">
-        <v>3.7100000000000001E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="V27" s="8">
-        <v>5.8099999999999999E-2</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="W27" s="7">
-        <v>0.11990000000000001</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="X27" s="8">
-        <v>4.48E-2</v>
+        <v>-1.7500000000000002E-2</v>
       </c>
       <c r="Y27" s="7">
-        <v>0.1578</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="Z27" s="8">
-        <v>1.06E-2</v>
+        <v>0.1933</v>
       </c>
       <c r="AA27" s="7">
-        <v>0.1096</v>
+        <v>9.8299999999999998E-2</v>
       </c>
       <c r="AB27" s="8">
-        <v>8.5800000000000001E-2</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF27" s="4" t="s">
-        <v>5</v>
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>2.73</v>
       </c>
       <c r="AG27" s="7">
-        <v>0.81889999999999996</v>
+        <v>6.7487000000000004</v>
       </c>
       <c r="AH27" s="8">
-        <v>0.81299999999999994</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="AI27" s="7">
-        <v>0.8367</v>
+        <v>7.9419000000000004</v>
       </c>
       <c r="AJ27" s="8">
-        <v>3.3755000000000002</v>
+        <v>1.0044999999999999</v>
       </c>
       <c r="AK27" s="7">
-        <v>3.4099999999999998E-2</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="AL27" s="8">
-        <v>4.7399999999999998E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="AM27" s="7">
-        <v>3.3099999999999997E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="AN27" s="8">
-        <v>3.7400000000000003E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="AO27" s="7">
-        <v>-1.7899999999999999E-2</v>
+        <v>7.17E-2</v>
       </c>
       <c r="AP27" s="8">
-        <v>9.5100000000000004E-2</v>
-      </c>
-      <c r="AQ27" s="7">
-        <v>0.3543</v>
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AR27" s="4">
-        <v>56.85</v>
+        <v>56.23</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>2624</v>
+        <v>2661</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2629</v>
+        <v>2651</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>2630</v>
+        <v>2697</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="F28" s="1">
-        <v>3.24</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="G28" s="1">
-        <v>17.260000000000002</v>
+        <v>3.91</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I28" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="J28" s="4">
-        <v>83.57</v>
+        <v>0.19</v>
       </c>
       <c r="K28" s="1">
-        <v>9.57</v>
+        <v>63.83</v>
       </c>
       <c r="L28" s="4">
-        <v>53.58</v>
+        <v>256.02999999999997</v>
       </c>
       <c r="M28" s="1">
-        <v>17.43</v>
+        <v>0.65</v>
       </c>
       <c r="N28" s="4">
-        <v>7.88</v>
+        <v>1.6</v>
       </c>
       <c r="O28" s="1">
-        <v>3.42</v>
+        <v>55.92</v>
       </c>
       <c r="P28" s="4">
-        <v>29.2</v>
+        <v>41.74</v>
       </c>
       <c r="Q28" s="7">
-        <v>-0.19819999999999999</v>
+        <v>-0.9224</v>
       </c>
       <c r="R28" s="8">
-        <v>-1.52E-2</v>
+        <v>-0.49980000000000002</v>
       </c>
       <c r="S28" s="7">
-        <v>-64.221199999999996</v>
+        <v>-3.4014000000000002</v>
       </c>
       <c r="T28" s="8">
-        <v>-5.7000000000000002E-3</v>
-      </c>
-      <c r="U28" s="7">
-        <v>6.08E-2</v>
+        <v>-0.65890000000000004</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="V28" s="8">
-        <v>9.9599999999999994E-2</v>
+        <v>0.21479999999999999</v>
       </c>
       <c r="W28" s="7">
-        <v>5.2900000000000003E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="X28" s="8">
-        <v>-1.7500000000000002E-2</v>
+        <v>-2.0899999999999998E-2</v>
       </c>
       <c r="Y28" s="7">
-        <v>5.4399999999999997E-2</v>
+        <v>-4.1999999999999997E-3</v>
       </c>
       <c r="Z28" s="8">
-        <v>0.1933</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="AA28" s="7">
-        <v>9.8299999999999998E-2</v>
+        <v>-4.9500000000000002E-2</v>
       </c>
       <c r="AB28" s="8">
-        <v>9.6600000000000005E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.48</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD28" s="4">
-        <v>2.06</v>
+        <v>0.51</v>
       </c>
       <c r="AE28" s="1">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="AF28" s="4">
-        <v>2.73</v>
+        <v>0.81</v>
       </c>
       <c r="AG28" s="7">
-        <v>6.7487000000000004</v>
+        <v>1.0517000000000001</v>
       </c>
       <c r="AH28" s="8">
-        <v>0.92589999999999995</v>
+        <v>1.8852</v>
       </c>
       <c r="AI28" s="7">
-        <v>7.9419000000000004</v>
+        <v>1.5387999999999999</v>
       </c>
       <c r="AJ28" s="8">
-        <v>1.0044999999999999</v>
+        <v>2.5352999999999999</v>
       </c>
       <c r="AK28" s="7">
-        <v>3.2300000000000002E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="AL28" s="8">
-        <v>2.69E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AM28" s="7">
-        <v>2.52E-2</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="AN28" s="8">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="AO28" s="7">
-        <v>7.17E-2</v>
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="AO28" s="9">
+        <v>0</v>
       </c>
       <c r="AP28" s="8">
-        <v>7.9799999999999996E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="AQ28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AR28" s="4">
-        <v>56.23</v>
+        <v>52.82</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="29" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>2661</v>
+        <v>2624</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2651</v>
+        <v>2680</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2697</v>
+        <v>2704</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2698</v>
+        <v>2705</v>
       </c>
       <c r="F29" s="1">
-        <v>8.5500000000000007</v>
+        <v>4.68</v>
       </c>
       <c r="G29" s="1">
-        <v>3.91</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>5</v>
+        <v>206.69</v>
+      </c>
+      <c r="H29" s="1">
+        <v>64.19</v>
       </c>
       <c r="I29" s="1">
-        <v>0.11</v>
+        <v>1.49</v>
       </c>
       <c r="J29" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="K29" s="1">
-        <v>63.83</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="4">
-        <v>256.02999999999997</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.65</v>
+        <v>18.260000000000002</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="O29" s="1">
-        <v>55.92</v>
+        <v>1.87</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="4">
-        <v>41.74</v>
+        <v>66.680000000000007</v>
       </c>
       <c r="Q29" s="7">
-        <v>-0.9224</v>
+        <v>-2.8170000000000002</v>
       </c>
       <c r="R29" s="8">
-        <v>-0.49980000000000002</v>
+        <v>-0.99519999999999997</v>
       </c>
       <c r="S29" s="7">
-        <v>-3.4014000000000002</v>
+        <v>-0.7782</v>
       </c>
       <c r="T29" s="8">
-        <v>-0.65890000000000004</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>5</v>
+        <v>-1.7725</v>
+      </c>
+      <c r="U29" s="7">
+        <v>-0.29470000000000002</v>
       </c>
       <c r="V29" s="8">
-        <v>0.21479999999999999</v>
+        <v>-0.1714</v>
       </c>
       <c r="W29" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>-0.13450000000000001</v>
       </c>
       <c r="X29" s="8">
-        <v>-2.0899999999999998E-2</v>
+        <v>-0.26419999999999999</v>
       </c>
       <c r="Y29" s="7">
-        <v>-4.1999999999999997E-3</v>
+        <v>-0.1179</v>
       </c>
       <c r="Z29" s="8">
-        <v>9.9000000000000008E-3</v>
+        <v>-0.28660000000000002</v>
       </c>
       <c r="AA29" s="7">
-        <v>-4.9500000000000002E-2</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="AB29" s="8">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>0.55000000000000004</v>
+        <v>-4.2299999999999997E-2</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AD29" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="AE29" s="1">
-        <v>0.85</v>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AF29" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="AG29" s="7">
-        <v>1.0517000000000001</v>
+        <v>1.37</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AH29" s="8">
-        <v>1.8852</v>
-      </c>
-      <c r="AI29" s="7">
-        <v>1.5387999999999999</v>
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AJ29" s="8">
-        <v>2.5352999999999999</v>
+        <v>0.86409999999999998</v>
       </c>
       <c r="AK29" s="7">
-        <v>8.5500000000000007E-2</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="AL29" s="8">
-        <v>3.9E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="AM29" s="7">
-        <v>6.2100000000000002E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="AN29" s="8">
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="AO29" s="9">
-        <v>0</v>
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="AO29" s="7">
+        <v>3.5299999999999998E-2</v>
       </c>
       <c r="AP29" s="8">
-        <v>4.9299999999999997E-2</v>
-      </c>
-      <c r="AQ29" s="1" t="s">
-        <v>5</v>
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="AQ29" s="7">
+        <v>2.0068999999999999</v>
       </c>
       <c r="AR29" s="4">
-        <v>52.82</v>
+        <v>456.16</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>2699</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="30" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>2624</v>
+        <v>2633</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2680</v>
+        <v>2672</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
       <c r="F30" s="1">
-        <v>4.68</v>
+        <v>3.45</v>
       </c>
       <c r="G30" s="1">
-        <v>206.69</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="H30" s="1">
-        <v>64.19</v>
+        <v>13.36</v>
       </c>
       <c r="I30" s="1">
-        <v>1.49</v>
+        <v>0.9</v>
       </c>
       <c r="J30" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>5</v>
+        <v>0.88</v>
+      </c>
+      <c r="K30" s="1">
+        <v>21.55</v>
       </c>
       <c r="L30" s="4">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>5</v>
+        <v>13.9</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3.66</v>
       </c>
       <c r="N30" s="4">
-        <v>1.87</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>5</v>
+        <v>3.78</v>
+      </c>
+      <c r="O30" s="1">
+        <v>6.03</v>
       </c>
       <c r="P30" s="4">
-        <v>66.680000000000007</v>
+        <v>4.42</v>
       </c>
       <c r="Q30" s="7">
-        <v>-2.8170000000000002</v>
+        <v>0.18770000000000001</v>
       </c>
       <c r="R30" s="8">
-        <v>-0.99519999999999997</v>
+        <v>0.44969999999999999</v>
       </c>
       <c r="S30" s="7">
-        <v>-0.7782</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="T30" s="8">
-        <v>-1.7725</v>
+        <v>0.54559999999999997</v>
       </c>
       <c r="U30" s="7">
-        <v>-0.29470000000000002</v>
+        <v>0.17419999999999999</v>
       </c>
       <c r="V30" s="8">
-        <v>-0.1714</v>
+        <v>0.28770000000000001</v>
       </c>
       <c r="W30" s="7">
-        <v>-0.13450000000000001</v>
+        <v>9.7100000000000006E-2</v>
       </c>
       <c r="X30" s="8">
-        <v>-0.26419999999999999</v>
+        <v>0.1331</v>
       </c>
       <c r="Y30" s="7">
-        <v>-0.1179</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="Z30" s="8">
-        <v>-0.28660000000000002</v>
+        <v>0.19320000000000001</v>
       </c>
       <c r="AA30" s="7">
-        <v>-6.9000000000000006E-2</v>
+        <v>0.1195</v>
       </c>
       <c r="AB30" s="8">
-        <v>-4.2299999999999997E-2</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>5</v>
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0.53</v>
       </c>
       <c r="AD30" s="4">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="AE30" s="1" t="s">
-        <v>5</v>
+        <v>0.65</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.76</v>
       </c>
       <c r="AF30" s="4">
-        <v>1.37</v>
-      </c>
-      <c r="AG30" s="1" t="s">
-        <v>5</v>
+        <v>0.88</v>
+      </c>
+      <c r="AG30" s="7">
+        <v>1.8136000000000001</v>
       </c>
       <c r="AH30" s="8">
-        <v>0.75180000000000002</v>
-      </c>
-      <c r="AI30" s="1" t="s">
-        <v>5</v>
+        <v>1.3605</v>
+      </c>
+      <c r="AI30" s="7">
+        <v>2.7711999999999999</v>
       </c>
       <c r="AJ30" s="8">
-        <v>0.86409999999999998</v>
+        <v>1.6736</v>
       </c>
       <c r="AK30" s="7">
-        <v>4.6899999999999997E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="AL30" s="8">
-        <v>4.58E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="AM30" s="7">
-        <v>3.9399999999999998E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="AN30" s="8">
-        <v>3.5799999999999998E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="AO30" s="7">
-        <v>3.5299999999999998E-2</v>
+        <v>0.2339</v>
       </c>
       <c r="AP30" s="8">
-        <v>6.4600000000000005E-2</v>
+        <v>0.22389999999999999</v>
       </c>
       <c r="AQ30" s="7">
-        <v>2.0068999999999999</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="AR30" s="4">
-        <v>456.16</v>
+        <v>24.33</v>
       </c>
       <c r="AS30" s="1" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="31" spans="2:45" x14ac:dyDescent="0.2">
@@ -16371,270 +16371,270 @@
     </row>
     <row r="34" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>2626</v>
+        <v>2641</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2636</v>
+        <v>2651</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>2719</v>
+        <v>2684</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="F34" s="1">
-        <v>4.4800000000000004</v>
+        <v>3.51</v>
       </c>
       <c r="G34" s="1">
-        <v>4.8</v>
+        <v>39.71</v>
       </c>
       <c r="H34" s="1">
-        <v>16.170000000000002</v>
+        <v>18.91</v>
       </c>
       <c r="I34" s="1">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="J34" s="4">
-        <v>0.99</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="K34" s="1">
-        <v>117.18</v>
+        <v>23.76</v>
       </c>
       <c r="L34" s="4">
-        <v>48.18</v>
+        <v>101.34</v>
       </c>
       <c r="M34" s="1">
-        <v>1.54</v>
+        <v>3.33</v>
       </c>
       <c r="N34" s="4">
-        <v>3.56</v>
+        <v>3.37</v>
       </c>
       <c r="O34" s="1">
-        <v>2.3199999999999998</v>
+        <v>9.84</v>
       </c>
       <c r="P34" s="4">
-        <v>1.06</v>
+        <v>9.59</v>
       </c>
       <c r="Q34" s="7">
-        <v>0.27089999999999997</v>
+        <v>-0.12959999999999999</v>
       </c>
       <c r="R34" s="8">
-        <v>0.17169999999999999</v>
+        <v>0.2616</v>
       </c>
       <c r="S34" s="7">
-        <v>3.5900000000000001E-2</v>
+        <v>-0.1487</v>
       </c>
       <c r="T34" s="8">
-        <v>-0.1371</v>
-      </c>
-      <c r="U34" s="7">
-        <v>6.7799999999999999E-2</v>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="U34" s="9">
+        <v>0</v>
       </c>
       <c r="V34" s="8">
-        <v>0.20039999999999999</v>
+        <v>-3.44E-2</v>
       </c>
       <c r="W34" s="7">
-        <v>3.7400000000000003E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="X34" s="8">
-        <v>2.8000000000000001E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="Y34" s="7">
-        <v>6.0400000000000002E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="Z34" s="8">
-        <v>9.7000000000000003E-3</v>
+        <v>7.46E-2</v>
       </c>
       <c r="AA34" s="7">
-        <v>8.8700000000000001E-2</v>
-      </c>
-      <c r="AB34" s="8">
-        <v>0.12790000000000001</v>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC34" s="1">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="AD34" s="4">
-        <v>0.68</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AE34" s="1">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AF34" s="4">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="AG34" s="7">
-        <v>0.76649999999999996</v>
+        <v>1.1451</v>
       </c>
       <c r="AH34" s="8">
-        <v>0.82530000000000003</v>
+        <v>0.38940000000000002</v>
       </c>
       <c r="AI34" s="7">
-        <v>0.92120000000000002</v>
+        <v>1.4202999999999999</v>
       </c>
       <c r="AJ34" s="8">
-        <v>1.0192000000000001</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>5</v>
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="AK34" s="7">
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="AL34" s="8">
-        <v>1.12E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AM34" s="7">
-        <v>3.49E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="AN34" s="8">
-        <v>3.1E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="AO34" s="7">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
       <c r="AP34" s="8">
-        <v>0.25940000000000002</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="AQ34" s="7">
-        <v>0.74009999999999998</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="AR34" s="4">
-        <v>77.709999999999994</v>
+        <v>46.68</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>2641</v>
+        <v>2626</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2651</v>
+        <v>2636</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>2684</v>
+        <v>2719</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2717</v>
+        <v>2720</v>
       </c>
       <c r="F35" s="1">
-        <v>3.51</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="G35" s="1">
-        <v>39.71</v>
+        <v>4.8</v>
       </c>
       <c r="H35" s="1">
-        <v>18.91</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="I35" s="1">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="J35" s="4">
-        <v>2.0499999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="K35" s="1">
-        <v>23.76</v>
+        <v>117.18</v>
       </c>
       <c r="L35" s="4">
-        <v>101.34</v>
+        <v>48.18</v>
       </c>
       <c r="M35" s="1">
-        <v>3.33</v>
+        <v>1.54</v>
       </c>
       <c r="N35" s="4">
-        <v>3.37</v>
+        <v>3.56</v>
       </c>
       <c r="O35" s="1">
-        <v>9.84</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="P35" s="4">
-        <v>9.59</v>
+        <v>1.06</v>
       </c>
       <c r="Q35" s="7">
-        <v>-0.12959999999999999</v>
+        <v>0.27089999999999997</v>
       </c>
       <c r="R35" s="8">
-        <v>0.2616</v>
+        <v>0.17169999999999999</v>
       </c>
       <c r="S35" s="7">
-        <v>-0.1487</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="T35" s="8">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="U35" s="9">
-        <v>0</v>
+        <v>-0.1371</v>
+      </c>
+      <c r="U35" s="7">
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="V35" s="8">
-        <v>-3.44E-2</v>
+        <v>0.20039999999999999</v>
       </c>
       <c r="W35" s="7">
-        <v>3.0200000000000001E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="X35" s="8">
-        <v>2.9499999999999998E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Y35" s="7">
-        <v>3.44E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="Z35" s="8">
-        <v>7.46E-2</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="AA35" s="7">
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="AB35" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>0.12790000000000001</v>
       </c>
       <c r="AC35" s="1">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="AD35" s="4">
-        <v>1.1599999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="AE35" s="1">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="AF35" s="4">
-        <v>1.2</v>
+        <v>0.92</v>
       </c>
       <c r="AG35" s="7">
-        <v>1.1451</v>
+        <v>0.76649999999999996</v>
       </c>
       <c r="AH35" s="8">
-        <v>0.38940000000000002</v>
+        <v>0.82530000000000003</v>
       </c>
       <c r="AI35" s="7">
-        <v>1.4202999999999999</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="AJ35" s="8">
-        <v>0.45639999999999997</v>
-      </c>
-      <c r="AK35" s="7">
-        <v>3.5099999999999999E-2</v>
+        <v>1.0192000000000001</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AL35" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="AM35" s="7">
-        <v>3.4099999999999998E-2</v>
+        <v>3.49E-2</v>
       </c>
       <c r="AN35" s="8">
-        <v>2.8400000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AO35" s="7">
-        <v>0.106</v>
+        <v>0.108</v>
       </c>
       <c r="AP35" s="8">
-        <v>7.0800000000000002E-2</v>
+        <v>0.25940000000000002</v>
       </c>
       <c r="AQ35" s="7">
-        <v>0.65600000000000003</v>
+        <v>0.74009999999999998</v>
       </c>
       <c r="AR35" s="4">
-        <v>46.68</v>
+        <v>77.709999999999994</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="36" spans="2:45" x14ac:dyDescent="0.2">
@@ -18381,270 +18381,270 @@
     </row>
     <row r="49" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2627</v>
+        <v>2680</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>2769</v>
+        <v>2688</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>3298</v>
+        <v>2747</v>
       </c>
       <c r="F49" s="1">
-        <v>4.51</v>
+        <v>6.26</v>
       </c>
       <c r="G49" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="H49" s="1">
-        <v>11.41</v>
+        <v>4.84</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="1">
-        <v>11.68</v>
+        <v>1.85</v>
       </c>
       <c r="J49" s="4">
-        <v>30.69</v>
+        <v>2.83</v>
       </c>
       <c r="K49" s="1">
-        <v>737.35</v>
+        <v>58.78</v>
       </c>
       <c r="L49" s="4">
-        <v>322.27</v>
+        <v>146.47</v>
       </c>
       <c r="M49" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="N49" s="4">
-        <v>1.1200000000000001</v>
+        <v>9.06</v>
       </c>
       <c r="O49" s="1">
-        <v>1.58</v>
+        <v>36.51</v>
       </c>
       <c r="P49" s="4">
-        <v>9.64</v>
+        <v>23.74</v>
       </c>
       <c r="Q49" s="7">
-        <v>1.7113</v>
+        <v>2.9445999999999999</v>
       </c>
       <c r="R49" s="8">
-        <v>-0.9627</v>
+        <v>-1.2524999999999999</v>
       </c>
       <c r="S49" s="7">
-        <v>1.2816000000000001</v>
+        <v>-3.8818999999999999</v>
       </c>
       <c r="T49" s="8">
-        <v>0.77090000000000003</v>
-      </c>
-      <c r="U49" s="7">
-        <v>4.0099999999999997E-2</v>
+        <v>-0.99650000000000005</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="V49" s="8">
-        <v>-2.8199999999999999E-2</v>
+        <v>-6.7100000000000007E-2</v>
       </c>
       <c r="W49" s="7">
-        <v>1.7107000000000001</v>
+        <v>-0.1701</v>
       </c>
       <c r="X49" s="8">
-        <v>-0.51770000000000005</v>
-      </c>
-      <c r="Y49" s="9">
-        <v>1.34</v>
+        <v>-0.20069999999999999</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>3.3E-3</v>
       </c>
       <c r="Z49" s="8">
-        <v>5.9466999999999999</v>
+        <v>-6.5299999999999997E-2</v>
       </c>
       <c r="AA49" s="7">
-        <v>0.114</v>
+        <v>-5.5100000000000003E-2</v>
       </c>
       <c r="AB49" s="8">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="AC49" s="1" t="s">
-        <v>5</v>
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>2.4</v>
       </c>
       <c r="AD49" s="4">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AE49" s="1">
-        <v>2.41</v>
+        <v>2.75</v>
       </c>
       <c r="AF49" s="4">
-        <v>9.75</v>
-      </c>
-      <c r="AG49" s="9">
-        <v>0</v>
+        <v>2.21</v>
+      </c>
+      <c r="AG49" s="7">
+        <v>0.1206</v>
       </c>
       <c r="AH49" s="8">
-        <v>7.7399999999999997E-2</v>
-      </c>
-      <c r="AI49" s="9">
-        <v>0</v>
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="AI49" s="7">
+        <v>0.1206</v>
       </c>
       <c r="AJ49" s="8">
-        <v>0.1027</v>
-      </c>
-      <c r="AK49" s="1" t="s">
-        <v>5</v>
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="AK49" s="7">
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="AL49" s="8">
-        <v>2.06E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="AM49" s="7">
-        <v>4.8800000000000003E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="AN49" s="8">
-        <v>2.64E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="AO49" s="7">
-        <v>4.4600000000000001E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="AP49" s="8">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="AQ49" s="7">
-        <v>0.50529999999999997</v>
+        <v>0.23710000000000001</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AR49" s="4">
-        <v>75.67</v>
+        <v>143.79</v>
       </c>
       <c r="AS49" s="1" t="s">
-        <v>3299</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="50" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>2680</v>
+        <v>2627</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>2688</v>
+        <v>2769</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2747</v>
+        <v>3298</v>
       </c>
       <c r="F50" s="1">
-        <v>6.26</v>
+        <v>4.51</v>
       </c>
       <c r="G50" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>5</v>
+        <v>3.4</v>
+      </c>
+      <c r="H50" s="1">
+        <v>11.41</v>
       </c>
       <c r="I50" s="1">
-        <v>1.85</v>
+        <v>11.68</v>
       </c>
       <c r="J50" s="4">
-        <v>2.83</v>
+        <v>30.69</v>
       </c>
       <c r="K50" s="1">
-        <v>58.78</v>
+        <v>737.35</v>
       </c>
       <c r="L50" s="4">
-        <v>146.47</v>
+        <v>322.27</v>
       </c>
       <c r="M50" s="1">
-        <v>1.24</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N50" s="4">
-        <v>9.06</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="O50" s="1">
-        <v>36.51</v>
+        <v>1.58</v>
       </c>
       <c r="P50" s="4">
-        <v>23.74</v>
+        <v>9.64</v>
       </c>
       <c r="Q50" s="7">
-        <v>2.9445999999999999</v>
+        <v>1.7113</v>
       </c>
       <c r="R50" s="8">
-        <v>-1.2524999999999999</v>
+        <v>-0.9627</v>
       </c>
       <c r="S50" s="7">
-        <v>-3.8818999999999999</v>
+        <v>1.2816000000000001</v>
       </c>
       <c r="T50" s="8">
-        <v>-0.99650000000000005</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>5</v>
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="U50" s="7">
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="V50" s="8">
-        <v>-6.7100000000000007E-2</v>
+        <v>-2.8199999999999999E-2</v>
       </c>
       <c r="W50" s="7">
-        <v>-0.1701</v>
+        <v>1.7107000000000001</v>
       </c>
       <c r="X50" s="8">
-        <v>-0.20069999999999999</v>
-      </c>
-      <c r="Y50" s="7">
-        <v>3.3E-3</v>
+        <v>-0.51770000000000005</v>
+      </c>
+      <c r="Y50" s="9">
+        <v>1.34</v>
       </c>
       <c r="Z50" s="8">
-        <v>-6.5299999999999997E-2</v>
+        <v>5.9466999999999999</v>
       </c>
       <c r="AA50" s="7">
-        <v>-5.5100000000000003E-2</v>
+        <v>0.114</v>
       </c>
       <c r="AB50" s="8">
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>2.4</v>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AD50" s="4">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="AE50" s="1">
-        <v>2.75</v>
+        <v>2.41</v>
       </c>
       <c r="AF50" s="4">
-        <v>2.21</v>
-      </c>
-      <c r="AG50" s="7">
-        <v>0.1206</v>
+        <v>9.75</v>
+      </c>
+      <c r="AG50" s="9">
+        <v>0</v>
       </c>
       <c r="AH50" s="8">
-        <v>0.76449999999999996</v>
-      </c>
-      <c r="AI50" s="7">
-        <v>0.1206</v>
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="AI50" s="9">
+        <v>0</v>
       </c>
       <c r="AJ50" s="8">
-        <v>0.85660000000000003</v>
-      </c>
-      <c r="AK50" s="7">
-        <v>6.2700000000000006E-2</v>
+        <v>0.1027</v>
+      </c>
+      <c r="AK50" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AL50" s="8">
-        <v>3.5499999999999997E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="AM50" s="7">
-        <v>5.0700000000000002E-2</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="AN50" s="8">
-        <v>2.1700000000000001E-2</v>
+        <v>2.64E-2</v>
       </c>
       <c r="AO50" s="7">
-        <v>9.2999999999999992E-3</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="AP50" s="8">
-        <v>0.23710000000000001</v>
-      </c>
-      <c r="AQ50" s="1" t="s">
-        <v>5</v>
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="AQ50" s="7">
+        <v>0.50529999999999997</v>
       </c>
       <c r="AR50" s="4">
-        <v>143.79</v>
+        <v>75.67</v>
       </c>
       <c r="AS50" s="1" t="s">
-        <v>2748</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="51" spans="2:45" x14ac:dyDescent="0.2">
@@ -22267,7 +22267,7 @@
     </row>
     <row r="78" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>2661</v>
+        <v>2724</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2627</v>
@@ -22276,76 +22276,76 @@
         <v>2710</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="F78" s="1">
-        <v>4.41</v>
+        <v>5.3</v>
       </c>
       <c r="G78" s="1">
-        <v>6.92</v>
+        <v>22.82</v>
       </c>
       <c r="H78" s="1">
-        <v>17.88</v>
+        <v>20.39</v>
       </c>
       <c r="I78" s="1">
-        <v>0.42</v>
+        <v>2</v>
       </c>
       <c r="J78" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="K78" s="1">
-        <v>13.94</v>
+        <v>3.51</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="L78" s="4">
-        <v>8.99</v>
+        <v>49.11</v>
       </c>
       <c r="M78" s="1">
-        <v>1.07</v>
+        <v>1.93</v>
       </c>
       <c r="N78" s="4">
-        <v>0.8</v>
+        <v>1.94</v>
       </c>
       <c r="O78" s="1">
-        <v>34.71</v>
+        <v>21.44</v>
       </c>
       <c r="P78" s="4">
-        <v>33.89</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="Q78" s="7">
-        <v>0.432</v>
+        <v>-1.3599999999999999E-2</v>
       </c>
       <c r="R78" s="8">
-        <v>0.10580000000000001</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>5</v>
+        <v>-4.2500000000000003E-2</v>
+      </c>
+      <c r="S78" s="7">
+        <v>-0.33019999999999999</v>
       </c>
       <c r="T78" s="8">
-        <v>9.0200000000000002E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="U78" s="7">
-        <v>-6.7400000000000002E-2</v>
+        <v>-5.8500000000000003E-2</v>
       </c>
       <c r="V78" s="8">
-        <v>1.6199999999999999E-2</v>
+        <v>0.11609999999999999</v>
       </c>
       <c r="W78" s="7">
-        <v>6.8699999999999997E-2</v>
+        <v>0.98970000000000002</v>
       </c>
       <c r="X78" s="8">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="Y78" s="1" t="s">
-        <v>5</v>
+        <v>-0.16689999999999999</v>
+      </c>
+      <c r="Y78" s="7">
+        <v>0.36070000000000002</v>
       </c>
       <c r="Z78" s="8">
-        <v>6.5100000000000005E-2</v>
+        <v>-7.9500000000000001E-2</v>
       </c>
       <c r="AA78" s="7">
-        <v>8.1600000000000006E-2</v>
+        <v>0.11609999999999999</v>
       </c>
       <c r="AB78" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.12E-2</v>
       </c>
       <c r="AC78" s="1" t="s">
         <v>5</v>
@@ -22360,182 +22360,182 @@
         <v>5</v>
       </c>
       <c r="AG78" s="7">
-        <v>0.45179999999999998</v>
+        <v>0.30170000000000002</v>
       </c>
       <c r="AH78" s="8">
-        <v>0.48709999999999998</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="AI78" s="7">
-        <v>0.45179999999999998</v>
+        <v>0.30170000000000002</v>
       </c>
       <c r="AJ78" s="8">
-        <v>0.48709999999999998</v>
-      </c>
-      <c r="AK78" s="1" t="s">
-        <v>5</v>
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="AK78" s="7">
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AL78" s="8">
-        <v>5.2499999999999998E-2</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="AM78" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="AN78" s="8">
-        <v>5.7500000000000002E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="AO78" s="7">
-        <v>5.2699999999999997E-2</v>
+        <v>-1.47E-2</v>
       </c>
       <c r="AP78" s="8">
-        <v>3.1800000000000002E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="AQ78" s="7">
-        <v>0.83399999999999996</v>
+        <v>1.0789</v>
       </c>
       <c r="AR78" s="4">
-        <v>38.15</v>
+        <v>64.58</v>
       </c>
       <c r="AS78" s="1" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="79" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>2626</v>
+        <v>2661</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2634</v>
+        <v>2629</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>2635</v>
+        <v>2630</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="F79" s="1">
-        <v>5.56</v>
+        <v>3.48</v>
       </c>
       <c r="G79" s="1">
-        <v>17.36</v>
+        <v>117.14</v>
       </c>
       <c r="H79" s="1">
-        <v>10.84</v>
+        <v>39.75</v>
       </c>
       <c r="I79" s="1">
-        <v>2.4500000000000002</v>
+        <v>3.08</v>
       </c>
       <c r="J79" s="4">
-        <v>1.8</v>
+        <v>12.79</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L79" s="4">
-        <v>89</v>
+        <v>41.39</v>
       </c>
       <c r="M79" s="1">
-        <v>3.65</v>
+        <v>1.96</v>
       </c>
       <c r="N79" s="4">
-        <v>2.68</v>
+        <v>4.42</v>
       </c>
       <c r="O79" s="1">
-        <v>4.59</v>
+        <v>47.15</v>
       </c>
       <c r="P79" s="4">
-        <v>4.04</v>
+        <v>31.76</v>
       </c>
       <c r="Q79" s="7">
-        <v>1.2357</v>
+        <v>-1.0379</v>
       </c>
       <c r="R79" s="8">
-        <v>0.21440000000000001</v>
+        <v>5.9900000000000002E-2</v>
       </c>
       <c r="S79" s="7">
-        <v>21.227599999999999</v>
+        <v>-0.32490000000000002</v>
       </c>
       <c r="T79" s="8">
-        <v>0.1236</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="U79" s="7">
-        <v>0.30380000000000001</v>
+        <v>-6.25E-2</v>
       </c>
       <c r="V79" s="8">
-        <v>-5.8700000000000002E-2</v>
-      </c>
-      <c r="W79" s="9">
-        <v>-0.08</v>
+        <v>-1.24E-2</v>
+      </c>
+      <c r="W79" s="7">
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="X79" s="8">
-        <v>-0.1067</v>
+        <v>0.45850000000000002</v>
       </c>
       <c r="Y79" s="7">
-        <v>-0.64549999999999996</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="Z79" s="8">
-        <v>-2.6800000000000001E-2</v>
+        <v>0.24510000000000001</v>
       </c>
       <c r="AA79" s="7">
-        <v>-0.24909999999999999</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AB79" s="8">
-        <v>1.32E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="AC79" s="1">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
       <c r="AD79" s="4">
-        <v>0.79</v>
+        <v>2.23</v>
       </c>
       <c r="AE79" s="1">
-        <v>0.82</v>
+        <v>1.4</v>
       </c>
       <c r="AF79" s="4">
-        <v>0.85</v>
+        <v>2.59</v>
       </c>
       <c r="AG79" s="7">
-        <v>1.8149</v>
+        <v>0.35830000000000001</v>
       </c>
       <c r="AH79" s="8">
-        <v>1.6217999999999999</v>
-      </c>
-      <c r="AI79" s="7">
-        <v>2.0836000000000001</v>
+        <v>0.50739999999999996</v>
+      </c>
+      <c r="AI79" s="9">
+        <v>0.44</v>
       </c>
       <c r="AJ79" s="8">
-        <v>1.8580000000000001</v>
+        <v>0.59960000000000002</v>
       </c>
       <c r="AK79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AL79" s="8">
-        <v>9.0200000000000002E-2</v>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="AM79" s="7">
-        <v>6.6600000000000006E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="AN79" s="8">
-        <v>5.28E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="AO79" s="7">
-        <v>2.93E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AP79" s="8">
-        <v>1.03E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="AQ79" s="7">
-        <v>0.441</v>
+        <v>1.3545</v>
       </c>
       <c r="AR79" s="4">
-        <v>72.2</v>
+        <v>73.36</v>
       </c>
       <c r="AS79" s="1" t="s">
-        <v>2815</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="80" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>2724</v>
+        <v>2661</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2627</v>
@@ -22544,76 +22544,76 @@
         <v>2710</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>2808</v>
+        <v>2812</v>
       </c>
       <c r="F80" s="1">
-        <v>5.3</v>
+        <v>4.41</v>
       </c>
       <c r="G80" s="1">
-        <v>22.82</v>
+        <v>6.92</v>
       </c>
       <c r="H80" s="1">
-        <v>20.39</v>
+        <v>17.88</v>
       </c>
       <c r="I80" s="1">
-        <v>2</v>
+        <v>0.42</v>
       </c>
       <c r="J80" s="4">
-        <v>3.51</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>5</v>
+        <v>0.52</v>
+      </c>
+      <c r="K80" s="1">
+        <v>13.94</v>
       </c>
       <c r="L80" s="4">
-        <v>49.11</v>
+        <v>8.99</v>
       </c>
       <c r="M80" s="1">
-        <v>1.93</v>
+        <v>1.07</v>
       </c>
       <c r="N80" s="4">
-        <v>1.94</v>
+        <v>0.8</v>
       </c>
       <c r="O80" s="1">
-        <v>21.44</v>
+        <v>34.71</v>
       </c>
       <c r="P80" s="4">
-        <v>19.649999999999999</v>
+        <v>33.89</v>
       </c>
       <c r="Q80" s="7">
-        <v>-1.3599999999999999E-2</v>
+        <v>0.432</v>
       </c>
       <c r="R80" s="8">
-        <v>-4.2500000000000003E-2</v>
-      </c>
-      <c r="S80" s="7">
-        <v>-0.33019999999999999</v>
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="T80" s="8">
-        <v>4.7800000000000002E-2</v>
+        <v>9.0200000000000002E-2</v>
       </c>
       <c r="U80" s="7">
-        <v>-5.8500000000000003E-2</v>
+        <v>-6.7400000000000002E-2</v>
       </c>
       <c r="V80" s="8">
-        <v>0.11609999999999999</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="W80" s="7">
-        <v>0.98970000000000002</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="X80" s="8">
-        <v>-0.16689999999999999</v>
-      </c>
-      <c r="Y80" s="7">
-        <v>0.36070000000000002</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Y80" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="Z80" s="8">
-        <v>-7.9500000000000001E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="AA80" s="7">
-        <v>0.11609999999999999</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="AB80" s="8">
-        <v>2.12E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AC80" s="1" t="s">
         <v>5</v>
@@ -22628,713 +22628,713 @@
         <v>5</v>
       </c>
       <c r="AG80" s="7">
-        <v>0.30170000000000002</v>
+        <v>0.45179999999999998</v>
       </c>
       <c r="AH80" s="8">
-        <v>0.22720000000000001</v>
+        <v>0.48709999999999998</v>
       </c>
       <c r="AI80" s="7">
-        <v>0.30170000000000002</v>
+        <v>0.45179999999999998</v>
       </c>
       <c r="AJ80" s="8">
-        <v>0.22720000000000001</v>
-      </c>
-      <c r="AK80" s="7">
-        <v>5.2999999999999999E-2</v>
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="AK80" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AL80" s="8">
-        <v>4.5900000000000003E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="AM80" s="7">
-        <v>5.7599999999999998E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AN80" s="8">
-        <v>5.4300000000000001E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="AO80" s="7">
-        <v>-1.47E-2</v>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="AP80" s="8">
-        <v>0.13800000000000001</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="AQ80" s="7">
-        <v>1.0789</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="AR80" s="4">
-        <v>64.58</v>
+        <v>38.15</v>
       </c>
       <c r="AS80" s="1" t="s">
-        <v>2809</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="81" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>2661</v>
+        <v>2749</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>2629</v>
+        <v>2651</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>2630</v>
+        <v>2746</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>2810</v>
+        <v>3357</v>
       </c>
       <c r="F81" s="1">
-        <v>3.48</v>
+        <v>3.24</v>
       </c>
       <c r="G81" s="1">
-        <v>117.14</v>
+        <v>51.49</v>
       </c>
       <c r="H81" s="1">
-        <v>39.75</v>
+        <v>16.09</v>
       </c>
       <c r="I81" s="1">
-        <v>3.08</v>
+        <v>0.46</v>
       </c>
       <c r="J81" s="4">
-        <v>12.79</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>5</v>
+        <v>2.1</v>
+      </c>
+      <c r="K81" s="1">
+        <v>17.37</v>
       </c>
       <c r="L81" s="4">
-        <v>41.39</v>
+        <v>37.19</v>
       </c>
       <c r="M81" s="1">
-        <v>1.96</v>
+        <v>2.76</v>
       </c>
       <c r="N81" s="4">
-        <v>4.42</v>
+        <v>4.2</v>
       </c>
       <c r="O81" s="1">
-        <v>47.15</v>
+        <v>53.62</v>
       </c>
       <c r="P81" s="4">
-        <v>31.76</v>
+        <v>38.47</v>
       </c>
       <c r="Q81" s="7">
-        <v>-1.0379</v>
+        <v>0.17760000000000001</v>
       </c>
       <c r="R81" s="8">
-        <v>5.9900000000000002E-2</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="S81" s="7">
-        <v>-0.32490000000000002</v>
+        <v>0.1133</v>
       </c>
       <c r="T81" s="8">
-        <v>7.5999999999999998E-2</v>
+        <v>0.1323</v>
       </c>
       <c r="U81" s="7">
-        <v>-6.25E-2</v>
+        <v>0.1017</v>
       </c>
       <c r="V81" s="8">
-        <v>-1.24E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="W81" s="7">
-        <v>7.4099999999999999E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="X81" s="8">
-        <v>0.45850000000000002</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="Y81" s="7">
-        <v>5.4800000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="Z81" s="8">
-        <v>0.24510000000000001</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="AA81" s="7">
-        <v>3.3000000000000002E-2</v>
+        <v>9.5699999999999993E-2</v>
       </c>
       <c r="AB81" s="8">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="AC81" s="1">
-        <v>0.46</v>
+        <v>0.1077</v>
+      </c>
+      <c r="AC81" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AD81" s="4">
-        <v>2.23</v>
+        <v>0.74</v>
       </c>
       <c r="AE81" s="1">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF81" s="4">
-        <v>2.59</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AG81" s="7">
-        <v>0.35830000000000001</v>
+        <v>1.0130999999999999</v>
       </c>
       <c r="AH81" s="8">
-        <v>0.50739999999999996</v>
-      </c>
-      <c r="AI81" s="9">
-        <v>0.44</v>
+        <v>0.50260000000000005</v>
+      </c>
+      <c r="AI81" s="7">
+        <v>1.1273</v>
       </c>
       <c r="AJ81" s="8">
-        <v>0.59960000000000002</v>
-      </c>
-      <c r="AK81" s="1" t="s">
-        <v>5</v>
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="AK81" s="7">
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="AL81" s="8">
-        <v>3.5200000000000002E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="AM81" s="7">
-        <v>3.8600000000000002E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="AN81" s="8">
-        <v>3.4200000000000001E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="AO81" s="7">
-        <v>2.1000000000000001E-2</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="AP81" s="8">
-        <v>2.5399999999999999E-2</v>
+        <v>0.13550000000000001</v>
       </c>
       <c r="AQ81" s="7">
-        <v>1.3545</v>
+        <v>0.49730000000000002</v>
       </c>
       <c r="AR81" s="4">
-        <v>73.36</v>
+        <v>10.02</v>
       </c>
       <c r="AS81" s="1" t="s">
-        <v>2811</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="82" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>2749</v>
+        <v>2641</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2651</v>
+        <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>2746</v>
+        <v>2716</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>3357</v>
+        <v>2816</v>
       </c>
       <c r="F82" s="1">
-        <v>3.24</v>
+        <v>3.65</v>
       </c>
       <c r="G82" s="1">
-        <v>51.49</v>
+        <v>86.84</v>
       </c>
       <c r="H82" s="1">
-        <v>16.09</v>
+        <v>17.86</v>
       </c>
       <c r="I82" s="1">
-        <v>0.46</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J82" s="4">
-        <v>2.1</v>
+        <v>2.87</v>
       </c>
       <c r="K82" s="1">
-        <v>17.37</v>
+        <v>34.47</v>
       </c>
       <c r="L82" s="4">
-        <v>37.19</v>
+        <v>45.87</v>
       </c>
       <c r="M82" s="1">
-        <v>2.76</v>
+        <v>1.91</v>
       </c>
       <c r="N82" s="4">
-        <v>4.2</v>
+        <v>2.81</v>
       </c>
       <c r="O82" s="1">
-        <v>53.62</v>
+        <v>59.21</v>
       </c>
       <c r="P82" s="4">
-        <v>38.47</v>
+        <v>26.61</v>
       </c>
       <c r="Q82" s="7">
-        <v>0.17760000000000001</v>
+        <v>1.4573</v>
       </c>
       <c r="R82" s="8">
-        <v>8.8499999999999995E-2</v>
+        <v>-0.63360000000000005</v>
       </c>
       <c r="S82" s="7">
-        <v>0.1133</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="T82" s="8">
-        <v>0.1323</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="U82" s="7">
-        <v>0.1017</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="V82" s="8">
-        <v>0.11700000000000001</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="W82" s="7">
-        <v>5.3400000000000003E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="X82" s="8">
-        <v>5.2499999999999998E-2</v>
+        <v>4.65E-2</v>
       </c>
       <c r="Y82" s="7">
-        <v>9.2999999999999999E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="Z82" s="8">
-        <v>0.13750000000000001</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="AA82" s="7">
-        <v>9.5699999999999993E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="AB82" s="8">
-        <v>0.1077</v>
-      </c>
-      <c r="AC82" s="1" t="s">
-        <v>5</v>
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD82" s="4">
-        <v>0.74</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AE82" s="1">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AF82" s="4">
-        <v>1.1200000000000001</v>
+        <v>7.06</v>
       </c>
       <c r="AG82" s="7">
-        <v>1.0130999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="AH82" s="8">
-        <v>0.50260000000000005</v>
+        <v>0.6603</v>
       </c>
       <c r="AI82" s="7">
-        <v>1.1273</v>
+        <v>0.75729999999999997</v>
       </c>
       <c r="AJ82" s="8">
-        <v>0.70940000000000003</v>
+        <v>0.95309999999999995</v>
       </c>
       <c r="AK82" s="7">
-        <v>3.2399999999999998E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="AL82" s="8">
-        <v>1.8499999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="AM82" s="7">
-        <v>2.8400000000000002E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="AN82" s="8">
-        <v>2.2599999999999999E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="AO82" s="7">
-        <v>8.5800000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AP82" s="8">
-        <v>0.13550000000000001</v>
+        <v>-6.4100000000000004E-2</v>
       </c>
       <c r="AQ82" s="7">
-        <v>0.49730000000000002</v>
+        <v>0.61880000000000002</v>
       </c>
       <c r="AR82" s="4">
-        <v>10.02</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="AS82" s="1" t="s">
-        <v>3358</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="83" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>2641</v>
+        <v>2749</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>6</v>
+        <v>2627</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>2716</v>
+        <v>2671</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>2816</v>
+        <v>2804</v>
       </c>
       <c r="F83" s="1">
-        <v>3.65</v>
+        <v>6.17</v>
       </c>
       <c r="G83" s="1">
-        <v>86.84</v>
+        <v>218.86</v>
       </c>
       <c r="H83" s="1">
-        <v>17.86</v>
+        <v>10.92</v>
       </c>
       <c r="I83" s="1">
-        <v>1.1100000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J83" s="4">
-        <v>2.87</v>
-      </c>
-      <c r="K83" s="1">
-        <v>34.47</v>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="4">
-        <v>45.87</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="M83" s="1">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="N83" s="4">
-        <v>2.81</v>
+        <v>1.62</v>
       </c>
       <c r="O83" s="1">
-        <v>59.21</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="P83" s="4">
-        <v>26.61</v>
+        <v>69.81</v>
       </c>
       <c r="Q83" s="7">
-        <v>1.4573</v>
+        <v>0.27450000000000002</v>
       </c>
       <c r="R83" s="8">
-        <v>-0.63360000000000005</v>
+        <v>-0.1741</v>
       </c>
       <c r="S83" s="7">
-        <v>-8.0000000000000004E-4</v>
+        <v>-0.12670000000000001</v>
       </c>
       <c r="T83" s="8">
-        <v>5.4300000000000001E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="U83" s="7">
-        <v>8.3999999999999995E-3</v>
+        <v>1.23E-2</v>
       </c>
       <c r="V83" s="8">
-        <v>0.39500000000000002</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="W83" s="7">
-        <v>8.4699999999999998E-2</v>
+        <v>5.7799999999999997E-2</v>
       </c>
       <c r="X83" s="8">
-        <v>4.65E-2</v>
+        <v>-8.3799999999999999E-2</v>
       </c>
       <c r="Y83" s="7">
-        <v>4.58E-2</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="Z83" s="8">
-        <v>5.5899999999999998E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="AA83" s="7">
-        <v>4.0500000000000001E-2</v>
+        <v>-3.0200000000000001E-2</v>
       </c>
       <c r="AB83" s="8">
-        <v>4.3700000000000003E-2</v>
-      </c>
-      <c r="AC83" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD83" s="4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="AE83" s="1">
-        <v>1.39</v>
+        <v>-3.2099999999999997E-2</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AF83" s="4">
-        <v>7.06</v>
+        <v>0.6</v>
       </c>
       <c r="AG83" s="7">
-        <v>0.63200000000000001</v>
+        <v>5.5117000000000003</v>
       </c>
       <c r="AH83" s="8">
-        <v>0.6603</v>
+        <v>8.3500999999999994</v>
       </c>
       <c r="AI83" s="7">
-        <v>0.75729999999999997</v>
+        <v>5.5117000000000003</v>
       </c>
       <c r="AJ83" s="8">
-        <v>0.95309999999999995</v>
+        <v>8.4997000000000007</v>
       </c>
       <c r="AK83" s="7">
-        <v>3.4500000000000003E-2</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="AL83" s="8">
-        <v>1.47E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="AM83" s="7">
-        <v>3.61E-2</v>
+        <v>6.4199999999999993E-2</v>
       </c>
       <c r="AN83" s="8">
-        <v>1.3299999999999999E-2</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="AO83" s="7">
-        <v>2.7E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="AP83" s="8">
-        <v>-6.4100000000000004E-2</v>
-      </c>
-      <c r="AQ83" s="7">
-        <v>0.61880000000000002</v>
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="AQ83" s="9">
+        <v>0.67</v>
       </c>
       <c r="AR83" s="4">
-        <v>17.149999999999999</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="AS83" s="1" t="s">
-        <v>2817</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="84" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>2749</v>
+        <v>2820</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2627</v>
+        <v>2636</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>2671</v>
+        <v>3380</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>2804</v>
+        <v>2821</v>
       </c>
       <c r="F84" s="1">
-        <v>6.17</v>
+        <v>3.91</v>
       </c>
       <c r="G84" s="1">
-        <v>218.86</v>
-      </c>
-      <c r="H84" s="1">
-        <v>10.92</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="I84" s="1">
-        <v>4.0999999999999996</v>
+        <v>0.91</v>
       </c>
       <c r="J84" s="4">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L84" s="4">
-        <v>9.9600000000000009</v>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K84" s="1">
+        <v>21.72</v>
+      </c>
+      <c r="L84" s="10">
+        <v>1014.46</v>
       </c>
       <c r="M84" s="1">
-        <v>1.41</v>
+        <v>1.03</v>
       </c>
       <c r="N84" s="4">
-        <v>1.62</v>
+        <v>0.99</v>
       </c>
       <c r="O84" s="1">
-        <v>71.989999999999995</v>
+        <v>94.52</v>
       </c>
       <c r="P84" s="4">
-        <v>69.81</v>
+        <v>92.75</v>
       </c>
       <c r="Q84" s="7">
-        <v>0.27450000000000002</v>
+        <v>-3.1646000000000001</v>
       </c>
       <c r="R84" s="8">
-        <v>-0.1741</v>
+        <v>-0.87849999999999995</v>
       </c>
       <c r="S84" s="7">
-        <v>-0.12670000000000001</v>
+        <v>-1.0157</v>
       </c>
       <c r="T84" s="8">
-        <v>-5.0000000000000001E-3</v>
+        <v>0.59360000000000002</v>
       </c>
       <c r="U84" s="7">
-        <v>1.23E-2</v>
+        <v>0.23219999999999999</v>
       </c>
       <c r="V84" s="8">
-        <v>7.2400000000000006E-2</v>
+        <v>0.48849999999999999</v>
       </c>
       <c r="W84" s="7">
-        <v>5.7799999999999997E-2</v>
+        <v>-2.2200000000000001E-2</v>
       </c>
       <c r="X84" s="8">
-        <v>-8.3799999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="Y84" s="7">
-        <v>6.1499999999999999E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="Z84" s="8">
-        <v>-5.1999999999999998E-2</v>
+        <v>0.43790000000000001</v>
       </c>
       <c r="AA84" s="7">
-        <v>-3.0200000000000001E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="AB84" s="8">
-        <v>-3.2099999999999997E-2</v>
-      </c>
-      <c r="AC84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD84" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE84" s="1" t="s">
-        <v>5</v>
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="AC84" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AD84" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="AE84" s="1">
+        <v>1.56</v>
       </c>
       <c r="AF84" s="4">
-        <v>0.6</v>
+        <v>1.57</v>
       </c>
       <c r="AG84" s="7">
-        <v>5.5117000000000003</v>
+        <v>0.35089999999999999</v>
       </c>
       <c r="AH84" s="8">
-        <v>8.3500999999999994</v>
+        <v>0.55779999999999996</v>
       </c>
       <c r="AI84" s="7">
-        <v>5.5117000000000003</v>
+        <v>0.48139999999999999</v>
       </c>
       <c r="AJ84" s="8">
-        <v>8.4997000000000007</v>
+        <v>0.63290000000000002</v>
       </c>
       <c r="AK84" s="7">
-        <v>6.1699999999999998E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="AL84" s="8">
-        <v>5.7200000000000001E-2</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="AM84" s="7">
-        <v>6.4199999999999993E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="AN84" s="8">
-        <v>5.0299999999999997E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="AO84" s="7">
-        <v>4.3499999999999997E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AP84" s="8">
-        <v>0.20119999999999999</v>
-      </c>
-      <c r="AQ84" s="9">
-        <v>0.67</v>
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="AQ84" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AR84" s="4">
-        <v>39.619999999999997</v>
+        <v>6.19</v>
       </c>
       <c r="AS84" s="1" t="s">
-        <v>2805</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="85" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>2820</v>
+        <v>2626</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>3380</v>
+        <v>2635</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>2821</v>
+        <v>2814</v>
       </c>
       <c r="F85" s="1">
-        <v>3.91</v>
+        <v>5.56</v>
       </c>
       <c r="G85" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>5</v>
+        <v>17.36</v>
+      </c>
+      <c r="H85" s="1">
+        <v>10.84</v>
       </c>
       <c r="I85" s="1">
-        <v>0.91</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J85" s="4">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="K85" s="1">
-        <v>21.72</v>
-      </c>
-      <c r="L85" s="10">
-        <v>1014.46</v>
+        <v>1.8</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L85" s="4">
+        <v>89</v>
       </c>
       <c r="M85" s="1">
-        <v>1.03</v>
+        <v>3.65</v>
       </c>
       <c r="N85" s="4">
-        <v>0.99</v>
+        <v>2.68</v>
       </c>
       <c r="O85" s="1">
-        <v>94.52</v>
+        <v>4.59</v>
       </c>
       <c r="P85" s="4">
-        <v>92.75</v>
+        <v>4.04</v>
       </c>
       <c r="Q85" s="7">
-        <v>-3.1646000000000001</v>
+        <v>1.2357</v>
       </c>
       <c r="R85" s="8">
-        <v>-0.87849999999999995</v>
+        <v>0.21440000000000001</v>
       </c>
       <c r="S85" s="7">
-        <v>-1.0157</v>
+        <v>21.227599999999999</v>
       </c>
       <c r="T85" s="8">
-        <v>0.59360000000000002</v>
+        <v>0.1236</v>
       </c>
       <c r="U85" s="7">
-        <v>0.23219999999999999</v>
+        <v>0.30380000000000001</v>
       </c>
       <c r="V85" s="8">
-        <v>0.48849999999999999</v>
-      </c>
-      <c r="W85" s="7">
-        <v>-2.2200000000000001E-2</v>
+        <v>-5.8700000000000002E-2</v>
+      </c>
+      <c r="W85" s="9">
+        <v>-0.08</v>
       </c>
       <c r="X85" s="8">
-        <v>4.2000000000000003E-2</v>
+        <v>-0.1067</v>
       </c>
       <c r="Y85" s="7">
-        <v>1.4200000000000001E-2</v>
+        <v>-0.64549999999999996</v>
       </c>
       <c r="Z85" s="8">
-        <v>0.43790000000000001</v>
+        <v>-2.6800000000000001E-2</v>
       </c>
       <c r="AA85" s="7">
-        <v>2.1700000000000001E-2</v>
+        <v>-0.24909999999999999</v>
       </c>
       <c r="AB85" s="8">
-        <v>9.3600000000000003E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="AC85" s="1">
-        <v>1.1399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AD85" s="4">
-        <v>1.22</v>
+        <v>0.79</v>
       </c>
       <c r="AE85" s="1">
-        <v>1.56</v>
+        <v>0.82</v>
       </c>
       <c r="AF85" s="4">
-        <v>1.57</v>
+        <v>0.85</v>
       </c>
       <c r="AG85" s="7">
-        <v>0.35089999999999999</v>
+        <v>1.8149</v>
       </c>
       <c r="AH85" s="8">
-        <v>0.55779999999999996</v>
+        <v>1.6217999999999999</v>
       </c>
       <c r="AI85" s="7">
-        <v>0.48139999999999999</v>
+        <v>2.0836000000000001</v>
       </c>
       <c r="AJ85" s="8">
-        <v>0.63290000000000002</v>
-      </c>
-      <c r="AK85" s="7">
-        <v>2.7300000000000001E-2</v>
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="AK85" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AL85" s="8">
-        <v>2.7900000000000001E-2</v>
+        <v>9.0200000000000002E-2</v>
       </c>
       <c r="AM85" s="7">
-        <v>2.3800000000000002E-2</v>
+        <v>6.6600000000000006E-2</v>
       </c>
       <c r="AN85" s="8">
-        <v>2.5100000000000001E-2</v>
+        <v>5.28E-2</v>
       </c>
       <c r="AO85" s="7">
-        <v>2.9000000000000001E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="AP85" s="8">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="AQ85" s="1" t="s">
-        <v>5</v>
+        <v>1.03E-2</v>
+      </c>
+      <c r="AQ85" s="7">
+        <v>0.441</v>
       </c>
       <c r="AR85" s="4">
-        <v>6.19</v>
+        <v>72.2</v>
       </c>
       <c r="AS85" s="1" t="s">
-        <v>2822</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="86" spans="2:45" x14ac:dyDescent="0.2">
@@ -24411,404 +24411,404 @@
     </row>
     <row r="94" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>2724</v>
+        <v>2626</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>2636</v>
+        <v>2644</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>2842</v>
+        <v>2836</v>
       </c>
       <c r="F94" s="1">
-        <v>4.32</v>
+        <v>3.1</v>
       </c>
       <c r="G94" s="1">
-        <v>15.71</v>
+        <v>121.37</v>
       </c>
       <c r="H94" s="1">
-        <v>15.12</v>
+        <v>26.04</v>
       </c>
       <c r="I94" s="1">
-        <v>1.57</v>
+        <v>2.8</v>
       </c>
       <c r="J94" s="4">
-        <v>0.72</v>
+        <v>3.33</v>
       </c>
       <c r="K94" s="1">
-        <v>21.37</v>
+        <v>58.88</v>
       </c>
       <c r="L94" s="4">
-        <v>163.58000000000001</v>
+        <v>68.77</v>
       </c>
       <c r="M94" s="1">
-        <v>1.59</v>
+        <v>11.07</v>
       </c>
       <c r="N94" s="4">
-        <v>1.1299999999999999</v>
+        <v>7.28</v>
       </c>
       <c r="O94" s="1">
-        <v>18.87</v>
+        <v>4.2</v>
       </c>
       <c r="P94" s="4">
-        <v>9.98</v>
+        <v>6.02</v>
       </c>
       <c r="Q94" s="7">
-        <v>-0.55310000000000004</v>
+        <v>-0.58289999999999997</v>
       </c>
       <c r="R94" s="8">
-        <v>0.33500000000000002</v>
+        <v>9.8599999999999993E-2</v>
       </c>
       <c r="S94" s="7">
-        <v>-0.2908</v>
+        <v>-0.38940000000000002</v>
       </c>
       <c r="T94" s="8">
-        <v>3.778</v>
+        <v>2.75E-2</v>
       </c>
       <c r="U94" s="7">
-        <v>0.15609999999999999</v>
+        <v>3.61E-2</v>
       </c>
       <c r="V94" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="W94" s="7">
-        <v>-0.104</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="X94" s="8">
-        <v>-1.7999999999999999E-2</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="Y94" s="7">
-        <v>-2.3300000000000001E-2</v>
-      </c>
-      <c r="Z94" s="11">
-        <v>0</v>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="Z94" s="8">
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="AA94" s="7">
-        <v>7.4000000000000003E-3</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="AB94" s="8">
-        <v>8.2000000000000007E-3</v>
+        <v>2.81E-2</v>
       </c>
       <c r="AC94" s="1">
-        <v>1.76</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AD94" s="4">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="AE94" s="1">
-        <v>2.5099999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="AF94" s="4">
-        <v>1.55</v>
+        <v>0.63</v>
       </c>
       <c r="AG94" s="7">
-        <v>0.1188</v>
+        <v>1.7864</v>
       </c>
       <c r="AH94" s="8">
-        <v>0.47710000000000002</v>
+        <v>0.45550000000000002</v>
       </c>
       <c r="AI94" s="7">
-        <v>0.12909999999999999</v>
+        <v>2.1419999999999999</v>
       </c>
       <c r="AJ94" s="8">
-        <v>0.59440000000000004</v>
-      </c>
-      <c r="AK94" s="7">
-        <v>4.3200000000000002E-2</v>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="AK94" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AL94" s="8">
-        <v>4.2000000000000003E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="AM94" s="7">
-        <v>4.5600000000000002E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="AN94" s="8">
-        <v>4.7600000000000003E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="AO94" s="7">
-        <v>0.11020000000000001</v>
+        <v>9.69E-2</v>
       </c>
       <c r="AP94" s="8">
-        <v>5.1499999999999997E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="AQ94" s="7">
-        <v>0.65349999999999997</v>
+        <v>0.36959999999999998</v>
       </c>
       <c r="AR94" s="4">
-        <v>33.78</v>
+        <v>40.29</v>
       </c>
       <c r="AS94" s="1" t="s">
-        <v>2843</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="95" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>2644</v>
+        <v>2627</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>2713</v>
+        <v>2671</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>2836</v>
+        <v>2840</v>
       </c>
       <c r="F95" s="1">
-        <v>3.1</v>
+        <v>4.05</v>
       </c>
       <c r="G95" s="1">
-        <v>121.37</v>
+        <v>3.42</v>
       </c>
       <c r="H95" s="1">
-        <v>26.04</v>
+        <v>13.46</v>
       </c>
       <c r="I95" s="1">
-        <v>2.8</v>
+        <v>4.79</v>
       </c>
       <c r="J95" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="K95" s="1">
-        <v>58.88</v>
+        <v>2.89</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="L95" s="4">
-        <v>68.77</v>
+        <v>20.67</v>
       </c>
       <c r="M95" s="1">
-        <v>11.07</v>
+        <v>1.04</v>
       </c>
       <c r="N95" s="4">
-        <v>7.28</v>
+        <v>1.33</v>
       </c>
       <c r="O95" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="P95" s="4">
-        <v>6.02</v>
+        <v>33.119999999999997</v>
+      </c>
+      <c r="P95" s="10">
+        <v>3174.42</v>
       </c>
       <c r="Q95" s="7">
-        <v>-0.58289999999999997</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="R95" s="8">
-        <v>9.8599999999999993E-2</v>
+        <v>-0.13009999999999999</v>
       </c>
       <c r="S95" s="7">
-        <v>-0.38940000000000002</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="T95" s="8">
-        <v>2.75E-2</v>
+        <v>0.12609999999999999</v>
       </c>
       <c r="U95" s="7">
-        <v>3.61E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="V95" s="8">
-        <v>2.9499999999999998E-2</v>
+        <v>8.77E-2</v>
       </c>
       <c r="W95" s="7">
-        <v>4.9700000000000001E-2</v>
+        <v>-1.9400000000000001E-2</v>
       </c>
       <c r="X95" s="8">
-        <v>8.0100000000000005E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="Y95" s="7">
-        <v>1.9599999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Z95" s="8">
-        <v>8.0199999999999994E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="AA95" s="7">
-        <v>1.4200000000000001E-2</v>
+        <v>0.1275</v>
       </c>
       <c r="AB95" s="8">
-        <v>2.81E-2</v>
-      </c>
-      <c r="AC95" s="1">
-        <v>0.57999999999999996</v>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="AC95" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AD95" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="AE95" s="1">
-        <v>0.78</v>
+        <v>11.77</v>
+      </c>
+      <c r="AE95" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AF95" s="4">
-        <v>0.63</v>
+        <v>11.82</v>
       </c>
       <c r="AG95" s="7">
-        <v>1.7864</v>
+        <v>0.5464</v>
       </c>
       <c r="AH95" s="8">
-        <v>0.45550000000000002</v>
+        <v>1.0504</v>
       </c>
       <c r="AI95" s="7">
-        <v>2.1419999999999999</v>
+        <v>0.65780000000000005</v>
       </c>
       <c r="AJ95" s="8">
-        <v>0.74319999999999997</v>
-      </c>
-      <c r="AK95" s="1" t="s">
-        <v>5</v>
+        <v>1.9076</v>
+      </c>
+      <c r="AK95" s="7">
+        <v>4.07E-2</v>
       </c>
       <c r="AL95" s="8">
-        <v>1.7399999999999999E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="AM95" s="7">
-        <v>3.1899999999999998E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="AN95" s="8">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="AO95" s="7">
-        <v>9.69E-2</v>
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="AO95" s="9">
+        <v>0.01</v>
       </c>
       <c r="AP95" s="8">
-        <v>5.4100000000000002E-2</v>
+        <v>0.25440000000000002</v>
       </c>
       <c r="AQ95" s="7">
-        <v>0.36959999999999998</v>
+        <v>0.3997</v>
       </c>
       <c r="AR95" s="4">
-        <v>40.29</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="AS95" s="1" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="96" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>2624</v>
+        <v>2724</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>2627</v>
+        <v>2636</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>2671</v>
+        <v>2719</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c r="F96" s="1">
-        <v>4.05</v>
+        <v>4.32</v>
       </c>
       <c r="G96" s="1">
-        <v>3.42</v>
+        <v>15.71</v>
       </c>
       <c r="H96" s="1">
-        <v>13.46</v>
+        <v>15.12</v>
       </c>
       <c r="I96" s="1">
-        <v>4.79</v>
+        <v>1.57</v>
       </c>
       <c r="J96" s="4">
-        <v>2.89</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>5</v>
+        <v>0.72</v>
+      </c>
+      <c r="K96" s="1">
+        <v>21.37</v>
       </c>
       <c r="L96" s="4">
-        <v>20.67</v>
+        <v>163.58000000000001</v>
       </c>
       <c r="M96" s="1">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="N96" s="4">
-        <v>1.33</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="O96" s="1">
-        <v>33.119999999999997</v>
-      </c>
-      <c r="P96" s="10">
-        <v>3174.42</v>
+        <v>18.87</v>
+      </c>
+      <c r="P96" s="4">
+        <v>9.98</v>
       </c>
       <c r="Q96" s="7">
-        <v>7.3000000000000001E-3</v>
+        <v>-0.55310000000000004</v>
       </c>
       <c r="R96" s="8">
-        <v>-0.13009999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="S96" s="7">
-        <v>3.9300000000000002E-2</v>
+        <v>-0.2908</v>
       </c>
       <c r="T96" s="8">
-        <v>0.12609999999999999</v>
+        <v>3.778</v>
       </c>
       <c r="U96" s="7">
-        <v>5.8700000000000002E-2</v>
+        <v>0.15609999999999999</v>
       </c>
       <c r="V96" s="8">
-        <v>8.77E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="W96" s="7">
-        <v>-1.9400000000000001E-2</v>
+        <v>-0.104</v>
       </c>
       <c r="X96" s="8">
-        <v>7.2900000000000006E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="Y96" s="7">
-        <v>6.25E-2</v>
-      </c>
-      <c r="Z96" s="8">
-        <v>3.2500000000000001E-2</v>
+        <v>-2.3300000000000001E-2</v>
+      </c>
+      <c r="Z96" s="11">
+        <v>0</v>
       </c>
       <c r="AA96" s="7">
-        <v>0.1275</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="AB96" s="8">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="AC96" s="1" t="s">
-        <v>5</v>
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>1.76</v>
       </c>
       <c r="AD96" s="4">
-        <v>11.77</v>
-      </c>
-      <c r="AE96" s="1" t="s">
-        <v>5</v>
+        <v>0.97</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>2.5099999999999998</v>
       </c>
       <c r="AF96" s="4">
-        <v>11.82</v>
+        <v>1.55</v>
       </c>
       <c r="AG96" s="7">
-        <v>0.5464</v>
+        <v>0.1188</v>
       </c>
       <c r="AH96" s="8">
-        <v>1.0504</v>
+        <v>0.47710000000000002</v>
       </c>
       <c r="AI96" s="7">
-        <v>0.65780000000000005</v>
+        <v>0.12909999999999999</v>
       </c>
       <c r="AJ96" s="8">
-        <v>1.9076</v>
+        <v>0.59440000000000004</v>
       </c>
       <c r="AK96" s="7">
-        <v>4.07E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="AL96" s="8">
-        <v>3.2800000000000003E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AM96" s="7">
-        <v>3.5400000000000001E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="AN96" s="8">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="AO96" s="9">
-        <v>0.01</v>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AO96" s="7">
+        <v>0.11020000000000001</v>
       </c>
       <c r="AP96" s="8">
-        <v>0.25440000000000002</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="AQ96" s="7">
-        <v>0.3997</v>
+        <v>0.65349999999999997</v>
       </c>
       <c r="AR96" s="4">
-        <v>32.520000000000003</v>
+        <v>33.78</v>
       </c>
       <c r="AS96" s="1" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="97" spans="2:45" x14ac:dyDescent="0.2">
@@ -25214,8 +25214,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:AS205">
-    <sortCondition ref="E3:E205"/>
+  <sortState ref="B3:AS99">
+    <sortCondition ref="E3:E99"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25226,7 +25226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25325,16 +25325,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -25342,16 +25342,16 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>3306</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3307</v>
+        <v>2859</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
@@ -25359,16 +25359,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>2860</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>396</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -25376,16 +25376,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>396</v>
+        <v>2930</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
@@ -25393,16 +25393,16 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2930</v>
+        <v>321</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
@@ -25410,16 +25410,16 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>2864</v>
+        <v>2868</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -25427,16 +25427,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>342</v>
+        <v>2898</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -25444,16 +25444,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2898</v>
+        <v>253</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -25461,16 +25461,16 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>5</v>
@@ -25478,16 +25478,16 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -25495,16 +25495,16 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -25512,16 +25512,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>2878</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>145</v>
+        <v>3344</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -25529,50 +25529,50 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>3383</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2880</v>
+        <v>3384</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3344</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>5</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>3383</v>
+        <v>2881</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3384</v>
+        <v>2882</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>3385</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>2896</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3385</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
@@ -25580,16 +25580,16 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
+        <v>367</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>5</v>
@@ -25597,16 +25597,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>2885</v>
+        <v>244</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
+        <v>3386</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>367</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -25614,13 +25614,13 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>5</v>
@@ -25631,16 +25631,16 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>245</v>
+        <v>2889</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3387</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>5</v>
@@ -25648,16 +25648,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>2889</v>
+        <v>3306</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2890</v>
+        <v>3307</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>105</v>
+        <v>276</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
@@ -25716,16 +25716,16 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>3035</v>
+        <v>2901</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3036</v>
+        <v>2902</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3388</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>5</v>
@@ -25733,16 +25733,16 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>2901</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>404</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>5</v>
@@ -25750,13 +25750,13 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>2904</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>5</v>
@@ -25767,16 +25767,16 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>241</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -25784,16 +25784,16 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>5</v>
@@ -25801,16 +25801,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>107</v>
+        <v>3389</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -25818,16 +25818,16 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>2910</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>3389</v>
+        <v>323</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>5</v>
@@ -25835,16 +25835,16 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>2914</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>323</v>
+        <v>239</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
@@ -25852,16 +25852,16 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>2914</v>
+        <v>3308</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2915</v>
+        <v>3309</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>5</v>
+        <v>3390</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>239</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
@@ -25869,13 +25869,13 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>3308</v>
+        <v>3035</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3309</v>
+        <v>3036</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>3390</v>
+        <v>3388</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>5</v>
@@ -26005,16 +26005,16 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>2940</v>
+        <v>2931</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>2941</v>
+        <v>2932</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>312</v>
+        <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -26022,16 +26022,16 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>2931</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -26039,16 +26039,16 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>2936</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2933</v>
+        <v>2937</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -26056,16 +26056,16 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>2936</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
@@ -26073,16 +26073,16 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>2701</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>2938</v>
+        <v>2702</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>107</v>
+        <v>361</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -26090,16 +26090,16 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>2701</v>
+        <v>2940</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2702</v>
+        <v>2941</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -26464,16 +26464,16 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>3316</v>
+        <v>2978</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>3317</v>
+        <v>2979</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1570</v>
+        <v>328</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -26481,16 +26481,16 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>3297</v>
+        <v>2980</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>3296</v>
+        <v>2981</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>379</v>
+        <v>148</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -26498,16 +26498,16 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>2978</v>
+        <v>2982</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2979</v>
+        <v>2983</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>328</v>
+        <v>2984</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>5</v>
@@ -26515,33 +26515,33 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>2980</v>
+        <v>2934</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>2981</v>
+        <v>2935</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>5</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>2982</v>
+        <v>3316</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>2983</v>
+        <v>3317</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>2984</v>
+        <v>1570</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -26549,33 +26549,33 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>2934</v>
+        <v>2985</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2935</v>
+        <v>2986</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>5</v>
+        <v>348</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>2896</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>2985</v>
+        <v>2987</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>348</v>
+        <v>139</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -26583,16 +26583,16 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>2987</v>
+        <v>2989</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>139</v>
+        <v>2429</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -26600,16 +26600,16 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>2989</v>
+        <v>3297</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2990</v>
+        <v>3296</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2429</v>
+        <v>379</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -26634,16 +26634,16 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>2993</v>
+        <v>2997</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2994</v>
+        <v>2998</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -26651,16 +26651,16 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>5</v>
+        <v>3394</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
@@ -26668,16 +26668,16 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>3394</v>
+        <v>82</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -26736,33 +26736,33 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>3013</v>
+        <v>3004</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>3014</v>
+        <v>3005</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>5</v>
+        <v>3319</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>2973</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>3004</v>
+        <v>3006</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>3319</v>
+        <v>5</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>5</v>
+        <v>3008</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
@@ -26770,16 +26770,16 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>3008</v>
+        <v>3394</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
@@ -26787,16 +26787,16 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>3394</v>
+        <v>5</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
@@ -26804,19 +26804,19 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>5</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
@@ -27535,16 +27535,16 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>3406</v>
+        <v>5</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>5</v>
@@ -27552,16 +27552,16 @@
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>3349</v>
+        <v>3090</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>3350</v>
+        <v>3091</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>5</v>
+        <v>3406</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>346</v>
+        <v>5</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>5</v>
@@ -27569,16 +27569,16 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>3087</v>
+        <v>3092</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>3088</v>
+        <v>3093</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>5</v>
@@ -27586,16 +27586,16 @@
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>3092</v>
+        <v>3094</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>295</v>
+        <v>3176</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>5</v>
@@ -27603,16 +27603,16 @@
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>3094</v>
+        <v>3096</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>3095</v>
+        <v>3097</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>3176</v>
+        <v>366</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>5</v>
@@ -27620,16 +27620,16 @@
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>3096</v>
+        <v>3098</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>366</v>
+        <v>2912</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>5</v>
@@ -27637,16 +27637,16 @@
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>3098</v>
+        <v>3332</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>3099</v>
+        <v>3333</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>2912</v>
+        <v>410</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>5</v>
@@ -27654,16 +27654,16 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
-        <v>3332</v>
+        <v>3100</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>3333</v>
+        <v>3101</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>410</v>
+        <v>3025</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>5</v>
@@ -27671,16 +27671,16 @@
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
-        <v>3100</v>
+        <v>3349</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>3101</v>
+        <v>3350</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>3025</v>
+        <v>346</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>5</v>
@@ -27688,16 +27688,16 @@
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>3110</v>
+        <v>277</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>5</v>
@@ -27705,16 +27705,16 @@
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>3104</v>
+        <v>3106</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>5</v>
+        <v>3407</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
@@ -27722,16 +27722,16 @@
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>3106</v>
+        <v>3108</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>3107</v>
+        <v>3109</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>3407</v>
+        <v>5</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>5</v>
+        <v>3110</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>5</v>
@@ -27892,16 +27892,16 @@
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>3119</v>
+        <v>150</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>3120</v>
+        <v>3123</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>5</v>
@@ -27909,16 +27909,16 @@
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>3121</v>
+        <v>3124</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>5</v>
+        <v>352</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>5</v>
@@ -27926,16 +27926,16 @@
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>150</v>
+        <v>3126</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>5</v>
@@ -27943,16 +27943,16 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
-        <v>3124</v>
+        <v>3342</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>3125</v>
+        <v>3343</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>5</v>
+        <v>3318</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
@@ -27960,16 +27960,16 @@
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
-        <v>3126</v>
+        <v>3119</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>3127</v>
+        <v>3120</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>5</v>
@@ -27977,16 +27977,16 @@
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
-        <v>3342</v>
+        <v>3130</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>3343</v>
+        <v>3131</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>3318</v>
+        <v>3070</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>5</v>
@@ -27994,16 +27994,16 @@
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
-        <v>3130</v>
+        <v>3132</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>3070</v>
+        <v>367</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>5</v>
@@ -28011,16 +28011,16 @@
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>3132</v>
+        <v>3121</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>3133</v>
+        <v>3122</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>5</v>
@@ -28028,16 +28028,16 @@
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>3142</v>
+        <v>153</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>3143</v>
+        <v>3134</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>328</v>
+        <v>5</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>5</v>
@@ -28045,16 +28045,16 @@
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
-        <v>3147</v>
+        <v>3135</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>3148</v>
+        <v>3136</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>5</v>
@@ -28062,16 +28062,16 @@
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>3150</v>
+        <v>3137</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>3151</v>
+        <v>3138</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>63</v>
+        <v>3089</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>5</v>
@@ -28079,13 +28079,13 @@
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>3134</v>
+        <v>3139</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>5</v>
@@ -28096,16 +28096,16 @@
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
-        <v>3135</v>
+        <v>3142</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>3136</v>
+        <v>3143</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>5</v>
@@ -28113,16 +28113,16 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>3137</v>
+        <v>3144</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>3138</v>
+        <v>3145</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>3089</v>
+        <v>310</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>5</v>
@@ -28130,13 +28130,13 @@
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>3139</v>
+        <v>3146</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>5</v>
@@ -28147,16 +28147,16 @@
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
-        <v>3144</v>
+        <v>3345</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>3145</v>
+        <v>3346</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>310</v>
+        <v>85</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>5</v>
@@ -28164,16 +28164,16 @@
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
-        <v>157</v>
+        <v>3147</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>3146</v>
+        <v>3148</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>381</v>
+        <v>5</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>5</v>
@@ -28181,16 +28181,16 @@
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>3345</v>
+        <v>159</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>3346</v>
+        <v>3149</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>5</v>
@@ -28198,13 +28198,13 @@
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>159</v>
+        <v>3102</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>3149</v>
+        <v>3103</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>149</v>
+        <v>3409</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>5</v>
@@ -28215,16 +28215,16 @@
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>3102</v>
+        <v>3150</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>3103</v>
+        <v>3151</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>3409</v>
+        <v>5</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>5</v>
@@ -28419,16 +28419,16 @@
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
-        <v>3185</v>
+        <v>3366</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>3186</v>
+        <v>3367</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>387</v>
+        <v>5</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>5</v>
@@ -28436,16 +28436,16 @@
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
-        <v>3191</v>
+        <v>171</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>3192</v>
+        <v>3175</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>3411</v>
+        <v>5</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>5</v>
@@ -28453,16 +28453,16 @@
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
-        <v>3366</v>
+        <v>3177</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>3367</v>
+        <v>3178</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>5</v>
+        <v>3412</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>5</v>
@@ -28470,16 +28470,16 @@
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
-        <v>171</v>
+        <v>3179</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>3175</v>
+        <v>3180</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>66</v>
+        <v>349</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>5</v>
@@ -28487,16 +28487,16 @@
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" s="1" t="s">
-        <v>3177</v>
+        <v>3347</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>3178</v>
+        <v>3348</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>5</v>
+        <v>3413</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>3412</v>
+        <v>5</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>5</v>
@@ -28504,16 +28504,16 @@
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194" s="1" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>5</v>
+        <v>3414</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>349</v>
+        <v>5</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>5</v>
@@ -28521,16 +28521,16 @@
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
-        <v>3347</v>
+        <v>3185</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>3348</v>
+        <v>3186</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>3413</v>
+        <v>5</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>5</v>
+        <v>387</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>5</v>
@@ -28538,13 +28538,13 @@
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>3414</v>
+        <v>132</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>5</v>
@@ -28555,16 +28555,16 @@
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="s">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>5</v>
+        <v>2428</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>5</v>
@@ -28572,16 +28572,16 @@
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>3190</v>
+        <v>3192</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>5</v>
+        <v>3411</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>2428</v>
+        <v>5</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>5</v>
@@ -28589,33 +28589,33 @@
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>5</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="s">
-        <v>3209</v>
+        <v>3195</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>3210</v>
+        <v>3196</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>72</v>
+        <v>352</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>5</v>
@@ -28623,33 +28623,33 @@
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>5</v>
+        <v>413</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>2896</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
-        <v>3195</v>
+        <v>3201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>3196</v>
+        <v>3202</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>5</v>
@@ -28657,16 +28657,16 @@
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" s="1" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>5</v>
@@ -28674,16 +28674,16 @@
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>301</v>
+        <v>3415</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>5</v>
@@ -28691,16 +28691,16 @@
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="s">
-        <v>3203</v>
+        <v>3205</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>3415</v>
+        <v>3086</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>5</v>
@@ -28708,16 +28708,16 @@
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206" s="1" t="s">
-        <v>3205</v>
+        <v>3207</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>3206</v>
+        <v>3208</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>3086</v>
+        <v>169</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>5</v>
@@ -28725,16 +28725,16 @@
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" s="1" t="s">
-        <v>3207</v>
+        <v>3209</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>3208</v>
+        <v>3210</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>5</v>
@@ -28759,16 +28759,16 @@
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" s="1" t="s">
-        <v>3215</v>
+        <v>3211</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1711</v>
+        <v>2930</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>5</v>
@@ -28776,16 +28776,16 @@
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B210" s="1" t="s">
-        <v>179</v>
+        <v>3213</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>3219</v>
+        <v>3214</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>5</v>
@@ -28793,16 +28793,16 @@
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B211" s="1" t="s">
-        <v>3222</v>
+        <v>3215</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>3223</v>
+        <v>3216</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>62</v>
+        <v>1711</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>5</v>
@@ -28810,16 +28810,16 @@
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B212" s="1" t="s">
-        <v>3211</v>
+        <v>3217</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>3212</v>
+        <v>3218</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2930</v>
+        <v>66</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>5</v>
@@ -28827,16 +28827,16 @@
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213" s="1" t="s">
-        <v>3213</v>
+        <v>3351</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>3214</v>
+        <v>3352</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>5</v>
+        <v>3416</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>5</v>
@@ -28844,16 +28844,16 @@
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B214" s="1" t="s">
-        <v>3217</v>
+        <v>3353</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>3218</v>
+        <v>3354</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>5</v>
+        <v>3417</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>5</v>
@@ -28861,16 +28861,16 @@
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="s">
-        <v>3351</v>
+        <v>3355</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>3352</v>
+        <v>3356</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>3416</v>
+        <v>5</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>5</v>
+        <v>3418</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>5</v>
@@ -28878,16 +28878,16 @@
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B216" s="1" t="s">
-        <v>3353</v>
+        <v>179</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>3354</v>
+        <v>3219</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>3417</v>
+        <v>5</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>5</v>
@@ -28895,16 +28895,16 @@
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217" s="1" t="s">
-        <v>3355</v>
+        <v>3220</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>3356</v>
+        <v>3221</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>3418</v>
+        <v>2939</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>5</v>
@@ -28912,16 +28912,16 @@
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B218" s="1" t="s">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>3221</v>
+        <v>3223</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>2939</v>
+        <v>62</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>5</v>
@@ -29167,13 +29167,13 @@
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
-        <v>3249</v>
+        <v>3244</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>3250</v>
+        <v>3245</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>3419</v>
+        <v>149</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>5</v>
@@ -29184,16 +29184,16 @@
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B234" s="1" t="s">
-        <v>3244</v>
+        <v>189</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>5</v>
+        <v>308</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>5</v>
@@ -29201,16 +29201,16 @@
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235" s="1" t="s">
-        <v>189</v>
+        <v>3247</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>3246</v>
+        <v>3248</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>5</v>
+        <v>3365</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>308</v>
+        <v>5</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>5</v>
@@ -29218,13 +29218,13 @@
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B236" s="1" t="s">
-        <v>3247</v>
+        <v>3249</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>3248</v>
+        <v>3250</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>3365</v>
+        <v>3419</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>5</v>
@@ -29405,16 +29405,16 @@
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
-        <v>196</v>
+        <v>3265</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>5</v>
@@ -29422,16 +29422,16 @@
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="s">
-        <v>3265</v>
+        <v>196</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>5</v>
@@ -29575,16 +29575,16 @@
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B257" s="1" t="s">
-        <v>3288</v>
+        <v>3281</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3289</v>
+        <v>3282</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2916</v>
+        <v>175</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>5</v>
@@ -29592,16 +29592,16 @@
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B258" s="1" t="s">
-        <v>3279</v>
+        <v>3283</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3280</v>
+        <v>3284</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>202</v>
+        <v>2984</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>5</v>
@@ -29609,16 +29609,16 @@
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B259" s="1" t="s">
-        <v>3281</v>
+        <v>204</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3282</v>
+        <v>3285</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>5</v>
@@ -29626,16 +29626,16 @@
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B260" s="1" t="s">
-        <v>3283</v>
+        <v>3286</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>3284</v>
+        <v>3287</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>5</v>
+        <v>3422</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>2984</v>
+        <v>5</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>5</v>
@@ -29643,16 +29643,16 @@
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B261" s="1" t="s">
-        <v>204</v>
+        <v>3288</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>5</v>
+        <v>2916</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>5</v>
@@ -29660,16 +29660,16 @@
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B262" s="1" t="s">
-        <v>3286</v>
+        <v>3290</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3287</v>
+        <v>3291</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>3422</v>
+        <v>5</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>5</v>
+        <v>3423</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>5</v>
@@ -29677,16 +29677,16 @@
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B263" s="1" t="s">
-        <v>3290</v>
+        <v>3372</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3291</v>
+        <v>3373</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>3423</v>
+        <v>5</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>5</v>
@@ -29694,16 +29694,16 @@
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B264" s="1" t="s">
-        <v>3372</v>
+        <v>3292</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3373</v>
+        <v>3293</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>5</v>
@@ -29711,16 +29711,16 @@
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B265" s="1" t="s">
-        <v>3292</v>
+        <v>3294</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>3293</v>
+        <v>3295</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>148</v>
+        <v>276</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>5</v>
@@ -29728,24 +29728,24 @@
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B266" s="1" t="s">
-        <v>3294</v>
+        <v>3279</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3295</v>
+        <v>3280</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:F871">
-    <sortCondition ref="B3:B871"/>
+  <sortState ref="B3:F266">
+    <sortCondition ref="B3:B266"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
